--- a/C#/Finance_App/Finance_App/bin/Release/Budget_Template.xlsx
+++ b/C#/Finance_App/Finance_App/bin/Release/Budget_Template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF0570D-0E93-44BA-8B61-145CE556219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B419085B-0C73-4C35-8358-45C71892A570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home Plans" sheetId="6" r:id="rId1"/>
@@ -1580,377 +1580,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="65" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="67" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="61" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="68" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="66" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="70" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="14" borderId="59" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="14" borderId="71" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="60" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="72" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="73" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="23" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="29" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="12" borderId="25" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="12" borderId="30" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="25" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="30" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="12" borderId="27" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="12" borderId="31" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="18" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="14" borderId="33" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="12" borderId="25" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="11" borderId="25" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="12" borderId="27" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="6" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="64" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="74" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="11" borderId="65" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="11" borderId="67" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="69" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="11" borderId="23" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="16" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="44" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="16" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2032,14 +1661,421 @@
     <xf numFmtId="0" fontId="30" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="18" fillId="14" borderId="33" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="12" borderId="25" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="12" borderId="25" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="12" borderId="30" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="11" borderId="25" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="25" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="30" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="16" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="12" borderId="27" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="12" borderId="27" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="12" borderId="31" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="16" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="44" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="6" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="16" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="11" borderId="23" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="18" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="23" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="29" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="18" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="65" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="67" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="61" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="68" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="64" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="69" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="66" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="70" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="14" borderId="59" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="14" borderId="71" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="60" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="72" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="73" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="74" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="11" borderId="65" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="11" borderId="67" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="14" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="14" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="14" borderId="18" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="14" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="14" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="14" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="11" borderId="82" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2065,13 +2101,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="76" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="75" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="20" fillId="14" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2082,57 +2113,26 @@
     <xf numFmtId="166" fontId="20" fillId="14" borderId="18" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="14" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="14" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="14" borderId="18" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="76" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="14" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="14" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="14" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="75" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="16" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="18" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2157,14 +2157,7 @@
     <cellStyle name="Table Details" xfId="10" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -2205,405 +2198,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -2668,12 +2262,12 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Planner" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="67"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
     </tableStyle>
     <tableStyle name="Table Style 1" pivot="0" count="3" xr9:uid="{5877AB84-0B4B-477E-9927-EF534BA3E47F}">
-      <tableStyleElement type="headerRow" dxfId="66"/>
-      <tableStyleElement type="firstRowStripe" dxfId="65"/>
-      <tableStyleElement type="secondRowStripe" dxfId="64"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4792,6 +4386,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Available Finances'!$J$12:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% OF BUDGET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -4813,7 +4418,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7591-45BF-9D48-5CD6D496742A}"/>
+                <c16:uniqueId val="{00000001-6B00-4AD8-8F56-565F5A4DB9C9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4838,7 +4443,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7591-45BF-9D48-5CD6D496742A}"/>
+                <c16:uniqueId val="{00000003-6B00-4AD8-8F56-565F5A4DB9C9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4863,7 +4468,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-03A6-4746-9101-6EDDF7F70A50}"/>
+                <c16:uniqueId val="{00000005-6B00-4AD8-8F56-565F5A4DB9C9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4890,415 +4495,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Available Finances'!$C$13:$I$16</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Available Finances'!$J$13:$J$16</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7591-45BF-9D48-5CD6D496742A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-7591-45BF-9D48-5CD6D496742A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-7591-45BF-9D48-5CD6D496742A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Available Finances'!$C$13:$I$16</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Available Finances'!$K$13:$K$16</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-7591-45BF-9D48-5CD6D496742A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-03A6-4746-9101-6EDDF7F70A50}"/>
+                <c16:uniqueId val="{00000007-6B00-4AD8-8F56-565F5A4DB9C9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5395,199 +4592,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Available Finances'!$L$13:$L$16</c:f>
+              <c:f>'Available Finances'!$J$13:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-7591-45BF-9D48-5CD6D496742A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:srgbClr val="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:srgbClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:srgbClr val="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:srgbClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Available Finances'!$C$13:$I$16</c:f>
-              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5601,232 +4608,12 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Available Finances'!$M$13:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-7591-45BF-9D48-5CD6D496742A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-03A6-4746-9101-6EDDF7F70A50}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:srgbClr val="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:srgbClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:srgbClr val="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:srgbClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Available Finances'!$C$13:$I$16</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Available Finances'!$N$13:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-7591-45BF-9D48-5CD6D496742A}"/>
+              <c16:uniqueId val="{00000037-201C-4F8A-A69E-953F9FF2EC80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5838,7 +4625,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:extLst/>
       </c:pie3DChart>
@@ -24225,7 +23012,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AP83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -24288,47 +23075,47 @@
       <c r="C2" s="36"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
       <c r="T2" s="23"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
-      <c r="W2" s="165" t="s">
+      <c r="W2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="178"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="178"/>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="171" t="s">
+      <c r="X2" s="57"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="172"/>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="157"/>
-      <c r="AJ2" s="157"/>
-      <c r="AK2" s="157"/>
-      <c r="AL2" s="157"/>
-      <c r="AM2" s="157"/>
-      <c r="AN2" s="158"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
       <c r="AO2"/>
     </row>
     <row r="3" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24336,45 +23123,45 @@
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
       <c r="V3" s="23"/>
-      <c r="W3" s="167" t="s">
+      <c r="W3" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="157"/>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="158"/>
-      <c r="AF3" s="173" t="s">
+      <c r="X3" s="59"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="160"/>
-      <c r="AK3" s="160"/>
-      <c r="AL3" s="160"/>
-      <c r="AM3" s="160"/>
-      <c r="AN3" s="161"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
       <c r="AO3"/>
     </row>
     <row r="4" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24382,45 +23169,45 @@
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="146"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="146"/>
-      <c r="S4" s="146"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
       <c r="V4" s="23"/>
-      <c r="W4" s="165" t="s">
+      <c r="W4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="160"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="171" t="s">
+      <c r="X4" s="57"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="172"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="157"/>
-      <c r="AJ4" s="157"/>
-      <c r="AK4" s="157"/>
-      <c r="AL4" s="157"/>
-      <c r="AM4" s="157"/>
-      <c r="AN4" s="158"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="49"/>
       <c r="AO4"/>
     </row>
     <row r="5" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24428,45 +23215,45 @@
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="23"/>
-      <c r="W5" s="169" t="s">
+      <c r="W5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="182"/>
-      <c r="AF5" s="175" t="s">
+      <c r="X5" s="61"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="176"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="163"/>
-      <c r="AK5" s="163"/>
-      <c r="AL5" s="163"/>
-      <c r="AM5" s="163"/>
-      <c r="AN5" s="164"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="55"/>
       <c r="AO5"/>
     </row>
     <row r="6" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -24474,20 +23261,20 @@
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
       <c r="V6" s="23"/>
@@ -24610,21 +23397,21 @@
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
-      <c r="O9" s="137" t="s">
+      <c r="O9" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="137"/>
-      <c r="S9" s="137"/>
-      <c r="T9" s="137"/>
-      <c r="U9" s="137"/>
-      <c r="V9" s="137"/>
-      <c r="W9" s="137"/>
-      <c r="X9" s="137"/>
-      <c r="Y9" s="137"/>
-      <c r="Z9" s="137"/>
-      <c r="AA9" s="137"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
       <c r="AB9" s="41"/>
       <c r="AC9" s="41"/>
       <c r="AD9" s="41"/>
@@ -24685,49 +23472,49 @@
     </row>
     <row r="11" spans="1:42" s="27" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="28"/>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="130"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="121"/>
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
-      <c r="P11" s="131" t="s">
+      <c r="P11" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="133"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="124"/>
       <c r="AA11" s="30"/>
       <c r="AB11" s="30"/>
-      <c r="AC11" s="134" t="s">
+      <c r="AC11" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="135"/>
-      <c r="AF11" s="135"/>
-      <c r="AG11" s="135"/>
-      <c r="AH11" s="135"/>
-      <c r="AI11" s="135"/>
-      <c r="AJ11" s="135"/>
-      <c r="AK11" s="135"/>
-      <c r="AL11" s="135"/>
-      <c r="AM11" s="136"/>
+      <c r="AD11" s="126"/>
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="126"/>
+      <c r="AG11" s="126"/>
+      <c r="AH11" s="126"/>
+      <c r="AI11" s="126"/>
+      <c r="AJ11" s="126"/>
+      <c r="AK11" s="126"/>
+      <c r="AL11" s="126"/>
+      <c r="AM11" s="127"/>
       <c r="AN11" s="28"/>
       <c r="AO11" s="29"/>
     </row>
@@ -24736,46 +23523,46 @@
       <c r="C12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="115"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="153"/>
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
       <c r="P12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="115"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="153"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AD12" s="114"/>
-      <c r="AE12" s="114"/>
-      <c r="AF12" s="114"/>
-      <c r="AG12" s="114"/>
-      <c r="AH12" s="114"/>
-      <c r="AI12" s="114"/>
-      <c r="AJ12" s="114"/>
-      <c r="AK12" s="114"/>
-      <c r="AL12" s="114"/>
-      <c r="AM12" s="115"/>
+      <c r="AD12" s="152"/>
+      <c r="AE12" s="152"/>
+      <c r="AF12" s="152"/>
+      <c r="AG12" s="152"/>
+      <c r="AH12" s="152"/>
+      <c r="AI12" s="152"/>
+      <c r="AJ12" s="152"/>
+      <c r="AK12" s="152"/>
+      <c r="AL12" s="152"/>
+      <c r="AM12" s="153"/>
       <c r="AN12" s="11"/>
       <c r="AO12"/>
     </row>
@@ -24784,46 +23571,46 @@
       <c r="C13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="117"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="130"/>
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
       <c r="P13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="117"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="129"/>
+      <c r="Z13" s="130"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD13" s="116"/>
-      <c r="AE13" s="116"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="116"/>
-      <c r="AI13" s="116"/>
-      <c r="AJ13" s="116"/>
-      <c r="AK13" s="116"/>
-      <c r="AL13" s="116"/>
-      <c r="AM13" s="117"/>
+      <c r="AD13" s="129"/>
+      <c r="AE13" s="129"/>
+      <c r="AF13" s="129"/>
+      <c r="AG13" s="129"/>
+      <c r="AH13" s="129"/>
+      <c r="AI13" s="129"/>
+      <c r="AJ13" s="129"/>
+      <c r="AK13" s="129"/>
+      <c r="AL13" s="129"/>
+      <c r="AM13" s="130"/>
       <c r="AN13" s="11"/>
       <c r="AO13"/>
     </row>
@@ -24832,46 +23619,46 @@
       <c r="C14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="117"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="130"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
       <c r="P14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="117"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="129"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="129"/>
+      <c r="Z14" s="130"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD14" s="118"/>
-      <c r="AE14" s="116"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="116"/>
-      <c r="AJ14" s="116"/>
-      <c r="AK14" s="116"/>
-      <c r="AL14" s="116"/>
-      <c r="AM14" s="117"/>
+      <c r="AD14" s="131"/>
+      <c r="AE14" s="129"/>
+      <c r="AF14" s="129"/>
+      <c r="AG14" s="129"/>
+      <c r="AH14" s="129"/>
+      <c r="AI14" s="129"/>
+      <c r="AJ14" s="129"/>
+      <c r="AK14" s="129"/>
+      <c r="AL14" s="129"/>
+      <c r="AM14" s="130"/>
       <c r="AN14" s="11"/>
       <c r="AO14"/>
     </row>
@@ -24880,46 +23667,46 @@
       <c r="C15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="117"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="130"/>
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
       <c r="P15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="116"/>
-      <c r="Z15" s="117"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
+      <c r="Z15" s="130"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD15" s="118"/>
-      <c r="AE15" s="116"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="116"/>
-      <c r="AI15" s="116"/>
-      <c r="AJ15" s="116"/>
-      <c r="AK15" s="116"/>
-      <c r="AL15" s="116"/>
-      <c r="AM15" s="117"/>
+      <c r="AD15" s="131"/>
+      <c r="AE15" s="129"/>
+      <c r="AF15" s="129"/>
+      <c r="AG15" s="129"/>
+      <c r="AH15" s="129"/>
+      <c r="AI15" s="129"/>
+      <c r="AJ15" s="129"/>
+      <c r="AK15" s="129"/>
+      <c r="AL15" s="129"/>
+      <c r="AM15" s="130"/>
       <c r="AN15" s="11"/>
       <c r="AO15"/>
     </row>
@@ -24928,46 +23715,46 @@
       <c r="C16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="121"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="134"/>
       <c r="N16" s="5"/>
       <c r="O16" s="6"/>
       <c r="P16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="117"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="130"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD16" s="118"/>
-      <c r="AE16" s="116"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="117"/>
+      <c r="AD16" s="131"/>
+      <c r="AE16" s="129"/>
+      <c r="AF16" s="129"/>
+      <c r="AG16" s="129"/>
+      <c r="AH16" s="129"/>
+      <c r="AI16" s="129"/>
+      <c r="AJ16" s="129"/>
+      <c r="AK16" s="129"/>
+      <c r="AL16" s="129"/>
+      <c r="AM16" s="130"/>
       <c r="AN16" s="11"/>
       <c r="AO16"/>
     </row>
@@ -24976,46 +23763,46 @@
       <c r="C17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="117"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="130"/>
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
       <c r="P17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="116"/>
-      <c r="Z17" s="117"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
+      <c r="Z17" s="130"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD17" s="116"/>
-      <c r="AE17" s="116"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="116"/>
-      <c r="AJ17" s="116"/>
-      <c r="AK17" s="116"/>
-      <c r="AL17" s="116"/>
-      <c r="AM17" s="117"/>
+      <c r="AD17" s="129"/>
+      <c r="AE17" s="129"/>
+      <c r="AF17" s="129"/>
+      <c r="AG17" s="129"/>
+      <c r="AH17" s="129"/>
+      <c r="AI17" s="129"/>
+      <c r="AJ17" s="129"/>
+      <c r="AK17" s="129"/>
+      <c r="AL17" s="129"/>
+      <c r="AM17" s="130"/>
       <c r="AN17" s="11"/>
       <c r="AO17"/>
     </row>
@@ -25024,46 +23811,46 @@
       <c r="C18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="121"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="134"/>
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
       <c r="P18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="116"/>
-      <c r="Z18" s="117"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="129"/>
+      <c r="U18" s="129"/>
+      <c r="V18" s="129"/>
+      <c r="W18" s="129"/>
+      <c r="X18" s="129"/>
+      <c r="Y18" s="129"/>
+      <c r="Z18" s="130"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD18" s="118"/>
-      <c r="AE18" s="116"/>
-      <c r="AF18" s="116"/>
-      <c r="AG18" s="116"/>
-      <c r="AH18" s="116"/>
-      <c r="AI18" s="116"/>
-      <c r="AJ18" s="116"/>
-      <c r="AK18" s="116"/>
-      <c r="AL18" s="116"/>
-      <c r="AM18" s="117"/>
+      <c r="AD18" s="131"/>
+      <c r="AE18" s="129"/>
+      <c r="AF18" s="129"/>
+      <c r="AG18" s="129"/>
+      <c r="AH18" s="129"/>
+      <c r="AI18" s="129"/>
+      <c r="AJ18" s="129"/>
+      <c r="AK18" s="129"/>
+      <c r="AL18" s="129"/>
+      <c r="AM18" s="130"/>
       <c r="AN18" s="11"/>
       <c r="AO18"/>
     </row>
@@ -25072,46 +23859,46 @@
       <c r="C19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="117"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="130"/>
       <c r="N19" s="5"/>
       <c r="O19" s="6"/>
       <c r="P19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
-      <c r="Z19" s="117"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="129"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="129"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="129"/>
+      <c r="Z19" s="130"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD19" s="118"/>
-      <c r="AE19" s="116"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="116"/>
-      <c r="AJ19" s="116"/>
-      <c r="AK19" s="116"/>
-      <c r="AL19" s="116"/>
-      <c r="AM19" s="117"/>
+      <c r="AD19" s="131"/>
+      <c r="AE19" s="129"/>
+      <c r="AF19" s="129"/>
+      <c r="AG19" s="129"/>
+      <c r="AH19" s="129"/>
+      <c r="AI19" s="129"/>
+      <c r="AJ19" s="129"/>
+      <c r="AK19" s="129"/>
+      <c r="AL19" s="129"/>
+      <c r="AM19" s="130"/>
       <c r="AN19" s="11"/>
       <c r="AO19"/>
     </row>
@@ -25120,46 +23907,46 @@
       <c r="C20" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="121"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="134"/>
       <c r="N20" s="5"/>
       <c r="O20" s="6"/>
       <c r="P20" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="117"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="129"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="129"/>
+      <c r="Z20" s="130"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD20" s="118"/>
-      <c r="AE20" s="116"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="116"/>
-      <c r="AI20" s="116"/>
-      <c r="AJ20" s="116"/>
-      <c r="AK20" s="116"/>
-      <c r="AL20" s="116"/>
-      <c r="AM20" s="117"/>
+      <c r="AD20" s="131"/>
+      <c r="AE20" s="129"/>
+      <c r="AF20" s="129"/>
+      <c r="AG20" s="129"/>
+      <c r="AH20" s="129"/>
+      <c r="AI20" s="129"/>
+      <c r="AJ20" s="129"/>
+      <c r="AK20" s="129"/>
+      <c r="AL20" s="129"/>
+      <c r="AM20" s="130"/>
       <c r="AN20" s="11"/>
       <c r="AO20"/>
     </row>
@@ -25168,46 +23955,46 @@
       <c r="C21" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="140"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="137"/>
       <c r="N21" s="5"/>
       <c r="O21" s="6"/>
       <c r="P21" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="140"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="136"/>
+      <c r="T21" s="136"/>
+      <c r="U21" s="136"/>
+      <c r="V21" s="136"/>
+      <c r="W21" s="136"/>
+      <c r="X21" s="136"/>
+      <c r="Y21" s="136"/>
+      <c r="Z21" s="137"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AD21" s="139"/>
-      <c r="AE21" s="139"/>
-      <c r="AF21" s="139"/>
-      <c r="AG21" s="139"/>
-      <c r="AH21" s="139"/>
-      <c r="AI21" s="139"/>
-      <c r="AJ21" s="139"/>
-      <c r="AK21" s="139"/>
-      <c r="AL21" s="139"/>
-      <c r="AM21" s="140"/>
+      <c r="AD21" s="136"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="136"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="136"/>
+      <c r="AJ21" s="136"/>
+      <c r="AK21" s="136"/>
+      <c r="AL21" s="136"/>
+      <c r="AM21" s="137"/>
       <c r="AN21" s="11"/>
       <c r="AO21"/>
     </row>
@@ -25310,21 +24097,21 @@
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
-      <c r="O24" s="137" t="s">
+      <c r="O24" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="137"/>
-      <c r="R24" s="137"/>
-      <c r="S24" s="137"/>
-      <c r="T24" s="137"/>
-      <c r="U24" s="137"/>
-      <c r="V24" s="137"/>
-      <c r="W24" s="137"/>
-      <c r="X24" s="137"/>
-      <c r="Y24" s="137"/>
-      <c r="Z24" s="137"/>
-      <c r="AA24" s="137"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
+      <c r="X24" s="128"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
       <c r="AB24" s="41"/>
       <c r="AC24" s="41"/>
       <c r="AD24" s="41"/>
@@ -25385,38 +24172,38 @@
     </row>
     <row r="26" spans="1:42" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
-      <c r="C26" s="100" t="s">
+      <c r="C26" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="98" t="s">
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98" t="s">
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="153" t="s">
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="U26" s="154"/>
-      <c r="V26" s="154"/>
-      <c r="W26" s="154"/>
-      <c r="X26" s="154"/>
-      <c r="Y26" s="154"/>
-      <c r="Z26" s="155"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="140"/>
       <c r="AA26" s="11"/>
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
@@ -25435,16 +24222,16 @@
     </row>
     <row r="27" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
-      <c r="C27" s="108">
+      <c r="C27" s="84">
         <f t="shared" ref="C27:C32" si="0">AD12</f>
         <v>0</v>
       </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
       <c r="J27" s="86" t="e">
         <f>O27/T30</f>
         <v>#DIV/0!</v>
@@ -25453,23 +24240,23 @@
       <c r="L27" s="86"/>
       <c r="M27" s="86"/>
       <c r="N27" s="86"/>
-      <c r="O27" s="65">
+      <c r="O27" s="87">
         <f t="shared" ref="O27:O32" si="1">P74</f>
         <v>0</v>
       </c>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="122">
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="144">
         <v>0</v>
       </c>
-      <c r="U27" s="123"/>
-      <c r="V27" s="123"/>
-      <c r="W27" s="123"/>
-      <c r="X27" s="123"/>
-      <c r="Y27" s="123"/>
-      <c r="Z27" s="124"/>
+      <c r="U27" s="145"/>
+      <c r="V27" s="145"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="145"/>
+      <c r="Z27" s="146"/>
       <c r="AA27" s="11"/>
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
@@ -25488,39 +24275,39 @@
     </row>
     <row r="28" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11"/>
-      <c r="C28" s="104">
+      <c r="C28" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="85" t="e">
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="78" t="e">
         <f>O28/T30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="63">
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="125"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="126"/>
-      <c r="Z28" s="127"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="148"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="148"/>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="148"/>
+      <c r="Z28" s="149"/>
       <c r="AA28" s="11"/>
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
@@ -25539,16 +24326,16 @@
     </row>
     <row r="29" spans="1:42" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11"/>
-      <c r="C29" s="108">
+      <c r="C29" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
       <c r="J29" s="86" t="e">
         <f>O29/T30</f>
         <v>#DIV/0!</v>
@@ -25557,23 +24344,23 @@
       <c r="L29" s="86"/>
       <c r="M29" s="86"/>
       <c r="N29" s="86"/>
-      <c r="O29" s="65">
+      <c r="O29" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="147" t="s">
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
-      <c r="Y29" s="148"/>
-      <c r="Z29" s="149"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="83"/>
       <c r="AA29" s="11"/>
       <c r="AB29" s="11"/>
       <c r="AC29" s="11"/>
@@ -25592,42 +24379,42 @@
     </row>
     <row r="30" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
-      <c r="C30" s="104">
+      <c r="C30" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="85" t="e">
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="78" t="e">
         <f>O30/T30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="63">
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="150">
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="100">
         <f>SUM(O27:S34)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="151"/>
-      <c r="V30" s="151"/>
-      <c r="W30" s="151"/>
-      <c r="X30" s="151"/>
-      <c r="Y30" s="151"/>
-      <c r="Z30" s="152"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="102"/>
       <c r="AA30" s="11"/>
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
@@ -25646,16 +24433,16 @@
     </row>
     <row r="31" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="11"/>
-      <c r="C31" s="108">
+      <c r="C31" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
       <c r="J31" s="86" t="e">
         <f>O31/T30</f>
         <v>#DIV/0!</v>
@@ -25664,21 +24451,21 @@
       <c r="L31" s="86"/>
       <c r="M31" s="86"/>
       <c r="N31" s="86"/>
-      <c r="O31" s="65">
+      <c r="O31" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="75"/>
-      <c r="U31" s="76"/>
-      <c r="V31" s="76"/>
-      <c r="W31" s="76"/>
-      <c r="X31" s="76"/>
-      <c r="Y31" s="76"/>
-      <c r="Z31" s="77"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="105"/>
       <c r="AA31" s="11"/>
       <c r="AB31" s="11"/>
       <c r="AC31" s="11"/>
@@ -25697,41 +24484,41 @@
     </row>
     <row r="32" spans="1:42" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11"/>
-      <c r="C32" s="104">
+      <c r="C32" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="85" t="e">
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="78" t="e">
         <f>O32/T30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="63">
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="147" t="s">
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="148"/>
-      <c r="Y32" s="148"/>
-      <c r="Z32" s="149"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="83"/>
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
@@ -25750,33 +24537,33 @@
     </row>
     <row r="33" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
       <c r="J33" s="86"/>
       <c r="K33" s="86"/>
       <c r="L33" s="86"/>
       <c r="M33" s="86"/>
       <c r="N33" s="86"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="205">
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="89">
         <f>T27-T30</f>
         <v>0</v>
       </c>
-      <c r="U33" s="206"/>
-      <c r="V33" s="206"/>
-      <c r="W33" s="206"/>
-      <c r="X33" s="206"/>
-      <c r="Y33" s="206"/>
-      <c r="Z33" s="207"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="91"/>
       <c r="AA33" s="11"/>
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
@@ -25795,30 +24582,30 @@
     </row>
     <row r="34" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="208"/>
-      <c r="U34" s="209"/>
-      <c r="V34" s="209"/>
-      <c r="W34" s="209"/>
-      <c r="X34" s="209"/>
-      <c r="Y34" s="209"/>
-      <c r="Z34" s="210"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="98"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="94"/>
       <c r="AA34" s="11"/>
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
@@ -25934,21 +24721,21 @@
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
-      <c r="O37" s="137" t="s">
+      <c r="O37" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="P37" s="137"/>
-      <c r="Q37" s="137"/>
-      <c r="R37" s="137"/>
-      <c r="S37" s="137"/>
-      <c r="T37" s="137"/>
-      <c r="U37" s="137"/>
-      <c r="V37" s="137"/>
-      <c r="W37" s="137"/>
-      <c r="X37" s="137"/>
-      <c r="Y37" s="137"/>
-      <c r="Z37" s="137"/>
-      <c r="AA37" s="137"/>
+      <c r="P37" s="128"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="128"/>
+      <c r="S37" s="128"/>
+      <c r="T37" s="128"/>
+      <c r="U37" s="128"/>
+      <c r="V37" s="128"/>
+      <c r="W37" s="128"/>
+      <c r="X37" s="128"/>
+      <c r="Y37" s="128"/>
+      <c r="Z37" s="128"/>
+      <c r="AA37" s="128"/>
       <c r="AB37" s="41"/>
       <c r="AC37" s="41"/>
       <c r="AD37" s="41"/>
@@ -26009,38 +24796,38 @@
     </row>
     <row r="39" spans="1:42" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="11"/>
-      <c r="C39" s="100" t="s">
+      <c r="C39" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="98" t="s">
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="98"/>
-      <c r="O39" s="98" t="s">
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="98"/>
-      <c r="R39" s="98"/>
-      <c r="S39" s="99"/>
-      <c r="T39" s="69" t="s">
+      <c r="P39" s="106"/>
+      <c r="Q39" s="106"/>
+      <c r="R39" s="106"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="U39" s="70"/>
-      <c r="V39" s="70"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="70"/>
-      <c r="Z39" s="71"/>
+      <c r="U39" s="142"/>
+      <c r="V39" s="142"/>
+      <c r="W39" s="142"/>
+      <c r="X39" s="142"/>
+      <c r="Y39" s="142"/>
+      <c r="Z39" s="143"/>
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
       <c r="AC39" s="11"/>
@@ -26059,41 +24846,41 @@
     </row>
     <row r="40" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
-      <c r="C40" s="102" t="str">
+      <c r="C40" s="154" t="str">
         <f>C51</f>
         <v>Main Monthly Expenses</v>
       </c>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="111" t="e">
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="159" t="e">
         <f>O40/$T$43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="58">
+      <c r="K40" s="159"/>
+      <c r="L40" s="159"/>
+      <c r="M40" s="159"/>
+      <c r="N40" s="159"/>
+      <c r="O40" s="163">
         <f>P51</f>
         <v>0</v>
       </c>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="122">
+      <c r="P40" s="163"/>
+      <c r="Q40" s="163"/>
+      <c r="R40" s="163"/>
+      <c r="S40" s="164"/>
+      <c r="T40" s="144">
         <v>0</v>
       </c>
-      <c r="U40" s="123"/>
-      <c r="V40" s="123"/>
-      <c r="W40" s="123"/>
-      <c r="X40" s="123"/>
-      <c r="Y40" s="123"/>
-      <c r="Z40" s="124"/>
+      <c r="U40" s="145"/>
+      <c r="V40" s="145"/>
+      <c r="W40" s="145"/>
+      <c r="X40" s="145"/>
+      <c r="Y40" s="145"/>
+      <c r="Z40" s="146"/>
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
@@ -26112,39 +24899,39 @@
     </row>
     <row r="41" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
-      <c r="C41" s="104" t="str">
+      <c r="C41" s="76" t="str">
         <f>C62</f>
         <v>Additional Expenses</v>
       </c>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="85" t="e">
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="78" t="e">
         <f>O41/$T$43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="63">
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="79">
         <f>P62</f>
         <v>0</v>
       </c>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="125"/>
-      <c r="U41" s="126"/>
-      <c r="V41" s="126"/>
-      <c r="W41" s="126"/>
-      <c r="X41" s="126"/>
-      <c r="Y41" s="126"/>
-      <c r="Z41" s="127"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="147"/>
+      <c r="U41" s="148"/>
+      <c r="V41" s="148"/>
+      <c r="W41" s="148"/>
+      <c r="X41" s="148"/>
+      <c r="Y41" s="148"/>
+      <c r="Z41" s="149"/>
       <c r="AA41" s="11"/>
       <c r="AB41" s="11"/>
       <c r="AC41" s="11"/>
@@ -26163,32 +24950,32 @@
     </row>
     <row r="42" spans="1:42" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
       <c r="J42" s="86"/>
       <c r="K42" s="86"/>
       <c r="L42" s="86"/>
       <c r="M42" s="86"/>
       <c r="N42" s="86"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="66"/>
-      <c r="T42" s="69" t="s">
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="87"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="70"/>
-      <c r="V42" s="70"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="70"/>
-      <c r="Z42" s="71"/>
+      <c r="U42" s="142"/>
+      <c r="V42" s="142"/>
+      <c r="W42" s="142"/>
+      <c r="X42" s="142"/>
+      <c r="Y42" s="142"/>
+      <c r="Z42" s="143"/>
       <c r="AA42" s="11"/>
       <c r="AB42" s="11"/>
       <c r="AC42" s="11"/>
@@ -26207,33 +24994,33 @@
     </row>
     <row r="43" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="72">
+      <c r="C43" s="76"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="79"/>
+      <c r="R43" s="79"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="160">
         <f>SUM(O40:S47)</f>
         <v>0</v>
       </c>
-      <c r="U43" s="73"/>
-      <c r="V43" s="73"/>
-      <c r="W43" s="73"/>
-      <c r="X43" s="73"/>
-      <c r="Y43" s="73"/>
-      <c r="Z43" s="74"/>
+      <c r="U43" s="161"/>
+      <c r="V43" s="161"/>
+      <c r="W43" s="161"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="161"/>
+      <c r="Z43" s="162"/>
       <c r="AA43" s="11"/>
       <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
@@ -26252,30 +25039,30 @@
     </row>
     <row r="44" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="11"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
       <c r="J44" s="86"/>
       <c r="K44" s="86"/>
       <c r="L44" s="86"/>
       <c r="M44" s="86"/>
       <c r="N44" s="86"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="73"/>
-      <c r="V44" s="73"/>
-      <c r="W44" s="73"/>
-      <c r="X44" s="73"/>
-      <c r="Y44" s="73"/>
-      <c r="Z44" s="74"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="160"/>
+      <c r="U44" s="161"/>
+      <c r="V44" s="161"/>
+      <c r="W44" s="161"/>
+      <c r="X44" s="161"/>
+      <c r="Y44" s="161"/>
+      <c r="Z44" s="162"/>
       <c r="AA44" s="11"/>
       <c r="AB44" s="11"/>
       <c r="AC44" s="11"/>
@@ -26294,32 +25081,32 @@
     </row>
     <row r="45" spans="1:42" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="63"/>
-      <c r="S45" s="64"/>
-      <c r="T45" s="69" t="s">
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="79"/>
+      <c r="Q45" s="79"/>
+      <c r="R45" s="79"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="U45" s="70"/>
-      <c r="V45" s="70"/>
-      <c r="W45" s="70"/>
-      <c r="X45" s="70"/>
-      <c r="Y45" s="70"/>
-      <c r="Z45" s="71"/>
+      <c r="U45" s="142"/>
+      <c r="V45" s="142"/>
+      <c r="W45" s="142"/>
+      <c r="X45" s="142"/>
+      <c r="Y45" s="142"/>
+      <c r="Z45" s="143"/>
       <c r="AA45" s="11"/>
       <c r="AB45" s="11"/>
       <c r="AC45" s="11"/>
@@ -26338,33 +25125,33 @@
     </row>
     <row r="46" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
       <c r="J46" s="86"/>
       <c r="K46" s="86"/>
       <c r="L46" s="86"/>
       <c r="M46" s="86"/>
       <c r="N46" s="86"/>
-      <c r="O46" s="65"/>
-      <c r="P46" s="65"/>
-      <c r="Q46" s="65"/>
-      <c r="R46" s="65"/>
-      <c r="S46" s="66"/>
-      <c r="T46" s="211">
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="87"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="165">
         <f>T40-T43</f>
         <v>0</v>
       </c>
-      <c r="U46" s="212"/>
-      <c r="V46" s="212"/>
-      <c r="W46" s="212"/>
-      <c r="X46" s="212"/>
-      <c r="Y46" s="212"/>
-      <c r="Z46" s="213"/>
+      <c r="U46" s="166"/>
+      <c r="V46" s="166"/>
+      <c r="W46" s="166"/>
+      <c r="X46" s="166"/>
+      <c r="Y46" s="166"/>
+      <c r="Z46" s="167"/>
       <c r="AA46" s="11"/>
       <c r="AB46" s="11"/>
       <c r="AC46" s="11"/>
@@ -26383,30 +25170,30 @@
     </row>
     <row r="47" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="11"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="208"/>
-      <c r="U47" s="209"/>
-      <c r="V47" s="209"/>
-      <c r="W47" s="209"/>
-      <c r="X47" s="209"/>
-      <c r="Y47" s="209"/>
-      <c r="Z47" s="210"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="98"/>
+      <c r="P47" s="98"/>
+      <c r="Q47" s="98"/>
+      <c r="R47" s="98"/>
+      <c r="S47" s="99"/>
+      <c r="T47" s="92"/>
+      <c r="U47" s="93"/>
+      <c r="V47" s="93"/>
+      <c r="W47" s="93"/>
+      <c r="X47" s="93"/>
+      <c r="Y47" s="93"/>
+      <c r="Z47" s="94"/>
       <c r="AA47" s="11"/>
       <c r="AB47" s="11"/>
       <c r="AC47" s="11"/>
@@ -26510,28 +25297,28 @@
     <row r="50" spans="1:42" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="109" t="s">
+      <c r="C50" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110"/>
-      <c r="M50" s="110"/>
-      <c r="N50" s="110"/>
-      <c r="O50" s="110"/>
-      <c r="P50" s="83" t="s">
+      <c r="D50" s="158"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="158"/>
+      <c r="I50" s="158"/>
+      <c r="J50" s="158"/>
+      <c r="K50" s="158"/>
+      <c r="L50" s="158"/>
+      <c r="M50" s="158"/>
+      <c r="N50" s="158"/>
+      <c r="O50" s="158"/>
+      <c r="P50" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="Q50" s="83"/>
-      <c r="R50" s="83"/>
-      <c r="S50" s="83"/>
-      <c r="T50" s="83"/>
+      <c r="Q50" s="171"/>
+      <c r="R50" s="171"/>
+      <c r="S50" s="171"/>
+      <c r="T50" s="171"/>
       <c r="U50" s="31" t="s">
         <v>6</v>
       </c>
@@ -26560,48 +25347,48 @@
     <row r="51" spans="1:42" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="78" t="s">
+      <c r="C51" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="84">
+      <c r="D51" s="169"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="169"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="169"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="169"/>
+      <c r="M51" s="169"/>
+      <c r="N51" s="169"/>
+      <c r="O51" s="169"/>
+      <c r="P51" s="74">
         <f>SUM(P52:T61)</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="84"/>
+      <c r="Q51" s="74"/>
+      <c r="R51" s="74"/>
+      <c r="S51" s="74"/>
+      <c r="T51" s="74"/>
       <c r="U51" s="33"/>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="53"/>
-      <c r="AB51" s="53"/>
-      <c r="AC51" s="53"/>
-      <c r="AD51" s="53"/>
-      <c r="AE51" s="53"/>
-      <c r="AF51" s="53"/>
-      <c r="AG51" s="53"/>
-      <c r="AH51" s="53"/>
-      <c r="AI51" s="53"/>
-      <c r="AJ51" s="53"/>
-      <c r="AK51" s="53"/>
-      <c r="AL51" s="53"/>
-      <c r="AM51" s="54"/>
+      <c r="V51" s="184"/>
+      <c r="W51" s="184"/>
+      <c r="X51" s="184"/>
+      <c r="Y51" s="184"/>
+      <c r="Z51" s="184"/>
+      <c r="AA51" s="184"/>
+      <c r="AB51" s="184"/>
+      <c r="AC51" s="184"/>
+      <c r="AD51" s="184"/>
+      <c r="AE51" s="184"/>
+      <c r="AF51" s="184"/>
+      <c r="AG51" s="184"/>
+      <c r="AH51" s="184"/>
+      <c r="AI51" s="184"/>
+      <c r="AJ51" s="184"/>
+      <c r="AK51" s="184"/>
+      <c r="AL51" s="184"/>
+      <c r="AM51" s="185"/>
       <c r="AN51" s="44"/>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
@@ -26609,48 +25396,48 @@
     <row r="52" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="80">
+      <c r="C52" s="117">
         <f t="shared" ref="C52:C61" si="2">D12</f>
         <v>0</v>
       </c>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="88">
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="118"/>
+      <c r="N52" s="118"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="116">
         <v>0</v>
       </c>
-      <c r="Q52" s="88"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="88"/>
-      <c r="T52" s="88"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="55"/>
-      <c r="W52" s="55"/>
-      <c r="X52" s="55"/>
-      <c r="Y52" s="55"/>
-      <c r="Z52" s="55"/>
-      <c r="AA52" s="55"/>
-      <c r="AB52" s="55"/>
-      <c r="AC52" s="55"/>
-      <c r="AD52" s="55"/>
-      <c r="AE52" s="55"/>
-      <c r="AF52" s="55"/>
-      <c r="AG52" s="55"/>
-      <c r="AH52" s="55"/>
-      <c r="AI52" s="55"/>
-      <c r="AJ52" s="55"/>
-      <c r="AK52" s="55"/>
-      <c r="AL52" s="55"/>
-      <c r="AM52" s="56"/>
+      <c r="Q52" s="116"/>
+      <c r="R52" s="116"/>
+      <c r="S52" s="116"/>
+      <c r="T52" s="116"/>
+      <c r="U52" s="186"/>
+      <c r="V52" s="186"/>
+      <c r="W52" s="186"/>
+      <c r="X52" s="186"/>
+      <c r="Y52" s="186"/>
+      <c r="Z52" s="186"/>
+      <c r="AA52" s="186"/>
+      <c r="AB52" s="186"/>
+      <c r="AC52" s="186"/>
+      <c r="AD52" s="186"/>
+      <c r="AE52" s="186"/>
+      <c r="AF52" s="186"/>
+      <c r="AG52" s="186"/>
+      <c r="AH52" s="186"/>
+      <c r="AI52" s="186"/>
+      <c r="AJ52" s="186"/>
+      <c r="AK52" s="186"/>
+      <c r="AL52" s="186"/>
+      <c r="AM52" s="187"/>
       <c r="AN52" s="44"/>
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
@@ -26658,48 +25445,48 @@
     <row r="53" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="60">
+      <c r="C53" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="62">
+      <c r="D53" s="170"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
+      <c r="K53" s="170"/>
+      <c r="L53" s="170"/>
+      <c r="M53" s="170"/>
+      <c r="N53" s="170"/>
+      <c r="O53" s="170"/>
+      <c r="P53" s="110">
         <v>0</v>
       </c>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="49"/>
-      <c r="V53" s="49"/>
-      <c r="W53" s="49"/>
-      <c r="X53" s="49"/>
-      <c r="Y53" s="49"/>
-      <c r="Z53" s="49"/>
-      <c r="AA53" s="49"/>
-      <c r="AB53" s="49"/>
-      <c r="AC53" s="49"/>
-      <c r="AD53" s="49"/>
-      <c r="AE53" s="49"/>
-      <c r="AF53" s="49"/>
-      <c r="AG53" s="49"/>
-      <c r="AH53" s="49"/>
-      <c r="AI53" s="49"/>
-      <c r="AJ53" s="49"/>
-      <c r="AK53" s="49"/>
-      <c r="AL53" s="49"/>
-      <c r="AM53" s="57"/>
+      <c r="Q53" s="110"/>
+      <c r="R53" s="110"/>
+      <c r="S53" s="110"/>
+      <c r="T53" s="110"/>
+      <c r="U53" s="174"/>
+      <c r="V53" s="174"/>
+      <c r="W53" s="174"/>
+      <c r="X53" s="174"/>
+      <c r="Y53" s="174"/>
+      <c r="Z53" s="174"/>
+      <c r="AA53" s="174"/>
+      <c r="AB53" s="174"/>
+      <c r="AC53" s="174"/>
+      <c r="AD53" s="174"/>
+      <c r="AE53" s="174"/>
+      <c r="AF53" s="174"/>
+      <c r="AG53" s="174"/>
+      <c r="AH53" s="174"/>
+      <c r="AI53" s="174"/>
+      <c r="AJ53" s="174"/>
+      <c r="AK53" s="174"/>
+      <c r="AL53" s="174"/>
+      <c r="AM53" s="188"/>
       <c r="AN53" s="44"/>
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
@@ -26707,48 +25494,48 @@
     <row r="54" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="60">
+      <c r="C54" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="62">
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="170"/>
+      <c r="K54" s="170"/>
+      <c r="L54" s="170"/>
+      <c r="M54" s="170"/>
+      <c r="N54" s="170"/>
+      <c r="O54" s="170"/>
+      <c r="P54" s="110">
         <v>0</v>
       </c>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
-      <c r="U54" s="49"/>
-      <c r="V54" s="49"/>
-      <c r="W54" s="49"/>
-      <c r="X54" s="49"/>
-      <c r="Y54" s="49"/>
-      <c r="Z54" s="49"/>
-      <c r="AA54" s="49"/>
-      <c r="AB54" s="49"/>
-      <c r="AC54" s="49"/>
-      <c r="AD54" s="49"/>
-      <c r="AE54" s="49"/>
-      <c r="AF54" s="49"/>
-      <c r="AG54" s="49"/>
-      <c r="AH54" s="49"/>
-      <c r="AI54" s="49"/>
-      <c r="AJ54" s="49"/>
-      <c r="AK54" s="49"/>
-      <c r="AL54" s="49"/>
-      <c r="AM54" s="57"/>
+      <c r="Q54" s="110"/>
+      <c r="R54" s="110"/>
+      <c r="S54" s="110"/>
+      <c r="T54" s="110"/>
+      <c r="U54" s="174"/>
+      <c r="V54" s="174"/>
+      <c r="W54" s="174"/>
+      <c r="X54" s="174"/>
+      <c r="Y54" s="174"/>
+      <c r="Z54" s="174"/>
+      <c r="AA54" s="174"/>
+      <c r="AB54" s="174"/>
+      <c r="AC54" s="174"/>
+      <c r="AD54" s="174"/>
+      <c r="AE54" s="174"/>
+      <c r="AF54" s="174"/>
+      <c r="AG54" s="174"/>
+      <c r="AH54" s="174"/>
+      <c r="AI54" s="174"/>
+      <c r="AJ54" s="174"/>
+      <c r="AK54" s="174"/>
+      <c r="AL54" s="174"/>
+      <c r="AM54" s="188"/>
       <c r="AN54" s="44"/>
       <c r="AO54" s="1"/>
       <c r="AP54" s="1"/>
@@ -26756,48 +25543,48 @@
     <row r="55" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="60">
+      <c r="C55" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="62">
+      <c r="D55" s="170"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="170"/>
+      <c r="J55" s="170"/>
+      <c r="K55" s="170"/>
+      <c r="L55" s="170"/>
+      <c r="M55" s="170"/>
+      <c r="N55" s="170"/>
+      <c r="O55" s="170"/>
+      <c r="P55" s="110">
         <v>0</v>
       </c>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="49"/>
-      <c r="Y55" s="49"/>
-      <c r="Z55" s="49"/>
-      <c r="AA55" s="49"/>
-      <c r="AB55" s="49"/>
-      <c r="AC55" s="49"/>
-      <c r="AD55" s="49"/>
-      <c r="AE55" s="49"/>
-      <c r="AF55" s="49"/>
-      <c r="AG55" s="49"/>
-      <c r="AH55" s="49"/>
-      <c r="AI55" s="49"/>
-      <c r="AJ55" s="49"/>
-      <c r="AK55" s="49"/>
-      <c r="AL55" s="49"/>
-      <c r="AM55" s="57"/>
+      <c r="Q55" s="110"/>
+      <c r="R55" s="110"/>
+      <c r="S55" s="110"/>
+      <c r="T55" s="110"/>
+      <c r="U55" s="174"/>
+      <c r="V55" s="174"/>
+      <c r="W55" s="174"/>
+      <c r="X55" s="174"/>
+      <c r="Y55" s="174"/>
+      <c r="Z55" s="174"/>
+      <c r="AA55" s="174"/>
+      <c r="AB55" s="174"/>
+      <c r="AC55" s="174"/>
+      <c r="AD55" s="174"/>
+      <c r="AE55" s="174"/>
+      <c r="AF55" s="174"/>
+      <c r="AG55" s="174"/>
+      <c r="AH55" s="174"/>
+      <c r="AI55" s="174"/>
+      <c r="AJ55" s="174"/>
+      <c r="AK55" s="174"/>
+      <c r="AL55" s="174"/>
+      <c r="AM55" s="188"/>
       <c r="AN55" s="44"/>
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
@@ -26805,48 +25592,48 @@
     <row r="56" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="13"/>
-      <c r="C56" s="60">
+      <c r="C56" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="62">
+      <c r="D56" s="170"/>
+      <c r="E56" s="170"/>
+      <c r="F56" s="170"/>
+      <c r="G56" s="170"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="170"/>
+      <c r="J56" s="170"/>
+      <c r="K56" s="170"/>
+      <c r="L56" s="170"/>
+      <c r="M56" s="170"/>
+      <c r="N56" s="170"/>
+      <c r="O56" s="170"/>
+      <c r="P56" s="110">
         <v>0</v>
       </c>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="62"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="62"/>
-      <c r="U56" s="49"/>
-      <c r="V56" s="49"/>
-      <c r="W56" s="49"/>
-      <c r="X56" s="49"/>
-      <c r="Y56" s="49"/>
-      <c r="Z56" s="49"/>
-      <c r="AA56" s="49"/>
-      <c r="AB56" s="49"/>
-      <c r="AC56" s="49"/>
-      <c r="AD56" s="49"/>
-      <c r="AE56" s="49"/>
-      <c r="AF56" s="49"/>
-      <c r="AG56" s="49"/>
-      <c r="AH56" s="49"/>
-      <c r="AI56" s="49"/>
-      <c r="AJ56" s="49"/>
-      <c r="AK56" s="49"/>
-      <c r="AL56" s="49"/>
-      <c r="AM56" s="57"/>
+      <c r="Q56" s="110"/>
+      <c r="R56" s="110"/>
+      <c r="S56" s="110"/>
+      <c r="T56" s="110"/>
+      <c r="U56" s="174"/>
+      <c r="V56" s="174"/>
+      <c r="W56" s="174"/>
+      <c r="X56" s="174"/>
+      <c r="Y56" s="174"/>
+      <c r="Z56" s="174"/>
+      <c r="AA56" s="174"/>
+      <c r="AB56" s="174"/>
+      <c r="AC56" s="174"/>
+      <c r="AD56" s="174"/>
+      <c r="AE56" s="174"/>
+      <c r="AF56" s="174"/>
+      <c r="AG56" s="174"/>
+      <c r="AH56" s="174"/>
+      <c r="AI56" s="174"/>
+      <c r="AJ56" s="174"/>
+      <c r="AK56" s="174"/>
+      <c r="AL56" s="174"/>
+      <c r="AM56" s="188"/>
       <c r="AN56" s="44"/>
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
@@ -26854,48 +25641,48 @@
     <row r="57" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="60">
+      <c r="C57" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="62">
+      <c r="D57" s="170"/>
+      <c r="E57" s="170"/>
+      <c r="F57" s="170"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="170"/>
+      <c r="K57" s="170"/>
+      <c r="L57" s="170"/>
+      <c r="M57" s="170"/>
+      <c r="N57" s="170"/>
+      <c r="O57" s="170"/>
+      <c r="P57" s="110">
         <v>0</v>
       </c>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="62"/>
-      <c r="S57" s="62"/>
-      <c r="T57" s="62"/>
-      <c r="U57" s="49"/>
-      <c r="V57" s="49"/>
-      <c r="W57" s="49"/>
-      <c r="X57" s="49"/>
-      <c r="Y57" s="49"/>
-      <c r="Z57" s="49"/>
-      <c r="AA57" s="49"/>
-      <c r="AB57" s="49"/>
-      <c r="AC57" s="49"/>
-      <c r="AD57" s="49"/>
-      <c r="AE57" s="49"/>
-      <c r="AF57" s="49"/>
-      <c r="AG57" s="49"/>
-      <c r="AH57" s="49"/>
-      <c r="AI57" s="49"/>
-      <c r="AJ57" s="49"/>
-      <c r="AK57" s="49"/>
-      <c r="AL57" s="49"/>
-      <c r="AM57" s="57"/>
+      <c r="Q57" s="110"/>
+      <c r="R57" s="110"/>
+      <c r="S57" s="110"/>
+      <c r="T57" s="110"/>
+      <c r="U57" s="174"/>
+      <c r="V57" s="174"/>
+      <c r="W57" s="174"/>
+      <c r="X57" s="174"/>
+      <c r="Y57" s="174"/>
+      <c r="Z57" s="174"/>
+      <c r="AA57" s="174"/>
+      <c r="AB57" s="174"/>
+      <c r="AC57" s="174"/>
+      <c r="AD57" s="174"/>
+      <c r="AE57" s="174"/>
+      <c r="AF57" s="174"/>
+      <c r="AG57" s="174"/>
+      <c r="AH57" s="174"/>
+      <c r="AI57" s="174"/>
+      <c r="AJ57" s="174"/>
+      <c r="AK57" s="174"/>
+      <c r="AL57" s="174"/>
+      <c r="AM57" s="188"/>
       <c r="AN57" s="44"/>
       <c r="AO57" s="1"/>
       <c r="AP57" s="1"/>
@@ -26903,48 +25690,48 @@
     <row r="58" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="60">
+      <c r="C58" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
-      <c r="P58" s="62">
+      <c r="D58" s="170"/>
+      <c r="E58" s="170"/>
+      <c r="F58" s="170"/>
+      <c r="G58" s="170"/>
+      <c r="H58" s="170"/>
+      <c r="I58" s="170"/>
+      <c r="J58" s="170"/>
+      <c r="K58" s="170"/>
+      <c r="L58" s="170"/>
+      <c r="M58" s="170"/>
+      <c r="N58" s="170"/>
+      <c r="O58" s="170"/>
+      <c r="P58" s="110">
         <v>0</v>
       </c>
-      <c r="Q58" s="62"/>
-      <c r="R58" s="62"/>
-      <c r="S58" s="62"/>
-      <c r="T58" s="62"/>
-      <c r="U58" s="49"/>
-      <c r="V58" s="49"/>
-      <c r="W58" s="49"/>
-      <c r="X58" s="49"/>
-      <c r="Y58" s="49"/>
-      <c r="Z58" s="49"/>
-      <c r="AA58" s="49"/>
-      <c r="AB58" s="49"/>
-      <c r="AC58" s="49"/>
-      <c r="AD58" s="49"/>
-      <c r="AE58" s="49"/>
-      <c r="AF58" s="49"/>
-      <c r="AG58" s="49"/>
-      <c r="AH58" s="49"/>
-      <c r="AI58" s="49"/>
-      <c r="AJ58" s="49"/>
-      <c r="AK58" s="49"/>
-      <c r="AL58" s="49"/>
-      <c r="AM58" s="57"/>
+      <c r="Q58" s="110"/>
+      <c r="R58" s="110"/>
+      <c r="S58" s="110"/>
+      <c r="T58" s="110"/>
+      <c r="U58" s="174"/>
+      <c r="V58" s="174"/>
+      <c r="W58" s="174"/>
+      <c r="X58" s="174"/>
+      <c r="Y58" s="174"/>
+      <c r="Z58" s="174"/>
+      <c r="AA58" s="174"/>
+      <c r="AB58" s="174"/>
+      <c r="AC58" s="174"/>
+      <c r="AD58" s="174"/>
+      <c r="AE58" s="174"/>
+      <c r="AF58" s="174"/>
+      <c r="AG58" s="174"/>
+      <c r="AH58" s="174"/>
+      <c r="AI58" s="174"/>
+      <c r="AJ58" s="174"/>
+      <c r="AK58" s="174"/>
+      <c r="AL58" s="174"/>
+      <c r="AM58" s="188"/>
       <c r="AN58" s="44"/>
       <c r="AO58" s="1"/>
       <c r="AP58" s="1"/>
@@ -26952,48 +25739,48 @@
     <row r="59" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="60">
+      <c r="C59" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="62">
+      <c r="D59" s="170"/>
+      <c r="E59" s="170"/>
+      <c r="F59" s="170"/>
+      <c r="G59" s="170"/>
+      <c r="H59" s="170"/>
+      <c r="I59" s="170"/>
+      <c r="J59" s="170"/>
+      <c r="K59" s="170"/>
+      <c r="L59" s="170"/>
+      <c r="M59" s="170"/>
+      <c r="N59" s="170"/>
+      <c r="O59" s="170"/>
+      <c r="P59" s="110">
         <v>0</v>
       </c>
-      <c r="Q59" s="62"/>
-      <c r="R59" s="62"/>
-      <c r="S59" s="62"/>
-      <c r="T59" s="62"/>
-      <c r="U59" s="49"/>
-      <c r="V59" s="49"/>
-      <c r="W59" s="49"/>
-      <c r="X59" s="49"/>
-      <c r="Y59" s="49"/>
-      <c r="Z59" s="49"/>
-      <c r="AA59" s="49"/>
-      <c r="AB59" s="49"/>
-      <c r="AC59" s="49"/>
-      <c r="AD59" s="49"/>
-      <c r="AE59" s="49"/>
-      <c r="AF59" s="49"/>
-      <c r="AG59" s="49"/>
-      <c r="AH59" s="49"/>
-      <c r="AI59" s="49"/>
-      <c r="AJ59" s="49"/>
-      <c r="AK59" s="49"/>
-      <c r="AL59" s="49"/>
-      <c r="AM59" s="57"/>
+      <c r="Q59" s="110"/>
+      <c r="R59" s="110"/>
+      <c r="S59" s="110"/>
+      <c r="T59" s="110"/>
+      <c r="U59" s="174"/>
+      <c r="V59" s="174"/>
+      <c r="W59" s="174"/>
+      <c r="X59" s="174"/>
+      <c r="Y59" s="174"/>
+      <c r="Z59" s="174"/>
+      <c r="AA59" s="174"/>
+      <c r="AB59" s="174"/>
+      <c r="AC59" s="174"/>
+      <c r="AD59" s="174"/>
+      <c r="AE59" s="174"/>
+      <c r="AF59" s="174"/>
+      <c r="AG59" s="174"/>
+      <c r="AH59" s="174"/>
+      <c r="AI59" s="174"/>
+      <c r="AJ59" s="174"/>
+      <c r="AK59" s="174"/>
+      <c r="AL59" s="174"/>
+      <c r="AM59" s="188"/>
       <c r="AN59" s="44"/>
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
@@ -27001,48 +25788,48 @@
     <row r="60" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="60">
+      <c r="C60" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="62">
+      <c r="D60" s="170"/>
+      <c r="E60" s="170"/>
+      <c r="F60" s="170"/>
+      <c r="G60" s="170"/>
+      <c r="H60" s="170"/>
+      <c r="I60" s="170"/>
+      <c r="J60" s="170"/>
+      <c r="K60" s="170"/>
+      <c r="L60" s="170"/>
+      <c r="M60" s="170"/>
+      <c r="N60" s="170"/>
+      <c r="O60" s="170"/>
+      <c r="P60" s="110">
         <v>0</v>
       </c>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="62"/>
-      <c r="S60" s="62"/>
-      <c r="T60" s="62"/>
-      <c r="U60" s="49"/>
-      <c r="V60" s="49"/>
-      <c r="W60" s="49"/>
-      <c r="X60" s="49"/>
-      <c r="Y60" s="49"/>
-      <c r="Z60" s="49"/>
-      <c r="AA60" s="49"/>
-      <c r="AB60" s="49"/>
-      <c r="AC60" s="49"/>
-      <c r="AD60" s="49"/>
-      <c r="AE60" s="49"/>
-      <c r="AF60" s="49"/>
-      <c r="AG60" s="49"/>
-      <c r="AH60" s="49"/>
-      <c r="AI60" s="49"/>
-      <c r="AJ60" s="49"/>
-      <c r="AK60" s="49"/>
-      <c r="AL60" s="49"/>
-      <c r="AM60" s="57"/>
+      <c r="Q60" s="110"/>
+      <c r="R60" s="110"/>
+      <c r="S60" s="110"/>
+      <c r="T60" s="110"/>
+      <c r="U60" s="174"/>
+      <c r="V60" s="174"/>
+      <c r="W60" s="174"/>
+      <c r="X60" s="174"/>
+      <c r="Y60" s="174"/>
+      <c r="Z60" s="174"/>
+      <c r="AA60" s="174"/>
+      <c r="AB60" s="174"/>
+      <c r="AC60" s="174"/>
+      <c r="AD60" s="174"/>
+      <c r="AE60" s="174"/>
+      <c r="AF60" s="174"/>
+      <c r="AG60" s="174"/>
+      <c r="AH60" s="174"/>
+      <c r="AI60" s="174"/>
+      <c r="AJ60" s="174"/>
+      <c r="AK60" s="174"/>
+      <c r="AL60" s="174"/>
+      <c r="AM60" s="188"/>
       <c r="AN60" s="44"/>
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
@@ -27050,48 +25837,48 @@
     <row r="61" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="13"/>
-      <c r="C61" s="89">
+      <c r="C61" s="176">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="90"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="90"/>
-      <c r="M61" s="90"/>
-      <c r="N61" s="90"/>
-      <c r="O61" s="90"/>
-      <c r="P61" s="62">
+      <c r="D61" s="177"/>
+      <c r="E61" s="177"/>
+      <c r="F61" s="177"/>
+      <c r="G61" s="177"/>
+      <c r="H61" s="177"/>
+      <c r="I61" s="177"/>
+      <c r="J61" s="177"/>
+      <c r="K61" s="177"/>
+      <c r="L61" s="177"/>
+      <c r="M61" s="177"/>
+      <c r="N61" s="177"/>
+      <c r="O61" s="177"/>
+      <c r="P61" s="110">
         <v>0</v>
       </c>
-      <c r="Q61" s="62"/>
-      <c r="R61" s="62"/>
-      <c r="S61" s="62"/>
-      <c r="T61" s="62"/>
-      <c r="U61" s="93"/>
-      <c r="V61" s="93"/>
-      <c r="W61" s="93"/>
-      <c r="X61" s="93"/>
-      <c r="Y61" s="93"/>
-      <c r="Z61" s="93"/>
-      <c r="AA61" s="93"/>
-      <c r="AB61" s="93"/>
-      <c r="AC61" s="93"/>
-      <c r="AD61" s="93"/>
-      <c r="AE61" s="93"/>
-      <c r="AF61" s="93"/>
-      <c r="AG61" s="93"/>
-      <c r="AH61" s="93"/>
-      <c r="AI61" s="93"/>
-      <c r="AJ61" s="93"/>
-      <c r="AK61" s="93"/>
-      <c r="AL61" s="93"/>
-      <c r="AM61" s="94"/>
+      <c r="Q61" s="110"/>
+      <c r="R61" s="110"/>
+      <c r="S61" s="110"/>
+      <c r="T61" s="110"/>
+      <c r="U61" s="180"/>
+      <c r="V61" s="180"/>
+      <c r="W61" s="180"/>
+      <c r="X61" s="180"/>
+      <c r="Y61" s="180"/>
+      <c r="Z61" s="180"/>
+      <c r="AA61" s="180"/>
+      <c r="AB61" s="180"/>
+      <c r="AC61" s="180"/>
+      <c r="AD61" s="180"/>
+      <c r="AE61" s="180"/>
+      <c r="AF61" s="180"/>
+      <c r="AG61" s="180"/>
+      <c r="AH61" s="180"/>
+      <c r="AI61" s="180"/>
+      <c r="AJ61" s="180"/>
+      <c r="AK61" s="180"/>
+      <c r="AL61" s="180"/>
+      <c r="AM61" s="189"/>
       <c r="AN61" s="44"/>
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
@@ -27099,29 +25886,29 @@
     <row r="62" spans="1:42" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="13"/>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="79"/>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="79"/>
-      <c r="P62" s="84">
+      <c r="D62" s="169"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="169"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="169"/>
+      <c r="K62" s="169"/>
+      <c r="L62" s="169"/>
+      <c r="M62" s="169"/>
+      <c r="N62" s="169"/>
+      <c r="O62" s="169"/>
+      <c r="P62" s="74">
         <f>SUM(P63:P72)</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="84"/>
-      <c r="R62" s="84"/>
-      <c r="S62" s="84"/>
-      <c r="T62" s="84"/>
+      <c r="Q62" s="74"/>
+      <c r="R62" s="74"/>
+      <c r="S62" s="74"/>
+      <c r="T62" s="74"/>
       <c r="U62" s="45"/>
       <c r="V62" s="45"/>
       <c r="W62" s="45"/>
@@ -27148,48 +25935,48 @@
     <row r="63" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="91">
+      <c r="C63" s="178">
         <f t="shared" ref="C63:C72" si="3">Q12</f>
         <v>0</v>
       </c>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="92"/>
-      <c r="K63" s="92"/>
-      <c r="L63" s="92"/>
-      <c r="M63" s="92"/>
-      <c r="N63" s="92"/>
-      <c r="O63" s="92"/>
-      <c r="P63" s="88">
+      <c r="D63" s="179"/>
+      <c r="E63" s="179"/>
+      <c r="F63" s="179"/>
+      <c r="G63" s="179"/>
+      <c r="H63" s="179"/>
+      <c r="I63" s="179"/>
+      <c r="J63" s="179"/>
+      <c r="K63" s="179"/>
+      <c r="L63" s="179"/>
+      <c r="M63" s="179"/>
+      <c r="N63" s="179"/>
+      <c r="O63" s="179"/>
+      <c r="P63" s="116">
         <v>0</v>
       </c>
-      <c r="Q63" s="88"/>
-      <c r="R63" s="88"/>
-      <c r="S63" s="88"/>
-      <c r="T63" s="88"/>
-      <c r="U63" s="95"/>
-      <c r="V63" s="95"/>
-      <c r="W63" s="95"/>
-      <c r="X63" s="95"/>
-      <c r="Y63" s="95"/>
-      <c r="Z63" s="95"/>
-      <c r="AA63" s="95"/>
-      <c r="AB63" s="95"/>
-      <c r="AC63" s="95"/>
-      <c r="AD63" s="95"/>
-      <c r="AE63" s="95"/>
-      <c r="AF63" s="95"/>
-      <c r="AG63" s="95"/>
-      <c r="AH63" s="95"/>
-      <c r="AI63" s="95"/>
-      <c r="AJ63" s="95"/>
-      <c r="AK63" s="95"/>
-      <c r="AL63" s="95"/>
-      <c r="AM63" s="96"/>
+      <c r="Q63" s="116"/>
+      <c r="R63" s="116"/>
+      <c r="S63" s="116"/>
+      <c r="T63" s="116"/>
+      <c r="U63" s="190"/>
+      <c r="V63" s="190"/>
+      <c r="W63" s="190"/>
+      <c r="X63" s="190"/>
+      <c r="Y63" s="190"/>
+      <c r="Z63" s="190"/>
+      <c r="AA63" s="190"/>
+      <c r="AB63" s="190"/>
+      <c r="AC63" s="190"/>
+      <c r="AD63" s="190"/>
+      <c r="AE63" s="190"/>
+      <c r="AF63" s="190"/>
+      <c r="AG63" s="190"/>
+      <c r="AH63" s="190"/>
+      <c r="AI63" s="190"/>
+      <c r="AJ63" s="190"/>
+      <c r="AK63" s="190"/>
+      <c r="AL63" s="190"/>
+      <c r="AM63" s="191"/>
       <c r="AN63" s="44"/>
       <c r="AO63" s="1"/>
       <c r="AP63" s="1"/>
@@ -27197,48 +25984,48 @@
     <row r="64" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="60">
+      <c r="C64" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="61"/>
-      <c r="P64" s="62">
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="109"/>
+      <c r="L64" s="109"/>
+      <c r="M64" s="109"/>
+      <c r="N64" s="109"/>
+      <c r="O64" s="109"/>
+      <c r="P64" s="110">
         <v>0</v>
       </c>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
-      <c r="T64" s="62"/>
-      <c r="U64" s="49"/>
-      <c r="V64" s="49"/>
-      <c r="W64" s="49"/>
-      <c r="X64" s="49"/>
-      <c r="Y64" s="49"/>
-      <c r="Z64" s="49"/>
-      <c r="AA64" s="49"/>
-      <c r="AB64" s="49"/>
-      <c r="AC64" s="49"/>
-      <c r="AD64" s="49"/>
-      <c r="AE64" s="49"/>
-      <c r="AF64" s="49"/>
-      <c r="AG64" s="49"/>
-      <c r="AH64" s="49"/>
-      <c r="AI64" s="49"/>
-      <c r="AJ64" s="49"/>
-      <c r="AK64" s="49"/>
-      <c r="AL64" s="49"/>
-      <c r="AM64" s="50"/>
+      <c r="Q64" s="110"/>
+      <c r="R64" s="110"/>
+      <c r="S64" s="110"/>
+      <c r="T64" s="110"/>
+      <c r="U64" s="174"/>
+      <c r="V64" s="174"/>
+      <c r="W64" s="174"/>
+      <c r="X64" s="174"/>
+      <c r="Y64" s="174"/>
+      <c r="Z64" s="174"/>
+      <c r="AA64" s="174"/>
+      <c r="AB64" s="174"/>
+      <c r="AC64" s="174"/>
+      <c r="AD64" s="174"/>
+      <c r="AE64" s="174"/>
+      <c r="AF64" s="174"/>
+      <c r="AG64" s="174"/>
+      <c r="AH64" s="174"/>
+      <c r="AI64" s="174"/>
+      <c r="AJ64" s="174"/>
+      <c r="AK64" s="174"/>
+      <c r="AL64" s="174"/>
+      <c r="AM64" s="175"/>
       <c r="AN64" s="44"/>
       <c r="AO64" s="1"/>
       <c r="AP64" s="1"/>
@@ -27246,48 +26033,48 @@
     <row r="65" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="13"/>
-      <c r="C65" s="60">
+      <c r="C65" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="62">
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="109"/>
+      <c r="J65" s="109"/>
+      <c r="K65" s="109"/>
+      <c r="L65" s="109"/>
+      <c r="M65" s="109"/>
+      <c r="N65" s="109"/>
+      <c r="O65" s="109"/>
+      <c r="P65" s="110">
         <v>0</v>
       </c>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="62"/>
-      <c r="S65" s="62"/>
-      <c r="T65" s="62"/>
-      <c r="U65" s="49"/>
-      <c r="V65" s="49"/>
-      <c r="W65" s="49"/>
-      <c r="X65" s="49"/>
-      <c r="Y65" s="49"/>
-      <c r="Z65" s="49"/>
-      <c r="AA65" s="49"/>
-      <c r="AB65" s="49"/>
-      <c r="AC65" s="49"/>
-      <c r="AD65" s="49"/>
-      <c r="AE65" s="49"/>
-      <c r="AF65" s="49"/>
-      <c r="AG65" s="49"/>
-      <c r="AH65" s="49"/>
-      <c r="AI65" s="49"/>
-      <c r="AJ65" s="49"/>
-      <c r="AK65" s="49"/>
-      <c r="AL65" s="49"/>
-      <c r="AM65" s="50"/>
+      <c r="Q65" s="110"/>
+      <c r="R65" s="110"/>
+      <c r="S65" s="110"/>
+      <c r="T65" s="110"/>
+      <c r="U65" s="174"/>
+      <c r="V65" s="174"/>
+      <c r="W65" s="174"/>
+      <c r="X65" s="174"/>
+      <c r="Y65" s="174"/>
+      <c r="Z65" s="174"/>
+      <c r="AA65" s="174"/>
+      <c r="AB65" s="174"/>
+      <c r="AC65" s="174"/>
+      <c r="AD65" s="174"/>
+      <c r="AE65" s="174"/>
+      <c r="AF65" s="174"/>
+      <c r="AG65" s="174"/>
+      <c r="AH65" s="174"/>
+      <c r="AI65" s="174"/>
+      <c r="AJ65" s="174"/>
+      <c r="AK65" s="174"/>
+      <c r="AL65" s="174"/>
+      <c r="AM65" s="175"/>
       <c r="AN65" s="44"/>
       <c r="AO65" s="1"/>
       <c r="AP65" s="1"/>
@@ -27295,48 +26082,48 @@
     <row r="66" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="13"/>
-      <c r="C66" s="60">
+      <c r="C66" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="62">
+      <c r="D66" s="109"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="109"/>
+      <c r="K66" s="109"/>
+      <c r="L66" s="109"/>
+      <c r="M66" s="109"/>
+      <c r="N66" s="109"/>
+      <c r="O66" s="109"/>
+      <c r="P66" s="110">
         <v>0</v>
       </c>
-      <c r="Q66" s="62"/>
-      <c r="R66" s="62"/>
-      <c r="S66" s="62"/>
-      <c r="T66" s="62"/>
-      <c r="U66" s="49"/>
-      <c r="V66" s="49"/>
-      <c r="W66" s="49"/>
-      <c r="X66" s="49"/>
-      <c r="Y66" s="49"/>
-      <c r="Z66" s="49"/>
-      <c r="AA66" s="49"/>
-      <c r="AB66" s="49"/>
-      <c r="AC66" s="49"/>
-      <c r="AD66" s="49"/>
-      <c r="AE66" s="49"/>
-      <c r="AF66" s="49"/>
-      <c r="AG66" s="49"/>
-      <c r="AH66" s="49"/>
-      <c r="AI66" s="49"/>
-      <c r="AJ66" s="49"/>
-      <c r="AK66" s="49"/>
-      <c r="AL66" s="49"/>
-      <c r="AM66" s="50"/>
+      <c r="Q66" s="110"/>
+      <c r="R66" s="110"/>
+      <c r="S66" s="110"/>
+      <c r="T66" s="110"/>
+      <c r="U66" s="174"/>
+      <c r="V66" s="174"/>
+      <c r="W66" s="174"/>
+      <c r="X66" s="174"/>
+      <c r="Y66" s="174"/>
+      <c r="Z66" s="174"/>
+      <c r="AA66" s="174"/>
+      <c r="AB66" s="174"/>
+      <c r="AC66" s="174"/>
+      <c r="AD66" s="174"/>
+      <c r="AE66" s="174"/>
+      <c r="AF66" s="174"/>
+      <c r="AG66" s="174"/>
+      <c r="AH66" s="174"/>
+      <c r="AI66" s="174"/>
+      <c r="AJ66" s="174"/>
+      <c r="AK66" s="174"/>
+      <c r="AL66" s="174"/>
+      <c r="AM66" s="175"/>
       <c r="AN66" s="44"/>
       <c r="AO66" s="1"/>
       <c r="AP66" s="1"/>
@@ -27344,48 +26131,48 @@
     <row r="67" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="13"/>
-      <c r="C67" s="60">
+      <c r="C67" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="61"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="61"/>
-      <c r="N67" s="61"/>
-      <c r="O67" s="61"/>
-      <c r="P67" s="62">
+      <c r="D67" s="109"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="109"/>
+      <c r="J67" s="109"/>
+      <c r="K67" s="109"/>
+      <c r="L67" s="109"/>
+      <c r="M67" s="109"/>
+      <c r="N67" s="109"/>
+      <c r="O67" s="109"/>
+      <c r="P67" s="110">
         <v>0</v>
       </c>
-      <c r="Q67" s="62"/>
-      <c r="R67" s="62"/>
-      <c r="S67" s="62"/>
-      <c r="T67" s="62"/>
-      <c r="U67" s="49"/>
-      <c r="V67" s="49"/>
-      <c r="W67" s="49"/>
-      <c r="X67" s="49"/>
-      <c r="Y67" s="49"/>
-      <c r="Z67" s="49"/>
-      <c r="AA67" s="49"/>
-      <c r="AB67" s="49"/>
-      <c r="AC67" s="49"/>
-      <c r="AD67" s="49"/>
-      <c r="AE67" s="49"/>
-      <c r="AF67" s="49"/>
-      <c r="AG67" s="49"/>
-      <c r="AH67" s="49"/>
-      <c r="AI67" s="49"/>
-      <c r="AJ67" s="49"/>
-      <c r="AK67" s="49"/>
-      <c r="AL67" s="49"/>
-      <c r="AM67" s="50"/>
+      <c r="Q67" s="110"/>
+      <c r="R67" s="110"/>
+      <c r="S67" s="110"/>
+      <c r="T67" s="110"/>
+      <c r="U67" s="174"/>
+      <c r="V67" s="174"/>
+      <c r="W67" s="174"/>
+      <c r="X67" s="174"/>
+      <c r="Y67" s="174"/>
+      <c r="Z67" s="174"/>
+      <c r="AA67" s="174"/>
+      <c r="AB67" s="174"/>
+      <c r="AC67" s="174"/>
+      <c r="AD67" s="174"/>
+      <c r="AE67" s="174"/>
+      <c r="AF67" s="174"/>
+      <c r="AG67" s="174"/>
+      <c r="AH67" s="174"/>
+      <c r="AI67" s="174"/>
+      <c r="AJ67" s="174"/>
+      <c r="AK67" s="174"/>
+      <c r="AL67" s="174"/>
+      <c r="AM67" s="175"/>
       <c r="AN67" s="44"/>
       <c r="AO67" s="1"/>
       <c r="AP67" s="1"/>
@@ -27393,48 +26180,48 @@
     <row r="68" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="13"/>
-      <c r="C68" s="60">
+      <c r="C68" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="61"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="61"/>
-      <c r="P68" s="62">
+      <c r="D68" s="109"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="109"/>
+      <c r="G68" s="109"/>
+      <c r="H68" s="109"/>
+      <c r="I68" s="109"/>
+      <c r="J68" s="109"/>
+      <c r="K68" s="109"/>
+      <c r="L68" s="109"/>
+      <c r="M68" s="109"/>
+      <c r="N68" s="109"/>
+      <c r="O68" s="109"/>
+      <c r="P68" s="110">
         <v>0</v>
       </c>
-      <c r="Q68" s="62"/>
-      <c r="R68" s="62"/>
-      <c r="S68" s="62"/>
-      <c r="T68" s="62"/>
-      <c r="U68" s="49"/>
-      <c r="V68" s="49"/>
-      <c r="W68" s="49"/>
-      <c r="X68" s="49"/>
-      <c r="Y68" s="49"/>
-      <c r="Z68" s="49"/>
-      <c r="AA68" s="49"/>
-      <c r="AB68" s="49"/>
-      <c r="AC68" s="49"/>
-      <c r="AD68" s="49"/>
-      <c r="AE68" s="49"/>
-      <c r="AF68" s="49"/>
-      <c r="AG68" s="49"/>
-      <c r="AH68" s="49"/>
-      <c r="AI68" s="49"/>
-      <c r="AJ68" s="49"/>
-      <c r="AK68" s="49"/>
-      <c r="AL68" s="49"/>
-      <c r="AM68" s="50"/>
+      <c r="Q68" s="110"/>
+      <c r="R68" s="110"/>
+      <c r="S68" s="110"/>
+      <c r="T68" s="110"/>
+      <c r="U68" s="174"/>
+      <c r="V68" s="174"/>
+      <c r="W68" s="174"/>
+      <c r="X68" s="174"/>
+      <c r="Y68" s="174"/>
+      <c r="Z68" s="174"/>
+      <c r="AA68" s="174"/>
+      <c r="AB68" s="174"/>
+      <c r="AC68" s="174"/>
+      <c r="AD68" s="174"/>
+      <c r="AE68" s="174"/>
+      <c r="AF68" s="174"/>
+      <c r="AG68" s="174"/>
+      <c r="AH68" s="174"/>
+      <c r="AI68" s="174"/>
+      <c r="AJ68" s="174"/>
+      <c r="AK68" s="174"/>
+      <c r="AL68" s="174"/>
+      <c r="AM68" s="175"/>
       <c r="AN68" s="44"/>
       <c r="AO68" s="1"/>
       <c r="AP68" s="1"/>
@@ -27442,48 +26229,48 @@
     <row r="69" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="60">
+      <c r="C69" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="61"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="62">
+      <c r="D69" s="109"/>
+      <c r="E69" s="109"/>
+      <c r="F69" s="109"/>
+      <c r="G69" s="109"/>
+      <c r="H69" s="109"/>
+      <c r="I69" s="109"/>
+      <c r="J69" s="109"/>
+      <c r="K69" s="109"/>
+      <c r="L69" s="109"/>
+      <c r="M69" s="109"/>
+      <c r="N69" s="109"/>
+      <c r="O69" s="109"/>
+      <c r="P69" s="110">
         <v>0</v>
       </c>
-      <c r="Q69" s="62"/>
-      <c r="R69" s="62"/>
-      <c r="S69" s="62"/>
-      <c r="T69" s="62"/>
-      <c r="U69" s="49"/>
-      <c r="V69" s="49"/>
-      <c r="W69" s="49"/>
-      <c r="X69" s="49"/>
-      <c r="Y69" s="49"/>
-      <c r="Z69" s="49"/>
-      <c r="AA69" s="49"/>
-      <c r="AB69" s="49"/>
-      <c r="AC69" s="49"/>
-      <c r="AD69" s="49"/>
-      <c r="AE69" s="49"/>
-      <c r="AF69" s="49"/>
-      <c r="AG69" s="49"/>
-      <c r="AH69" s="49"/>
-      <c r="AI69" s="49"/>
-      <c r="AJ69" s="49"/>
-      <c r="AK69" s="49"/>
-      <c r="AL69" s="49"/>
-      <c r="AM69" s="50"/>
+      <c r="Q69" s="110"/>
+      <c r="R69" s="110"/>
+      <c r="S69" s="110"/>
+      <c r="T69" s="110"/>
+      <c r="U69" s="174"/>
+      <c r="V69" s="174"/>
+      <c r="W69" s="174"/>
+      <c r="X69" s="174"/>
+      <c r="Y69" s="174"/>
+      <c r="Z69" s="174"/>
+      <c r="AA69" s="174"/>
+      <c r="AB69" s="174"/>
+      <c r="AC69" s="174"/>
+      <c r="AD69" s="174"/>
+      <c r="AE69" s="174"/>
+      <c r="AF69" s="174"/>
+      <c r="AG69" s="174"/>
+      <c r="AH69" s="174"/>
+      <c r="AI69" s="174"/>
+      <c r="AJ69" s="174"/>
+      <c r="AK69" s="174"/>
+      <c r="AL69" s="174"/>
+      <c r="AM69" s="175"/>
       <c r="AN69" s="44"/>
       <c r="AO69" s="1"/>
       <c r="AP69" s="1"/>
@@ -27491,48 +26278,48 @@
     <row r="70" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="60">
+      <c r="C70" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="62">
+      <c r="D70" s="109"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="109"/>
+      <c r="G70" s="109"/>
+      <c r="H70" s="109"/>
+      <c r="I70" s="109"/>
+      <c r="J70" s="109"/>
+      <c r="K70" s="109"/>
+      <c r="L70" s="109"/>
+      <c r="M70" s="109"/>
+      <c r="N70" s="109"/>
+      <c r="O70" s="109"/>
+      <c r="P70" s="110">
         <v>0</v>
       </c>
-      <c r="Q70" s="62"/>
-      <c r="R70" s="62"/>
-      <c r="S70" s="62"/>
-      <c r="T70" s="62"/>
-      <c r="U70" s="49"/>
-      <c r="V70" s="49"/>
-      <c r="W70" s="49"/>
-      <c r="X70" s="49"/>
-      <c r="Y70" s="49"/>
-      <c r="Z70" s="49"/>
-      <c r="AA70" s="49"/>
-      <c r="AB70" s="49"/>
-      <c r="AC70" s="49"/>
-      <c r="AD70" s="49"/>
-      <c r="AE70" s="49"/>
-      <c r="AF70" s="49"/>
-      <c r="AG70" s="49"/>
-      <c r="AH70" s="49"/>
-      <c r="AI70" s="49"/>
-      <c r="AJ70" s="49"/>
-      <c r="AK70" s="49"/>
-      <c r="AL70" s="49"/>
-      <c r="AM70" s="50"/>
+      <c r="Q70" s="110"/>
+      <c r="R70" s="110"/>
+      <c r="S70" s="110"/>
+      <c r="T70" s="110"/>
+      <c r="U70" s="174"/>
+      <c r="V70" s="174"/>
+      <c r="W70" s="174"/>
+      <c r="X70" s="174"/>
+      <c r="Y70" s="174"/>
+      <c r="Z70" s="174"/>
+      <c r="AA70" s="174"/>
+      <c r="AB70" s="174"/>
+      <c r="AC70" s="174"/>
+      <c r="AD70" s="174"/>
+      <c r="AE70" s="174"/>
+      <c r="AF70" s="174"/>
+      <c r="AG70" s="174"/>
+      <c r="AH70" s="174"/>
+      <c r="AI70" s="174"/>
+      <c r="AJ70" s="174"/>
+      <c r="AK70" s="174"/>
+      <c r="AL70" s="174"/>
+      <c r="AM70" s="175"/>
       <c r="AN70" s="44"/>
       <c r="AO70" s="1"/>
       <c r="AP70" s="1"/>
@@ -27540,48 +26327,48 @@
     <row r="71" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="60">
+      <c r="C71" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="62">
+      <c r="D71" s="109"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="109"/>
+      <c r="I71" s="109"/>
+      <c r="J71" s="109"/>
+      <c r="K71" s="109"/>
+      <c r="L71" s="109"/>
+      <c r="M71" s="109"/>
+      <c r="N71" s="109"/>
+      <c r="O71" s="109"/>
+      <c r="P71" s="110">
         <v>0</v>
       </c>
-      <c r="Q71" s="62"/>
-      <c r="R71" s="62"/>
-      <c r="S71" s="62"/>
-      <c r="T71" s="62"/>
-      <c r="U71" s="49"/>
-      <c r="V71" s="49"/>
-      <c r="W71" s="49"/>
-      <c r="X71" s="49"/>
-      <c r="Y71" s="49"/>
-      <c r="Z71" s="49"/>
-      <c r="AA71" s="49"/>
-      <c r="AB71" s="49"/>
-      <c r="AC71" s="49"/>
-      <c r="AD71" s="49"/>
-      <c r="AE71" s="49"/>
-      <c r="AF71" s="49"/>
-      <c r="AG71" s="49"/>
-      <c r="AH71" s="49"/>
-      <c r="AI71" s="49"/>
-      <c r="AJ71" s="49"/>
-      <c r="AK71" s="49"/>
-      <c r="AL71" s="49"/>
-      <c r="AM71" s="50"/>
+      <c r="Q71" s="110"/>
+      <c r="R71" s="110"/>
+      <c r="S71" s="110"/>
+      <c r="T71" s="110"/>
+      <c r="U71" s="174"/>
+      <c r="V71" s="174"/>
+      <c r="W71" s="174"/>
+      <c r="X71" s="174"/>
+      <c r="Y71" s="174"/>
+      <c r="Z71" s="174"/>
+      <c r="AA71" s="174"/>
+      <c r="AB71" s="174"/>
+      <c r="AC71" s="174"/>
+      <c r="AD71" s="174"/>
+      <c r="AE71" s="174"/>
+      <c r="AF71" s="174"/>
+      <c r="AG71" s="174"/>
+      <c r="AH71" s="174"/>
+      <c r="AI71" s="174"/>
+      <c r="AJ71" s="174"/>
+      <c r="AK71" s="174"/>
+      <c r="AL71" s="174"/>
+      <c r="AM71" s="175"/>
       <c r="AN71" s="44"/>
       <c r="AO71" s="1"/>
       <c r="AP71" s="1"/>
@@ -27589,48 +26376,48 @@
     <row r="72" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="13"/>
-      <c r="C72" s="144">
+      <c r="C72" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D72" s="145"/>
-      <c r="E72" s="145"/>
-      <c r="F72" s="145"/>
-      <c r="G72" s="145"/>
-      <c r="H72" s="145"/>
-      <c r="I72" s="145"/>
-      <c r="J72" s="145"/>
-      <c r="K72" s="145"/>
-      <c r="L72" s="145"/>
-      <c r="M72" s="145"/>
-      <c r="N72" s="145"/>
-      <c r="O72" s="145"/>
-      <c r="P72" s="62">
+      <c r="D72" s="115"/>
+      <c r="E72" s="115"/>
+      <c r="F72" s="115"/>
+      <c r="G72" s="115"/>
+      <c r="H72" s="115"/>
+      <c r="I72" s="115"/>
+      <c r="J72" s="115"/>
+      <c r="K72" s="115"/>
+      <c r="L72" s="115"/>
+      <c r="M72" s="115"/>
+      <c r="N72" s="115"/>
+      <c r="O72" s="115"/>
+      <c r="P72" s="110">
         <v>0</v>
       </c>
-      <c r="Q72" s="62"/>
-      <c r="R72" s="62"/>
-      <c r="S72" s="62"/>
-      <c r="T72" s="62"/>
-      <c r="U72" s="93"/>
-      <c r="V72" s="93"/>
-      <c r="W72" s="93"/>
-      <c r="X72" s="93"/>
-      <c r="Y72" s="93"/>
-      <c r="Z72" s="93"/>
-      <c r="AA72" s="93"/>
-      <c r="AB72" s="93"/>
-      <c r="AC72" s="93"/>
-      <c r="AD72" s="93"/>
-      <c r="AE72" s="93"/>
-      <c r="AF72" s="93"/>
-      <c r="AG72" s="93"/>
-      <c r="AH72" s="93"/>
-      <c r="AI72" s="93"/>
-      <c r="AJ72" s="93"/>
-      <c r="AK72" s="93"/>
-      <c r="AL72" s="93"/>
-      <c r="AM72" s="97"/>
+      <c r="Q72" s="110"/>
+      <c r="R72" s="110"/>
+      <c r="S72" s="110"/>
+      <c r="T72" s="110"/>
+      <c r="U72" s="180"/>
+      <c r="V72" s="180"/>
+      <c r="W72" s="180"/>
+      <c r="X72" s="180"/>
+      <c r="Y72" s="180"/>
+      <c r="Z72" s="180"/>
+      <c r="AA72" s="180"/>
+      <c r="AB72" s="180"/>
+      <c r="AC72" s="180"/>
+      <c r="AD72" s="180"/>
+      <c r="AE72" s="180"/>
+      <c r="AF72" s="180"/>
+      <c r="AG72" s="180"/>
+      <c r="AH72" s="180"/>
+      <c r="AI72" s="180"/>
+      <c r="AJ72" s="180"/>
+      <c r="AK72" s="180"/>
+      <c r="AL72" s="180"/>
+      <c r="AM72" s="181"/>
       <c r="AN72" s="44"/>
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
@@ -27638,29 +26425,29 @@
     <row r="73" spans="1:42" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="13"/>
-      <c r="C73" s="78" t="s">
+      <c r="C73" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="84">
+      <c r="D73" s="169"/>
+      <c r="E73" s="169"/>
+      <c r="F73" s="169"/>
+      <c r="G73" s="169"/>
+      <c r="H73" s="169"/>
+      <c r="I73" s="169"/>
+      <c r="J73" s="169"/>
+      <c r="K73" s="169"/>
+      <c r="L73" s="169"/>
+      <c r="M73" s="169"/>
+      <c r="N73" s="169"/>
+      <c r="O73" s="169"/>
+      <c r="P73" s="74">
         <f>SUM(P74:P79)</f>
         <v>0</v>
       </c>
-      <c r="Q73" s="84"/>
-      <c r="R73" s="84"/>
-      <c r="S73" s="84"/>
-      <c r="T73" s="84"/>
+      <c r="Q73" s="74"/>
+      <c r="R73" s="74"/>
+      <c r="S73" s="74"/>
+      <c r="T73" s="74"/>
       <c r="U73" s="45"/>
       <c r="V73" s="45"/>
       <c r="W73" s="45"/>
@@ -27687,48 +26474,48 @@
     <row r="74" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="13"/>
-      <c r="C74" s="80">
+      <c r="C74" s="117">
         <f t="shared" ref="C74:C79" si="4">AD12</f>
         <v>0</v>
       </c>
-      <c r="D74" s="81"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="81"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="81"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="81"/>
-      <c r="M74" s="81"/>
-      <c r="N74" s="81"/>
-      <c r="O74" s="81"/>
-      <c r="P74" s="88">
+      <c r="D74" s="118"/>
+      <c r="E74" s="118"/>
+      <c r="F74" s="118"/>
+      <c r="G74" s="118"/>
+      <c r="H74" s="118"/>
+      <c r="I74" s="118"/>
+      <c r="J74" s="118"/>
+      <c r="K74" s="118"/>
+      <c r="L74" s="118"/>
+      <c r="M74" s="118"/>
+      <c r="N74" s="118"/>
+      <c r="O74" s="118"/>
+      <c r="P74" s="116">
         <v>0</v>
       </c>
-      <c r="Q74" s="88"/>
-      <c r="R74" s="88"/>
-      <c r="S74" s="88"/>
-      <c r="T74" s="88"/>
-      <c r="U74" s="47"/>
-      <c r="V74" s="47"/>
-      <c r="W74" s="47"/>
-      <c r="X74" s="47"/>
-      <c r="Y74" s="47"/>
-      <c r="Z74" s="47"/>
-      <c r="AA74" s="47"/>
-      <c r="AB74" s="47"/>
-      <c r="AC74" s="47"/>
-      <c r="AD74" s="47"/>
-      <c r="AE74" s="47"/>
-      <c r="AF74" s="47"/>
-      <c r="AG74" s="47"/>
-      <c r="AH74" s="47"/>
-      <c r="AI74" s="47"/>
-      <c r="AJ74" s="47"/>
-      <c r="AK74" s="47"/>
-      <c r="AL74" s="47"/>
-      <c r="AM74" s="48"/>
+      <c r="Q74" s="116"/>
+      <c r="R74" s="116"/>
+      <c r="S74" s="116"/>
+      <c r="T74" s="116"/>
+      <c r="U74" s="172"/>
+      <c r="V74" s="172"/>
+      <c r="W74" s="172"/>
+      <c r="X74" s="172"/>
+      <c r="Y74" s="172"/>
+      <c r="Z74" s="172"/>
+      <c r="AA74" s="172"/>
+      <c r="AB74" s="172"/>
+      <c r="AC74" s="172"/>
+      <c r="AD74" s="172"/>
+      <c r="AE74" s="172"/>
+      <c r="AF74" s="172"/>
+      <c r="AG74" s="172"/>
+      <c r="AH74" s="172"/>
+      <c r="AI74" s="172"/>
+      <c r="AJ74" s="172"/>
+      <c r="AK74" s="172"/>
+      <c r="AL74" s="172"/>
+      <c r="AM74" s="173"/>
       <c r="AN74" s="44"/>
       <c r="AO74" s="1"/>
       <c r="AP74" s="1"/>
@@ -27736,48 +26523,48 @@
     <row r="75" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="13"/>
-      <c r="C75" s="60">
+      <c r="C75" s="108">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="61"/>
-      <c r="P75" s="62">
+      <c r="D75" s="109"/>
+      <c r="E75" s="109"/>
+      <c r="F75" s="109"/>
+      <c r="G75" s="109"/>
+      <c r="H75" s="109"/>
+      <c r="I75" s="109"/>
+      <c r="J75" s="109"/>
+      <c r="K75" s="109"/>
+      <c r="L75" s="109"/>
+      <c r="M75" s="109"/>
+      <c r="N75" s="109"/>
+      <c r="O75" s="109"/>
+      <c r="P75" s="110">
         <v>0</v>
       </c>
-      <c r="Q75" s="62"/>
-      <c r="R75" s="62"/>
-      <c r="S75" s="62"/>
-      <c r="T75" s="62"/>
-      <c r="U75" s="49"/>
-      <c r="V75" s="49"/>
-      <c r="W75" s="49"/>
-      <c r="X75" s="49"/>
-      <c r="Y75" s="49"/>
-      <c r="Z75" s="49"/>
-      <c r="AA75" s="49"/>
-      <c r="AB75" s="49"/>
-      <c r="AC75" s="49"/>
-      <c r="AD75" s="49"/>
-      <c r="AE75" s="49"/>
-      <c r="AF75" s="49"/>
-      <c r="AG75" s="49"/>
-      <c r="AH75" s="49"/>
-      <c r="AI75" s="49"/>
-      <c r="AJ75" s="49"/>
-      <c r="AK75" s="49"/>
-      <c r="AL75" s="49"/>
-      <c r="AM75" s="50"/>
+      <c r="Q75" s="110"/>
+      <c r="R75" s="110"/>
+      <c r="S75" s="110"/>
+      <c r="T75" s="110"/>
+      <c r="U75" s="174"/>
+      <c r="V75" s="174"/>
+      <c r="W75" s="174"/>
+      <c r="X75" s="174"/>
+      <c r="Y75" s="174"/>
+      <c r="Z75" s="174"/>
+      <c r="AA75" s="174"/>
+      <c r="AB75" s="174"/>
+      <c r="AC75" s="174"/>
+      <c r="AD75" s="174"/>
+      <c r="AE75" s="174"/>
+      <c r="AF75" s="174"/>
+      <c r="AG75" s="174"/>
+      <c r="AH75" s="174"/>
+      <c r="AI75" s="174"/>
+      <c r="AJ75" s="174"/>
+      <c r="AK75" s="174"/>
+      <c r="AL75" s="174"/>
+      <c r="AM75" s="175"/>
       <c r="AN75" s="44"/>
       <c r="AO75" s="1"/>
       <c r="AP75" s="1"/>
@@ -27785,48 +26572,48 @@
     <row r="76" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="13"/>
-      <c r="C76" s="60">
+      <c r="C76" s="108">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="61"/>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="61"/>
-      <c r="P76" s="62">
+      <c r="D76" s="109"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="109"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="109"/>
+      <c r="K76" s="109"/>
+      <c r="L76" s="109"/>
+      <c r="M76" s="109"/>
+      <c r="N76" s="109"/>
+      <c r="O76" s="109"/>
+      <c r="P76" s="110">
         <v>0</v>
       </c>
-      <c r="Q76" s="62"/>
-      <c r="R76" s="62"/>
-      <c r="S76" s="62"/>
-      <c r="T76" s="62"/>
-      <c r="U76" s="49"/>
-      <c r="V76" s="49"/>
-      <c r="W76" s="49"/>
-      <c r="X76" s="49"/>
-      <c r="Y76" s="49"/>
-      <c r="Z76" s="49"/>
-      <c r="AA76" s="49"/>
-      <c r="AB76" s="49"/>
-      <c r="AC76" s="49"/>
-      <c r="AD76" s="49"/>
-      <c r="AE76" s="49"/>
-      <c r="AF76" s="49"/>
-      <c r="AG76" s="49"/>
-      <c r="AH76" s="49"/>
-      <c r="AI76" s="49"/>
-      <c r="AJ76" s="49"/>
-      <c r="AK76" s="49"/>
-      <c r="AL76" s="49"/>
-      <c r="AM76" s="50"/>
+      <c r="Q76" s="110"/>
+      <c r="R76" s="110"/>
+      <c r="S76" s="110"/>
+      <c r="T76" s="110"/>
+      <c r="U76" s="174"/>
+      <c r="V76" s="174"/>
+      <c r="W76" s="174"/>
+      <c r="X76" s="174"/>
+      <c r="Y76" s="174"/>
+      <c r="Z76" s="174"/>
+      <c r="AA76" s="174"/>
+      <c r="AB76" s="174"/>
+      <c r="AC76" s="174"/>
+      <c r="AD76" s="174"/>
+      <c r="AE76" s="174"/>
+      <c r="AF76" s="174"/>
+      <c r="AG76" s="174"/>
+      <c r="AH76" s="174"/>
+      <c r="AI76" s="174"/>
+      <c r="AJ76" s="174"/>
+      <c r="AK76" s="174"/>
+      <c r="AL76" s="174"/>
+      <c r="AM76" s="175"/>
       <c r="AN76" s="44"/>
       <c r="AO76" s="1"/>
       <c r="AP76" s="1"/>
@@ -27834,48 +26621,48 @@
     <row r="77" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="13"/>
-      <c r="C77" s="60">
+      <c r="C77" s="108">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="61"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="61"/>
-      <c r="N77" s="61"/>
-      <c r="O77" s="61"/>
-      <c r="P77" s="62">
+      <c r="D77" s="109"/>
+      <c r="E77" s="109"/>
+      <c r="F77" s="109"/>
+      <c r="G77" s="109"/>
+      <c r="H77" s="109"/>
+      <c r="I77" s="109"/>
+      <c r="J77" s="109"/>
+      <c r="K77" s="109"/>
+      <c r="L77" s="109"/>
+      <c r="M77" s="109"/>
+      <c r="N77" s="109"/>
+      <c r="O77" s="109"/>
+      <c r="P77" s="110">
         <v>0</v>
       </c>
-      <c r="Q77" s="62"/>
-      <c r="R77" s="62"/>
-      <c r="S77" s="62"/>
-      <c r="T77" s="62"/>
-      <c r="U77" s="49"/>
-      <c r="V77" s="49"/>
-      <c r="W77" s="49"/>
-      <c r="X77" s="49"/>
-      <c r="Y77" s="49"/>
-      <c r="Z77" s="49"/>
-      <c r="AA77" s="49"/>
-      <c r="AB77" s="49"/>
-      <c r="AC77" s="49"/>
-      <c r="AD77" s="49"/>
-      <c r="AE77" s="49"/>
-      <c r="AF77" s="49"/>
-      <c r="AG77" s="49"/>
-      <c r="AH77" s="49"/>
-      <c r="AI77" s="49"/>
-      <c r="AJ77" s="49"/>
-      <c r="AK77" s="49"/>
-      <c r="AL77" s="49"/>
-      <c r="AM77" s="50"/>
+      <c r="Q77" s="110"/>
+      <c r="R77" s="110"/>
+      <c r="S77" s="110"/>
+      <c r="T77" s="110"/>
+      <c r="U77" s="174"/>
+      <c r="V77" s="174"/>
+      <c r="W77" s="174"/>
+      <c r="X77" s="174"/>
+      <c r="Y77" s="174"/>
+      <c r="Z77" s="174"/>
+      <c r="AA77" s="174"/>
+      <c r="AB77" s="174"/>
+      <c r="AC77" s="174"/>
+      <c r="AD77" s="174"/>
+      <c r="AE77" s="174"/>
+      <c r="AF77" s="174"/>
+      <c r="AG77" s="174"/>
+      <c r="AH77" s="174"/>
+      <c r="AI77" s="174"/>
+      <c r="AJ77" s="174"/>
+      <c r="AK77" s="174"/>
+      <c r="AL77" s="174"/>
+      <c r="AM77" s="175"/>
       <c r="AN77" s="44"/>
       <c r="AO77" s="1"/>
       <c r="AP77" s="1"/>
@@ -27883,48 +26670,48 @@
     <row r="78" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="13"/>
-      <c r="C78" s="60">
+      <c r="C78" s="108">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="61"/>
-      <c r="M78" s="61"/>
-      <c r="N78" s="61"/>
-      <c r="O78" s="61"/>
-      <c r="P78" s="62">
+      <c r="D78" s="109"/>
+      <c r="E78" s="109"/>
+      <c r="F78" s="109"/>
+      <c r="G78" s="109"/>
+      <c r="H78" s="109"/>
+      <c r="I78" s="109"/>
+      <c r="J78" s="109"/>
+      <c r="K78" s="109"/>
+      <c r="L78" s="109"/>
+      <c r="M78" s="109"/>
+      <c r="N78" s="109"/>
+      <c r="O78" s="109"/>
+      <c r="P78" s="110">
         <v>0</v>
       </c>
-      <c r="Q78" s="62"/>
-      <c r="R78" s="62"/>
-      <c r="S78" s="62"/>
-      <c r="T78" s="62"/>
-      <c r="U78" s="49"/>
-      <c r="V78" s="49"/>
-      <c r="W78" s="49"/>
-      <c r="X78" s="49"/>
-      <c r="Y78" s="49"/>
-      <c r="Z78" s="49"/>
-      <c r="AA78" s="49"/>
-      <c r="AB78" s="49"/>
-      <c r="AC78" s="49"/>
-      <c r="AD78" s="49"/>
-      <c r="AE78" s="49"/>
-      <c r="AF78" s="49"/>
-      <c r="AG78" s="49"/>
-      <c r="AH78" s="49"/>
-      <c r="AI78" s="49"/>
-      <c r="AJ78" s="49"/>
-      <c r="AK78" s="49"/>
-      <c r="AL78" s="49"/>
-      <c r="AM78" s="50"/>
+      <c r="Q78" s="110"/>
+      <c r="R78" s="110"/>
+      <c r="S78" s="110"/>
+      <c r="T78" s="110"/>
+      <c r="U78" s="174"/>
+      <c r="V78" s="174"/>
+      <c r="W78" s="174"/>
+      <c r="X78" s="174"/>
+      <c r="Y78" s="174"/>
+      <c r="Z78" s="174"/>
+      <c r="AA78" s="174"/>
+      <c r="AB78" s="174"/>
+      <c r="AC78" s="174"/>
+      <c r="AD78" s="174"/>
+      <c r="AE78" s="174"/>
+      <c r="AF78" s="174"/>
+      <c r="AG78" s="174"/>
+      <c r="AH78" s="174"/>
+      <c r="AI78" s="174"/>
+      <c r="AJ78" s="174"/>
+      <c r="AK78" s="174"/>
+      <c r="AL78" s="174"/>
+      <c r="AM78" s="175"/>
       <c r="AN78" s="44"/>
       <c r="AO78" s="1"/>
       <c r="AP78" s="1"/>
@@ -27932,48 +26719,48 @@
     <row r="79" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="141">
+      <c r="C79" s="111">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D79" s="142"/>
-      <c r="E79" s="142"/>
-      <c r="F79" s="142"/>
-      <c r="G79" s="142"/>
-      <c r="H79" s="142"/>
-      <c r="I79" s="142"/>
-      <c r="J79" s="142"/>
-      <c r="K79" s="142"/>
-      <c r="L79" s="142"/>
-      <c r="M79" s="142"/>
-      <c r="N79" s="142"/>
-      <c r="O79" s="142"/>
-      <c r="P79" s="143">
+      <c r="D79" s="112"/>
+      <c r="E79" s="112"/>
+      <c r="F79" s="112"/>
+      <c r="G79" s="112"/>
+      <c r="H79" s="112"/>
+      <c r="I79" s="112"/>
+      <c r="J79" s="112"/>
+      <c r="K79" s="112"/>
+      <c r="L79" s="112"/>
+      <c r="M79" s="112"/>
+      <c r="N79" s="112"/>
+      <c r="O79" s="112"/>
+      <c r="P79" s="113">
         <v>0</v>
       </c>
-      <c r="Q79" s="143"/>
-      <c r="R79" s="143"/>
-      <c r="S79" s="143"/>
-      <c r="T79" s="143"/>
-      <c r="U79" s="51"/>
-      <c r="V79" s="51"/>
-      <c r="W79" s="51"/>
-      <c r="X79" s="51"/>
-      <c r="Y79" s="51"/>
-      <c r="Z79" s="51"/>
-      <c r="AA79" s="51"/>
-      <c r="AB79" s="51"/>
-      <c r="AC79" s="51"/>
-      <c r="AD79" s="51"/>
-      <c r="AE79" s="51"/>
-      <c r="AF79" s="51"/>
-      <c r="AG79" s="51"/>
-      <c r="AH79" s="51"/>
-      <c r="AI79" s="51"/>
-      <c r="AJ79" s="51"/>
-      <c r="AK79" s="51"/>
-      <c r="AL79" s="51"/>
-      <c r="AM79" s="52"/>
+      <c r="Q79" s="113"/>
+      <c r="R79" s="113"/>
+      <c r="S79" s="113"/>
+      <c r="T79" s="113"/>
+      <c r="U79" s="182"/>
+      <c r="V79" s="182"/>
+      <c r="W79" s="182"/>
+      <c r="X79" s="182"/>
+      <c r="Y79" s="182"/>
+      <c r="Z79" s="182"/>
+      <c r="AA79" s="182"/>
+      <c r="AB79" s="182"/>
+      <c r="AC79" s="182"/>
+      <c r="AD79" s="182"/>
+      <c r="AE79" s="182"/>
+      <c r="AF79" s="182"/>
+      <c r="AG79" s="182"/>
+      <c r="AH79" s="182"/>
+      <c r="AI79" s="182"/>
+      <c r="AJ79" s="182"/>
+      <c r="AK79" s="182"/>
+      <c r="AL79" s="182"/>
+      <c r="AM79" s="183"/>
       <c r="AN79" s="44"/>
       <c r="AO79" s="1"/>
       <c r="AP79" s="1"/>
@@ -28039,31 +26826,172 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="206">
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="U77:AM77"/>
+    <mergeCell ref="U78:AM78"/>
+    <mergeCell ref="U79:AM79"/>
+    <mergeCell ref="V51:AM51"/>
+    <mergeCell ref="U52:AM52"/>
+    <mergeCell ref="U53:AM53"/>
+    <mergeCell ref="U54:AM54"/>
+    <mergeCell ref="U55:AM55"/>
+    <mergeCell ref="U56:AM56"/>
+    <mergeCell ref="U57:AM57"/>
+    <mergeCell ref="U58:AM58"/>
+    <mergeCell ref="U59:AM59"/>
+    <mergeCell ref="U60:AM60"/>
+    <mergeCell ref="U61:AM61"/>
+    <mergeCell ref="U63:AM63"/>
+    <mergeCell ref="U64:AM64"/>
+    <mergeCell ref="U65:AM65"/>
+    <mergeCell ref="U66:AM66"/>
+    <mergeCell ref="U67:AM67"/>
+    <mergeCell ref="U68:AM68"/>
+    <mergeCell ref="U69:AM69"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="U74:AM74"/>
+    <mergeCell ref="U75:AM75"/>
+    <mergeCell ref="U76:AM76"/>
+    <mergeCell ref="C60:O60"/>
+    <mergeCell ref="C61:O61"/>
+    <mergeCell ref="C62:O62"/>
+    <mergeCell ref="C63:O63"/>
+    <mergeCell ref="C64:O64"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="C57:O57"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="C59:O59"/>
+    <mergeCell ref="U70:AM70"/>
+    <mergeCell ref="U71:AM71"/>
+    <mergeCell ref="U72:AM72"/>
+    <mergeCell ref="C73:O73"/>
+    <mergeCell ref="C76:O76"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="O44:S44"/>
+    <mergeCell ref="O46:S46"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="T45:Z45"/>
+    <mergeCell ref="T46:Z47"/>
+    <mergeCell ref="C51:O51"/>
+    <mergeCell ref="C52:O52"/>
+    <mergeCell ref="C53:O53"/>
+    <mergeCell ref="C54:O54"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="C55:O55"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="C56:O56"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="C58:O58"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="J46:N46"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="C68:O68"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="C50:O50"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="O45:S45"/>
+    <mergeCell ref="T43:Z44"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="C67:O67"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="AD12:AM12"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="Q13:Z13"/>
+    <mergeCell ref="AD13:AM13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="Q14:Z14"/>
+    <mergeCell ref="AD14:AM14"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="Q15:Z15"/>
+    <mergeCell ref="AD15:AM15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="Q16:Z16"/>
+    <mergeCell ref="AD16:AM16"/>
+    <mergeCell ref="T39:Z39"/>
+    <mergeCell ref="T40:Z41"/>
+    <mergeCell ref="T42:Z42"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="T27:Z28"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="P11:Z11"/>
+    <mergeCell ref="AC11:AM11"/>
+    <mergeCell ref="O9:AA9"/>
+    <mergeCell ref="O37:AA37"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="Q19:Z19"/>
+    <mergeCell ref="AD19:AM19"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="Q20:Z20"/>
+    <mergeCell ref="AD20:AM20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="AD21:AM21"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="Q17:Z17"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="AD17:AM17"/>
+    <mergeCell ref="AD18:AM18"/>
+    <mergeCell ref="O24:AA24"/>
     <mergeCell ref="T26:Z26"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="AH4:AN4"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="J28:N28"/>
     <mergeCell ref="O28:S28"/>
+    <mergeCell ref="C77:O77"/>
+    <mergeCell ref="C78:O78"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="C79:O79"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="C69:O69"/>
+    <mergeCell ref="C70:O70"/>
+    <mergeCell ref="C71:O71"/>
+    <mergeCell ref="C65:O65"/>
+    <mergeCell ref="C72:O72"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="C75:O75"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P66:T66"/>
     <mergeCell ref="C74:O74"/>
     <mergeCell ref="C66:O66"/>
-    <mergeCell ref="P64:T64"/>
     <mergeCell ref="P62:T62"/>
     <mergeCell ref="F2:S6"/>
     <mergeCell ref="C32:I32"/>
@@ -28085,486 +27013,49 @@
     <mergeCell ref="J30:N30"/>
     <mergeCell ref="O30:S30"/>
     <mergeCell ref="T30:Z31"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="C76:O76"/>
-    <mergeCell ref="C77:O77"/>
-    <mergeCell ref="C78:O78"/>
-    <mergeCell ref="P78:T78"/>
-    <mergeCell ref="C79:O79"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="C69:O69"/>
-    <mergeCell ref="C70:O70"/>
-    <mergeCell ref="C71:O71"/>
-    <mergeCell ref="C65:O65"/>
-    <mergeCell ref="C72:O72"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="C75:O75"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="T27:Z28"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C73:O73"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="P11:Z11"/>
-    <mergeCell ref="AC11:AM11"/>
-    <mergeCell ref="O9:AA9"/>
-    <mergeCell ref="O37:AA37"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="Q19:Z19"/>
-    <mergeCell ref="AD19:AM19"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="Q20:Z20"/>
-    <mergeCell ref="AD20:AM20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="Q21:Z21"/>
-    <mergeCell ref="AD21:AM21"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="Q17:Z17"/>
-    <mergeCell ref="Q18:Z18"/>
-    <mergeCell ref="AD17:AM17"/>
-    <mergeCell ref="AD18:AM18"/>
-    <mergeCell ref="O24:AA24"/>
-    <mergeCell ref="C47:I47"/>
-    <mergeCell ref="O45:S45"/>
-    <mergeCell ref="T43:Z44"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="AD12:AM12"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="Q13:Z13"/>
-    <mergeCell ref="AD13:AM13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="Q14:Z14"/>
-    <mergeCell ref="AD14:AM14"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="Q15:Z15"/>
-    <mergeCell ref="AD15:AM15"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="Q16:Z16"/>
-    <mergeCell ref="AD16:AM16"/>
-    <mergeCell ref="T39:Z39"/>
-    <mergeCell ref="T40:Z41"/>
-    <mergeCell ref="T42:Z42"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="U70:AM70"/>
-    <mergeCell ref="U71:AM71"/>
-    <mergeCell ref="U72:AM72"/>
-    <mergeCell ref="O42:S42"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="C68:O68"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="C50:O50"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="C55:O55"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="C56:O56"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="C58:O58"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="C57:O57"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="C59:O59"/>
-    <mergeCell ref="C60:O60"/>
-    <mergeCell ref="C61:O61"/>
-    <mergeCell ref="C62:O62"/>
-    <mergeCell ref="C63:O63"/>
-    <mergeCell ref="C64:O64"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="O40:S40"/>
-    <mergeCell ref="C67:O67"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="O43:S43"/>
-    <mergeCell ref="O44:S44"/>
-    <mergeCell ref="O46:S46"/>
-    <mergeCell ref="O47:S47"/>
-    <mergeCell ref="T45:Z45"/>
-    <mergeCell ref="T46:Z47"/>
-    <mergeCell ref="C51:O51"/>
-    <mergeCell ref="C52:O52"/>
-    <mergeCell ref="C53:O53"/>
-    <mergeCell ref="C54:O54"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="J45:N45"/>
-    <mergeCell ref="J46:N46"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="U74:AM74"/>
-    <mergeCell ref="U75:AM75"/>
-    <mergeCell ref="U76:AM76"/>
-    <mergeCell ref="U77:AM77"/>
-    <mergeCell ref="U78:AM78"/>
-    <mergeCell ref="U79:AM79"/>
-    <mergeCell ref="V51:AM51"/>
-    <mergeCell ref="U52:AM52"/>
-    <mergeCell ref="U53:AM53"/>
-    <mergeCell ref="U54:AM54"/>
-    <mergeCell ref="U55:AM55"/>
-    <mergeCell ref="U56:AM56"/>
-    <mergeCell ref="U57:AM57"/>
-    <mergeCell ref="U58:AM58"/>
-    <mergeCell ref="U59:AM59"/>
-    <mergeCell ref="U60:AM60"/>
-    <mergeCell ref="U61:AM61"/>
-    <mergeCell ref="U63:AM63"/>
-    <mergeCell ref="U64:AM64"/>
-    <mergeCell ref="U65:AM65"/>
-    <mergeCell ref="U66:AM66"/>
-    <mergeCell ref="U67:AM67"/>
-    <mergeCell ref="U68:AM68"/>
-    <mergeCell ref="U69:AM69"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
-  <conditionalFormatting sqref="O12:O20 AA12:AB20">
-    <cfRule type="cellIs" dxfId="63" priority="122" operator="equal">
+  <conditionalFormatting sqref="C12:C21">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"✔"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O20 AA12:AB20">
-    <cfRule type="cellIs" dxfId="62" priority="121" operator="equal">
+  <conditionalFormatting sqref="N12:P21">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N20">
-    <cfRule type="cellIs" dxfId="61" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N20">
-    <cfRule type="cellIs" dxfId="60" priority="119" operator="equal">
+  <conditionalFormatting sqref="AA12:AC21">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="59" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="58" priority="103" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="57" priority="100" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="56" priority="99" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16 C18">
-    <cfRule type="cellIs" dxfId="55" priority="98" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16 C18">
-    <cfRule type="cellIs" dxfId="54" priority="97" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="53" priority="106" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="52" priority="105" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="51" priority="102" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="50" priority="101" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="49" priority="72" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="48" priority="71" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="47" priority="76" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="46" priority="75" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="44" priority="73" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="43" priority="70" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="42" priority="69" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16 P18">
-    <cfRule type="cellIs" dxfId="41" priority="68" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16 P18">
-    <cfRule type="cellIs" dxfId="40" priority="67" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC13">
-    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC13">
-    <cfRule type="cellIs" dxfId="38" priority="61" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC15">
-    <cfRule type="cellIs" dxfId="37" priority="58" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC15">
-    <cfRule type="cellIs" dxfId="36" priority="57" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC16">
-    <cfRule type="cellIs" dxfId="35" priority="56" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC16">
-    <cfRule type="cellIs" dxfId="34" priority="55" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
-    <cfRule type="cellIs" dxfId="33" priority="64" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
-    <cfRule type="cellIs" dxfId="32" priority="63" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC14">
-    <cfRule type="cellIs" dxfId="31" priority="60" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC14">
-    <cfRule type="cellIs" dxfId="30" priority="59" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC21">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O21 AA21:AB21">
-    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O21 AA21:AB21">
-    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
-    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
-    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC21">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC19">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC19">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC20">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC20">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC17">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC17">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="997" yWindow="585" count="5">
@@ -28589,8 +27080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00A28D5-8236-4B0A-9609-0BBBA11271D5}">
   <dimension ref="A1:AP32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25:T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28652,47 +27143,47 @@
       <c r="C2" s="36"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
       <c r="T2" s="23"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
-      <c r="W2" s="165" t="s">
+      <c r="W2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="178"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="178"/>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="171" t="s">
+      <c r="X2" s="57"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="172"/>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="157"/>
-      <c r="AJ2" s="157"/>
-      <c r="AK2" s="157"/>
-      <c r="AL2" s="157"/>
-      <c r="AM2" s="157"/>
-      <c r="AN2" s="158"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
       <c r="AO2"/>
     </row>
     <row r="3" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -28700,45 +27191,45 @@
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
       <c r="V3" s="23"/>
-      <c r="W3" s="167" t="s">
+      <c r="W3" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="157"/>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="158"/>
-      <c r="AF3" s="173" t="s">
+      <c r="X3" s="59"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
-      <c r="AJ3" s="184"/>
-      <c r="AK3" s="184"/>
-      <c r="AL3" s="184"/>
-      <c r="AM3" s="184"/>
-      <c r="AN3" s="185"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="208"/>
+      <c r="AI3" s="209"/>
+      <c r="AJ3" s="209"/>
+      <c r="AK3" s="209"/>
+      <c r="AL3" s="209"/>
+      <c r="AM3" s="209"/>
+      <c r="AN3" s="210"/>
       <c r="AO3"/>
     </row>
     <row r="4" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -28746,45 +27237,45 @@
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="146"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="146"/>
-      <c r="S4" s="146"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
       <c r="V4" s="23"/>
-      <c r="W4" s="165" t="s">
+      <c r="W4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="183"/>
-      <c r="Z4" s="184"/>
-      <c r="AA4" s="184"/>
-      <c r="AB4" s="184"/>
-      <c r="AC4" s="184"/>
-      <c r="AD4" s="184"/>
-      <c r="AE4" s="185"/>
-      <c r="AF4" s="171" t="s">
+      <c r="X4" s="57"/>
+      <c r="Y4" s="208"/>
+      <c r="Z4" s="209"/>
+      <c r="AA4" s="209"/>
+      <c r="AB4" s="209"/>
+      <c r="AC4" s="209"/>
+      <c r="AD4" s="209"/>
+      <c r="AE4" s="210"/>
+      <c r="AF4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="172"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="157"/>
-      <c r="AJ4" s="157"/>
-      <c r="AK4" s="157"/>
-      <c r="AL4" s="157"/>
-      <c r="AM4" s="157"/>
-      <c r="AN4" s="158"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="49"/>
       <c r="AO4"/>
     </row>
     <row r="5" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -28792,45 +27283,45 @@
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="23"/>
-      <c r="W5" s="169" t="s">
+      <c r="W5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="156"/>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="157"/>
-      <c r="AB5" s="157"/>
-      <c r="AC5" s="157"/>
-      <c r="AD5" s="157"/>
-      <c r="AE5" s="158"/>
-      <c r="AF5" s="175" t="s">
+      <c r="X5" s="61"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="176"/>
-      <c r="AH5" s="183"/>
-      <c r="AI5" s="184"/>
-      <c r="AJ5" s="184"/>
-      <c r="AK5" s="184"/>
-      <c r="AL5" s="184"/>
-      <c r="AM5" s="184"/>
-      <c r="AN5" s="185"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="208"/>
+      <c r="AI5" s="209"/>
+      <c r="AJ5" s="209"/>
+      <c r="AK5" s="209"/>
+      <c r="AL5" s="209"/>
+      <c r="AM5" s="209"/>
+      <c r="AN5" s="210"/>
       <c r="AO5"/>
     </row>
     <row r="6" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28838,20 +27329,20 @@
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
       <c r="V6" s="23"/>
@@ -29016,21 +27507,21 @@
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
-      <c r="O10" s="137" t="s">
+      <c r="O10" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="137"/>
-      <c r="Y10" s="137"/>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
       <c r="AB10" s="41"/>
       <c r="AC10" s="41"/>
       <c r="AD10" s="41"/>
@@ -29091,36 +27582,36 @@
     </row>
     <row r="12" spans="1:42" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="98" t="s">
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98" t="s">
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="154"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="154"/>
-      <c r="X12" s="154"/>
-      <c r="Y12" s="154"/>
-      <c r="Z12" s="155"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="140"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
@@ -29139,39 +27630,39 @@
     </row>
     <row r="13" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="102">
+      <c r="C13" s="154">
         <f>C25</f>
         <v>0</v>
       </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="111" t="e">
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="159" t="e">
         <f>O13/$T$16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="58">
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="163">
         <f>P25</f>
         <v>0</v>
       </c>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="194"/>
-      <c r="U13" s="195"/>
-      <c r="V13" s="195"/>
-      <c r="W13" s="195"/>
-      <c r="X13" s="195"/>
-      <c r="Y13" s="195"/>
-      <c r="Z13" s="196"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="163"/>
+      <c r="R13" s="163"/>
+      <c r="S13" s="164"/>
+      <c r="T13" s="205"/>
+      <c r="U13" s="206"/>
+      <c r="V13" s="206"/>
+      <c r="W13" s="206"/>
+      <c r="X13" s="206"/>
+      <c r="Y13" s="206"/>
+      <c r="Z13" s="207"/>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
@@ -29190,39 +27681,39 @@
     </row>
     <row r="14" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
-      <c r="C14" s="104">
+      <c r="C14" s="76">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="85" t="e">
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78" t="e">
         <f>O14/$T$16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="63">
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="79">
         <f>P26</f>
         <v>0</v>
       </c>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="194"/>
-      <c r="U14" s="195"/>
-      <c r="V14" s="195"/>
-      <c r="W14" s="195"/>
-      <c r="X14" s="195"/>
-      <c r="Y14" s="195"/>
-      <c r="Z14" s="196"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="205"/>
+      <c r="U14" s="206"/>
+      <c r="V14" s="206"/>
+      <c r="W14" s="206"/>
+      <c r="X14" s="206"/>
+      <c r="Y14" s="206"/>
+      <c r="Z14" s="207"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
@@ -29241,16 +27732,16 @@
     </row>
     <row r="15" spans="1:42" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
-      <c r="C15" s="106">
+      <c r="C15" s="156">
         <f>C27</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197"/>
-      <c r="E15" s="197"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="197"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="204"/>
       <c r="J15" s="86" t="e">
         <f>O15/$T$16</f>
         <v>#DIV/0!</v>
@@ -29259,24 +27750,24 @@
       <c r="L15" s="86"/>
       <c r="M15" s="86"/>
       <c r="N15" s="86"/>
-      <c r="O15" s="65">
+      <c r="O15" s="87">
         <f>P27</f>
         <v>0</v>
       </c>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="69" t="str">
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="141" t="str">
         <f>O10</f>
         <v>Available Finances</v>
       </c>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="71"/>
+      <c r="U15" s="142"/>
+      <c r="V15" s="142"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="142"/>
+      <c r="Y15" s="142"/>
+      <c r="Z15" s="143"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
@@ -29295,42 +27786,42 @@
     </row>
     <row r="16" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="104">
+      <c r="C16" s="76">
         <f>C28</f>
         <v>0</v>
       </c>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="85" t="e">
-        <f>O15/$T$16</f>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="78" t="e">
+        <f>O16/$T$16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="63">
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="79">
         <f>P28</f>
         <v>0</v>
       </c>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="72">
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="160">
         <f>P24</f>
         <v>0</v>
       </c>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="74"/>
+      <c r="U16" s="161"/>
+      <c r="V16" s="161"/>
+      <c r="W16" s="161"/>
+      <c r="X16" s="161"/>
+      <c r="Y16" s="161"/>
+      <c r="Z16" s="162"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
@@ -29349,30 +27840,30 @@
     </row>
     <row r="17" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
       <c r="J17" s="86"/>
       <c r="K17" s="86"/>
       <c r="L17" s="86"/>
       <c r="M17" s="86"/>
       <c r="N17" s="86"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="77"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="105"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="11"/>
@@ -29391,30 +27882,30 @@
     </row>
     <row r="18" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="149"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="83"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
@@ -29433,30 +27924,30 @@
     </row>
     <row r="19" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
       <c r="J19" s="86"/>
       <c r="K19" s="86"/>
       <c r="L19" s="86"/>
       <c r="M19" s="86"/>
       <c r="N19" s="86"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="198"/>
-      <c r="U19" s="199"/>
-      <c r="V19" s="199"/>
-      <c r="W19" s="199"/>
-      <c r="X19" s="199"/>
-      <c r="Y19" s="199"/>
-      <c r="Z19" s="200"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="192"/>
+      <c r="U19" s="193"/>
+      <c r="V19" s="193"/>
+      <c r="W19" s="193"/>
+      <c r="X19" s="193"/>
+      <c r="Y19" s="193"/>
+      <c r="Z19" s="194"/>
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
@@ -29475,30 +27966,30 @@
     </row>
     <row r="20" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="201"/>
-      <c r="U20" s="202"/>
-      <c r="V20" s="202"/>
-      <c r="W20" s="202"/>
-      <c r="X20" s="202"/>
-      <c r="Y20" s="202"/>
-      <c r="Z20" s="203"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="195"/>
+      <c r="U20" s="196"/>
+      <c r="V20" s="196"/>
+      <c r="W20" s="196"/>
+      <c r="X20" s="196"/>
+      <c r="Y20" s="196"/>
+      <c r="Z20" s="197"/>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
@@ -29602,28 +28093,28 @@
     <row r="23" spans="1:42" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="83" t="s">
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="158"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
+      <c r="Q23" s="171"/>
+      <c r="R23" s="171"/>
+      <c r="S23" s="171"/>
+      <c r="T23" s="171"/>
       <c r="U23" s="31" t="s">
         <v>6</v>
       </c>
@@ -29652,29 +28143,29 @@
     <row r="24" spans="1:42" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="84">
-        <f>SUM(P25:T27)</f>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="169"/>
+      <c r="L24" s="169"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="169"/>
+      <c r="O24" s="169"/>
+      <c r="P24" s="74">
+        <f>SUM(P25:P28)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
       <c r="U24" s="33"/>
       <c r="V24" s="33"/>
       <c r="W24" s="33"/>
@@ -29701,45 +28192,45 @@
     <row r="25" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="88">
+      <c r="C25" s="213"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="116">
         <v>0</v>
       </c>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="186"/>
-      <c r="V25" s="186"/>
-      <c r="W25" s="186"/>
-      <c r="X25" s="186"/>
-      <c r="Y25" s="186"/>
-      <c r="Z25" s="186"/>
-      <c r="AA25" s="186"/>
-      <c r="AB25" s="186"/>
-      <c r="AC25" s="186"/>
-      <c r="AD25" s="186"/>
-      <c r="AE25" s="186"/>
-      <c r="AF25" s="186"/>
-      <c r="AG25" s="186"/>
-      <c r="AH25" s="186"/>
-      <c r="AI25" s="186"/>
-      <c r="AJ25" s="186"/>
-      <c r="AK25" s="186"/>
-      <c r="AL25" s="186"/>
-      <c r="AM25" s="187"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="198"/>
+      <c r="V25" s="198"/>
+      <c r="W25" s="198"/>
+      <c r="X25" s="198"/>
+      <c r="Y25" s="198"/>
+      <c r="Z25" s="198"/>
+      <c r="AA25" s="198"/>
+      <c r="AB25" s="198"/>
+      <c r="AC25" s="198"/>
+      <c r="AD25" s="198"/>
+      <c r="AE25" s="198"/>
+      <c r="AF25" s="198"/>
+      <c r="AG25" s="198"/>
+      <c r="AH25" s="198"/>
+      <c r="AI25" s="198"/>
+      <c r="AJ25" s="198"/>
+      <c r="AK25" s="198"/>
+      <c r="AL25" s="198"/>
+      <c r="AM25" s="199"/>
       <c r="AN25" s="44"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
@@ -29747,45 +28238,45 @@
     <row r="26" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="62">
+      <c r="C26" s="108"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="170"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="110">
         <v>0</v>
       </c>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="188"/>
-      <c r="V26" s="188"/>
-      <c r="W26" s="188"/>
-      <c r="X26" s="188"/>
-      <c r="Y26" s="188"/>
-      <c r="Z26" s="188"/>
-      <c r="AA26" s="188"/>
-      <c r="AB26" s="188"/>
-      <c r="AC26" s="188"/>
-      <c r="AD26" s="188"/>
-      <c r="AE26" s="188"/>
-      <c r="AF26" s="188"/>
-      <c r="AG26" s="188"/>
-      <c r="AH26" s="188"/>
-      <c r="AI26" s="188"/>
-      <c r="AJ26" s="188"/>
-      <c r="AK26" s="188"/>
-      <c r="AL26" s="188"/>
-      <c r="AM26" s="189"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="200"/>
+      <c r="V26" s="200"/>
+      <c r="W26" s="200"/>
+      <c r="X26" s="200"/>
+      <c r="Y26" s="200"/>
+      <c r="Z26" s="200"/>
+      <c r="AA26" s="200"/>
+      <c r="AB26" s="200"/>
+      <c r="AC26" s="200"/>
+      <c r="AD26" s="200"/>
+      <c r="AE26" s="200"/>
+      <c r="AF26" s="200"/>
+      <c r="AG26" s="200"/>
+      <c r="AH26" s="200"/>
+      <c r="AI26" s="200"/>
+      <c r="AJ26" s="200"/>
+      <c r="AK26" s="200"/>
+      <c r="AL26" s="200"/>
+      <c r="AM26" s="201"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
@@ -29793,45 +28284,45 @@
     <row r="27" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="62">
+      <c r="C27" s="108"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="110">
         <v>0</v>
       </c>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="190"/>
-      <c r="V27" s="190"/>
-      <c r="W27" s="190"/>
-      <c r="X27" s="190"/>
-      <c r="Y27" s="190"/>
-      <c r="Z27" s="190"/>
-      <c r="AA27" s="190"/>
-      <c r="AB27" s="190"/>
-      <c r="AC27" s="190"/>
-      <c r="AD27" s="190"/>
-      <c r="AE27" s="190"/>
-      <c r="AF27" s="190"/>
-      <c r="AG27" s="190"/>
-      <c r="AH27" s="190"/>
-      <c r="AI27" s="190"/>
-      <c r="AJ27" s="190"/>
-      <c r="AK27" s="190"/>
-      <c r="AL27" s="190"/>
-      <c r="AM27" s="191"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="202"/>
+      <c r="V27" s="202"/>
+      <c r="W27" s="202"/>
+      <c r="X27" s="202"/>
+      <c r="Y27" s="202"/>
+      <c r="Z27" s="202"/>
+      <c r="AA27" s="202"/>
+      <c r="AB27" s="202"/>
+      <c r="AC27" s="202"/>
+      <c r="AD27" s="202"/>
+      <c r="AE27" s="202"/>
+      <c r="AF27" s="202"/>
+      <c r="AG27" s="202"/>
+      <c r="AH27" s="202"/>
+      <c r="AI27" s="202"/>
+      <c r="AJ27" s="202"/>
+      <c r="AK27" s="202"/>
+      <c r="AL27" s="202"/>
+      <c r="AM27" s="203"/>
       <c r="AN27" s="44"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
@@ -29839,45 +28330,45 @@
     <row r="28" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="142"/>
-      <c r="P28" s="143">
+      <c r="C28" s="111"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="113">
         <v>0</v>
       </c>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="143"/>
-      <c r="S28" s="143"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="192"/>
-      <c r="V28" s="192"/>
-      <c r="W28" s="192"/>
-      <c r="X28" s="192"/>
-      <c r="Y28" s="192"/>
-      <c r="Z28" s="192"/>
-      <c r="AA28" s="192"/>
-      <c r="AB28" s="192"/>
-      <c r="AC28" s="192"/>
-      <c r="AD28" s="192"/>
-      <c r="AE28" s="192"/>
-      <c r="AF28" s="192"/>
-      <c r="AG28" s="192"/>
-      <c r="AH28" s="192"/>
-      <c r="AI28" s="192"/>
-      <c r="AJ28" s="192"/>
-      <c r="AK28" s="192"/>
-      <c r="AL28" s="192"/>
-      <c r="AM28" s="193"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
+      <c r="U28" s="211"/>
+      <c r="V28" s="211"/>
+      <c r="W28" s="211"/>
+      <c r="X28" s="211"/>
+      <c r="Y28" s="211"/>
+      <c r="Z28" s="211"/>
+      <c r="AA28" s="211"/>
+      <c r="AB28" s="211"/>
+      <c r="AC28" s="211"/>
+      <c r="AD28" s="211"/>
+      <c r="AE28" s="211"/>
+      <c r="AF28" s="211"/>
+      <c r="AG28" s="211"/>
+      <c r="AH28" s="211"/>
+      <c r="AI28" s="211"/>
+      <c r="AJ28" s="211"/>
+      <c r="AK28" s="211"/>
+      <c r="AL28" s="211"/>
+      <c r="AM28" s="212"/>
       <c r="AN28" s="44"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
@@ -29946,6 +28437,57 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="67">
+    <mergeCell ref="U28:AM28"/>
+    <mergeCell ref="O10:AA10"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="C25:O25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="C26:O26"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="C28:O28"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:Z12"/>
+    <mergeCell ref="F2:S6"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T13:Z14"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="T15:Z15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T16:Z17"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:S17"/>
     <mergeCell ref="C27:O27"/>
     <mergeCell ref="P27:T27"/>
     <mergeCell ref="C18:I18"/>
@@ -29959,60 +28501,9 @@
     <mergeCell ref="O19:S19"/>
     <mergeCell ref="T19:Z20"/>
     <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="T15:Z15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="T16:Z17"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="T13:Z14"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AN4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:Z12"/>
-    <mergeCell ref="F2:S6"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AH5:AN5"/>
     <mergeCell ref="U25:AM25"/>
     <mergeCell ref="U26:AM26"/>
     <mergeCell ref="U27:AM27"/>
-    <mergeCell ref="U28:AM28"/>
-    <mergeCell ref="O10:AA10"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="C25:O25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="C26:O26"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="C28:O28"/>
-    <mergeCell ref="P28:T28"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Difference between Budget Total and Actual Expense Total" sqref="T19:Z20" xr:uid="{4495B466-C06B-48AE-A491-440276EDA67B}"/>
@@ -30027,21 +28518,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30266,19 +28757,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1227979-BBF3-4844-9292-32B93518FA69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F46E534C-454C-492A-BC87-D7A66B52DFCC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1227979-BBF3-4844-9292-32B93518FA69}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/C#/Finance_App/Finance_App/bin/Release/Budget_Template.xlsx
+++ b/C#/Finance_App/Finance_App/bin/Release/Budget_Template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B419085B-0C73-4C35-8358-45C71892A570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57AB6DB-EC98-43CE-9472-0479A2A224FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home Plans" sheetId="6" r:id="rId1"/>
@@ -1436,7 +1436,7 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1580,6 +1580,377 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="61" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="68" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="14" borderId="33" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="66" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="70" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="14" borderId="59" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="14" borderId="71" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="60" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="72" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="73" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="64" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="74" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="11" borderId="65" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="11" borderId="67" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="18" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="65" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="67" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="6" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="69" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="25" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="30" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="11" borderId="25" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="12" borderId="27" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="12" borderId="27" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="12" borderId="31" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="18" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="12" borderId="25" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="12" borderId="25" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="12" borderId="30" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="16" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="16" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="11" borderId="23" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="23" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="29" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="44" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="16" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1661,151 +2032,6 @@
     <xf numFmtId="0" fontId="30" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="14" borderId="33" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="12" borderId="25" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="12" borderId="25" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="12" borderId="30" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="11" borderId="25" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="25" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="30" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="16" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="12" borderId="27" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="12" borderId="27" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="12" borderId="31" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="16" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="9" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="44" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="6" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1833,231 +2059,63 @@
     <xf numFmtId="0" fontId="28" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="80" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="79" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="78" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="77" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="76" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="75" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="14" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="16" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="19" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="21" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="11" borderId="23" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="18" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="23" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="29" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="18" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="65" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="166" fontId="20" fillId="14" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="67" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="166" fontId="20" fillId="14" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="61" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="166" fontId="20" fillId="14" borderId="18" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="68" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="166" fontId="6" fillId="12" borderId="23" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="64" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="69" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="66" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="70" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="14" borderId="59" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="14" borderId="71" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="60" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="72" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="73" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="74" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="11" borderId="65" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="11" borderId="67" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="166" fontId="6" fillId="12" borderId="29" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="166" fontId="21" fillId="14" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2083,55 +2141,6 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="11" borderId="81" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="80" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="79" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="78" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="77" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="14" borderId="17" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="14" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="14" borderId="18" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="76" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="75" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3038,6 +3047,62 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-A336-46A1-9B8D-C65645114A75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-A336-46A1-9B8D-C65645114A75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:pattFill prst="pct75">
@@ -3111,15 +3176,15 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Home Plans'!$AD$12:$AM$17</c:f>
+              <c:f>'Home Plans'!$AD$12:$AM$19</c:f>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Home Plans'!$P$74:$P$79</c:f>
+              <c:f>'Home Plans'!$P$74:$P$81</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3136,6 +3201,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3319,6 +3390,62 @@
                     </c:ext>
                   </c:extLst>
                 </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:sp3d/>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001D-A336-46A1-9B8D-C65645114A75}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="7"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:sp3d/>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001F-A336-46A1-9B8D-C65645114A75}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
                 <c:dLbls>
                   <c:spPr>
                     <a:pattFill prst="pct75">
@@ -3395,7 +3522,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Home Plans'!$AD$12:$AM$17</c15:sqref>
+                          <c15:sqref>'Home Plans'!$AD$12:$AM$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3406,13 +3533,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Home Plans'!$Q$74:$Q$79</c15:sqref>
+                          <c15:sqref>'Home Plans'!$Q$74:$Q$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>"$"#,##0.00</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="8"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3583,6 +3710,62 @@
                     </c:ext>
                   </c:extLst>
                 </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:sp3d/>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000002D-A336-46A1-9B8D-C65645114A75}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="7"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:sp3d/>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000002F-A336-46A1-9B8D-C65645114A75}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
                 <c:dLbls>
                   <c:spPr>
                     <a:pattFill prst="pct75">
@@ -3659,7 +3842,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Home Plans'!$AD$12:$AM$17</c15:sqref>
+                          <c15:sqref>'Home Plans'!$AD$12:$AM$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3670,13 +3853,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Home Plans'!$R$74:$R$79</c15:sqref>
+                          <c15:sqref>'Home Plans'!$R$74:$R$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>"$"#,##0.00</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="8"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3847,6 +4030,62 @@
                     </c:ext>
                   </c:extLst>
                 </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:sp3d/>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000003D-A336-46A1-9B8D-C65645114A75}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="7"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:sp3d/>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000003F-A336-46A1-9B8D-C65645114A75}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
                 <c:dLbls>
                   <c:spPr>
                     <a:pattFill prst="pct75">
@@ -3923,7 +4162,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Home Plans'!$AD$12:$AM$17</c15:sqref>
+                          <c15:sqref>'Home Plans'!$AD$12:$AM$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3934,13 +4173,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Home Plans'!$S$74:$S$79</c15:sqref>
+                          <c15:sqref>'Home Plans'!$S$74:$S$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>"$"#,##0.00</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="8"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4111,6 +4350,62 @@
                     </c:ext>
                   </c:extLst>
                 </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:sp3d/>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000004D-A336-46A1-9B8D-C65645114A75}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="7"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:sp3d/>
+                  </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000004F-A336-46A1-9B8D-C65645114A75}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
                 <c:dLbls>
                   <c:spPr>
                     <a:pattFill prst="pct75">
@@ -4187,7 +4482,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Home Plans'!$AD$12:$AM$17</c15:sqref>
+                          <c15:sqref>'Home Plans'!$AD$12:$AM$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4198,13 +4493,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Home Plans'!$T$74:$T$79</c15:sqref>
+                          <c15:sqref>'Home Plans'!$T$74:$T$81</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>"$"#,##0.00</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="8"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4499,6 +4794,116 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1366-4362-80EC-F36CEF4587BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1366-4362-80EC-F36CEF4587BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1366-4362-80EC-F36CEF4587BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-1366-4362-80EC-F36CEF4587BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:pattFill prst="pct75">
@@ -4572,7 +4977,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Available Finances'!$C$13:$I$16</c:f>
+              <c:f>'Available Finances'!$C$13:$I$20</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -23012,9 +23417,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AP83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23075,47 +23478,47 @@
       <c r="C2" s="36"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
       <c r="T2" s="23"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="62" t="s">
+      <c r="X2" s="166"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="172"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="157"/>
+      <c r="AL2" s="157"/>
+      <c r="AM2" s="157"/>
+      <c r="AN2" s="158"/>
       <c r="AO2"/>
     </row>
     <row r="3" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23123,45 +23526,45 @@
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
       <c r="V3" s="23"/>
-      <c r="W3" s="58" t="s">
+      <c r="W3" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="64" t="s">
+      <c r="X3" s="168"/>
+      <c r="Y3" s="156"/>
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="52"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="160"/>
+      <c r="AK3" s="160"/>
+      <c r="AL3" s="160"/>
+      <c r="AM3" s="160"/>
+      <c r="AN3" s="161"/>
       <c r="AO3"/>
     </row>
     <row r="4" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23169,45 +23572,45 @@
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
       <c r="V4" s="23"/>
-      <c r="W4" s="56" t="s">
+      <c r="W4" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="62" t="s">
+      <c r="X4" s="166"/>
+      <c r="Y4" s="159"/>
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="160"/>
+      <c r="AD4" s="160"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="49"/>
+      <c r="AG4" s="172"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="157"/>
+      <c r="AL4" s="157"/>
+      <c r="AM4" s="157"/>
+      <c r="AN4" s="158"/>
       <c r="AO4"/>
     </row>
     <row r="5" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23215,45 +23618,45 @@
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="23"/>
-      <c r="W5" s="60" t="s">
+      <c r="W5" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="66" t="s">
+      <c r="X5" s="170"/>
+      <c r="Y5" s="180"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="54"/>
-      <c r="AN5" s="55"/>
+      <c r="AG5" s="176"/>
+      <c r="AH5" s="162"/>
+      <c r="AI5" s="163"/>
+      <c r="AJ5" s="163"/>
+      <c r="AK5" s="163"/>
+      <c r="AL5" s="163"/>
+      <c r="AM5" s="163"/>
+      <c r="AN5" s="164"/>
       <c r="AO5"/>
     </row>
     <row r="6" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -23261,20 +23664,20 @@
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
       <c r="V6" s="23"/>
@@ -23397,21 +23800,21 @@
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
-      <c r="O9" s="128" t="s">
+      <c r="O9" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="136"/>
+      <c r="T9" s="136"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="136"/>
+      <c r="W9" s="136"/>
+      <c r="X9" s="136"/>
+      <c r="Y9" s="136"/>
+      <c r="Z9" s="136"/>
+      <c r="AA9" s="136"/>
       <c r="AB9" s="41"/>
       <c r="AC9" s="41"/>
       <c r="AD9" s="41"/>
@@ -23472,49 +23875,49 @@
     </row>
     <row r="11" spans="1:42" s="27" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="28"/>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="121"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="185"/>
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
-      <c r="P11" s="122" t="s">
+      <c r="P11" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="124"/>
+      <c r="Q11" s="187"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="187"/>
+      <c r="V11" s="187"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="187"/>
+      <c r="Z11" s="188"/>
       <c r="AA11" s="30"/>
       <c r="AB11" s="30"/>
-      <c r="AC11" s="125" t="s">
+      <c r="AC11" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="AD11" s="126"/>
-      <c r="AE11" s="126"/>
-      <c r="AF11" s="126"/>
-      <c r="AG11" s="126"/>
-      <c r="AH11" s="126"/>
-      <c r="AI11" s="126"/>
-      <c r="AJ11" s="126"/>
-      <c r="AK11" s="126"/>
-      <c r="AL11" s="126"/>
-      <c r="AM11" s="127"/>
+      <c r="AD11" s="190"/>
+      <c r="AE11" s="190"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="190"/>
+      <c r="AH11" s="190"/>
+      <c r="AI11" s="190"/>
+      <c r="AJ11" s="190"/>
+      <c r="AK11" s="190"/>
+      <c r="AL11" s="190"/>
+      <c r="AM11" s="191"/>
       <c r="AN11" s="28"/>
       <c r="AO11" s="29"/>
     </row>
@@ -23523,46 +23926,46 @@
       <c r="C12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="153"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="98"/>
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
       <c r="P12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="152"/>
-      <c r="W12" s="152"/>
-      <c r="X12" s="152"/>
-      <c r="Y12" s="152"/>
-      <c r="Z12" s="153"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="98"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AD12" s="152"/>
-      <c r="AE12" s="152"/>
-      <c r="AF12" s="152"/>
-      <c r="AG12" s="152"/>
-      <c r="AH12" s="152"/>
-      <c r="AI12" s="152"/>
-      <c r="AJ12" s="152"/>
-      <c r="AK12" s="152"/>
-      <c r="AL12" s="152"/>
-      <c r="AM12" s="153"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="97"/>
+      <c r="AI12" s="97"/>
+      <c r="AJ12" s="97"/>
+      <c r="AK12" s="97"/>
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="98"/>
       <c r="AN12" s="11"/>
       <c r="AO12"/>
     </row>
@@ -23571,46 +23974,46 @@
       <c r="C13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="130"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="100"/>
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
       <c r="P13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="129"/>
-      <c r="Y13" s="129"/>
-      <c r="Z13" s="130"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="100"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD13" s="129"/>
-      <c r="AE13" s="129"/>
-      <c r="AF13" s="129"/>
-      <c r="AG13" s="129"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="129"/>
-      <c r="AJ13" s="129"/>
-      <c r="AK13" s="129"/>
-      <c r="AL13" s="129"/>
-      <c r="AM13" s="130"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="100"/>
       <c r="AN13" s="11"/>
       <c r="AO13"/>
     </row>
@@ -23619,46 +24022,46 @@
       <c r="C14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="130"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
       <c r="P14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="129"/>
-      <c r="U14" s="129"/>
-      <c r="V14" s="129"/>
-      <c r="W14" s="129"/>
-      <c r="X14" s="129"/>
-      <c r="Y14" s="129"/>
-      <c r="Z14" s="130"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="100"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD14" s="131"/>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="129"/>
-      <c r="AG14" s="129"/>
-      <c r="AH14" s="129"/>
-      <c r="AI14" s="129"/>
-      <c r="AJ14" s="129"/>
-      <c r="AK14" s="129"/>
-      <c r="AL14" s="129"/>
-      <c r="AM14" s="130"/>
+      <c r="AD14" s="103"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="100"/>
       <c r="AN14" s="11"/>
       <c r="AO14"/>
     </row>
@@ -23667,46 +24070,46 @@
       <c r="C15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="130"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="100"/>
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
       <c r="P15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="129"/>
-      <c r="X15" s="129"/>
-      <c r="Y15" s="129"/>
-      <c r="Z15" s="130"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="99"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="100"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD15" s="131"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="129"/>
-      <c r="AG15" s="129"/>
-      <c r="AH15" s="129"/>
-      <c r="AI15" s="129"/>
-      <c r="AJ15" s="129"/>
-      <c r="AK15" s="129"/>
-      <c r="AL15" s="129"/>
-      <c r="AM15" s="130"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="99"/>
+      <c r="AJ15" s="99"/>
+      <c r="AK15" s="99"/>
+      <c r="AL15" s="99"/>
+      <c r="AM15" s="100"/>
       <c r="AN15" s="11"/>
       <c r="AO15"/>
     </row>
@@ -23715,46 +24118,46 @@
       <c r="C16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="134"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="106"/>
       <c r="N16" s="5"/>
       <c r="O16" s="6"/>
       <c r="P16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="129"/>
-      <c r="Z16" s="130"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="100"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD16" s="131"/>
-      <c r="AE16" s="129"/>
-      <c r="AF16" s="129"/>
-      <c r="AG16" s="129"/>
-      <c r="AH16" s="129"/>
-      <c r="AI16" s="129"/>
-      <c r="AJ16" s="129"/>
-      <c r="AK16" s="129"/>
-      <c r="AL16" s="129"/>
-      <c r="AM16" s="130"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="99"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="100"/>
       <c r="AN16" s="11"/>
       <c r="AO16"/>
     </row>
@@ -23763,46 +24166,46 @@
       <c r="C17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="130"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="100"/>
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
       <c r="P17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
-      <c r="Z17" s="130"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="99"/>
+      <c r="W17" s="99"/>
+      <c r="X17" s="99"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="100"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD17" s="129"/>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="129"/>
-      <c r="AG17" s="129"/>
-      <c r="AH17" s="129"/>
-      <c r="AI17" s="129"/>
-      <c r="AJ17" s="129"/>
-      <c r="AK17" s="129"/>
-      <c r="AL17" s="129"/>
-      <c r="AM17" s="130"/>
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="99"/>
+      <c r="AJ17" s="99"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="100"/>
       <c r="AN17" s="11"/>
       <c r="AO17"/>
     </row>
@@ -23811,46 +24214,46 @@
       <c r="C18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="134"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="106"/>
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
       <c r="P18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="129"/>
-      <c r="T18" s="129"/>
-      <c r="U18" s="129"/>
-      <c r="V18" s="129"/>
-      <c r="W18" s="129"/>
-      <c r="X18" s="129"/>
-      <c r="Y18" s="129"/>
-      <c r="Z18" s="130"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="100"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD18" s="131"/>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="129"/>
-      <c r="AH18" s="129"/>
-      <c r="AI18" s="129"/>
-      <c r="AJ18" s="129"/>
-      <c r="AK18" s="129"/>
-      <c r="AL18" s="129"/>
-      <c r="AM18" s="130"/>
+      <c r="AD18" s="103"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="99"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="99"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="100"/>
       <c r="AN18" s="11"/>
       <c r="AO18"/>
     </row>
@@ -23859,46 +24262,46 @@
       <c r="C19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="130"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="100"/>
       <c r="N19" s="5"/>
       <c r="O19" s="6"/>
       <c r="P19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
-      <c r="U19" s="129"/>
-      <c r="V19" s="129"/>
-      <c r="W19" s="129"/>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="129"/>
-      <c r="Z19" s="130"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="100"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD19" s="131"/>
-      <c r="AE19" s="129"/>
-      <c r="AF19" s="129"/>
-      <c r="AG19" s="129"/>
-      <c r="AH19" s="129"/>
-      <c r="AI19" s="129"/>
-      <c r="AJ19" s="129"/>
-      <c r="AK19" s="129"/>
-      <c r="AL19" s="129"/>
-      <c r="AM19" s="130"/>
+      <c r="AD19" s="103"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="99"/>
+      <c r="AK19" s="99"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="100"/>
       <c r="AN19" s="11"/>
       <c r="AO19"/>
     </row>
@@ -23907,46 +24310,46 @@
       <c r="C20" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="134"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="106"/>
       <c r="N20" s="5"/>
       <c r="O20" s="6"/>
       <c r="P20" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="129"/>
-      <c r="Y20" s="129"/>
-      <c r="Z20" s="130"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="100"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AD20" s="131"/>
-      <c r="AE20" s="129"/>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="129"/>
-      <c r="AH20" s="129"/>
-      <c r="AI20" s="129"/>
-      <c r="AJ20" s="129"/>
-      <c r="AK20" s="129"/>
-      <c r="AL20" s="129"/>
-      <c r="AM20" s="130"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="100"/>
       <c r="AN20" s="11"/>
       <c r="AO20"/>
     </row>
@@ -23955,46 +24358,46 @@
       <c r="C21" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="137"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="142"/>
       <c r="N21" s="5"/>
       <c r="O21" s="6"/>
       <c r="P21" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="136"/>
-      <c r="T21" s="136"/>
-      <c r="U21" s="136"/>
-      <c r="V21" s="136"/>
-      <c r="W21" s="136"/>
-      <c r="X21" s="136"/>
-      <c r="Y21" s="136"/>
-      <c r="Z21" s="137"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="141"/>
+      <c r="S21" s="141"/>
+      <c r="T21" s="141"/>
+      <c r="U21" s="141"/>
+      <c r="V21" s="141"/>
+      <c r="W21" s="141"/>
+      <c r="X21" s="141"/>
+      <c r="Y21" s="141"/>
+      <c r="Z21" s="142"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AD21" s="136"/>
-      <c r="AE21" s="136"/>
-      <c r="AF21" s="136"/>
-      <c r="AG21" s="136"/>
-      <c r="AH21" s="136"/>
-      <c r="AI21" s="136"/>
-      <c r="AJ21" s="136"/>
-      <c r="AK21" s="136"/>
-      <c r="AL21" s="136"/>
-      <c r="AM21" s="137"/>
+      <c r="AD21" s="141"/>
+      <c r="AE21" s="141"/>
+      <c r="AF21" s="141"/>
+      <c r="AG21" s="141"/>
+      <c r="AH21" s="141"/>
+      <c r="AI21" s="141"/>
+      <c r="AJ21" s="141"/>
+      <c r="AK21" s="141"/>
+      <c r="AL21" s="141"/>
+      <c r="AM21" s="142"/>
       <c r="AN21" s="11"/>
       <c r="AO21"/>
     </row>
@@ -24097,21 +24500,21 @@
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
-      <c r="O24" s="128" t="s">
+      <c r="O24" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="P24" s="128"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="136"/>
+      <c r="R24" s="136"/>
+      <c r="S24" s="136"/>
+      <c r="T24" s="136"/>
+      <c r="U24" s="136"/>
+      <c r="V24" s="136"/>
+      <c r="W24" s="136"/>
+      <c r="X24" s="136"/>
+      <c r="Y24" s="136"/>
+      <c r="Z24" s="136"/>
+      <c r="AA24" s="136"/>
       <c r="AB24" s="41"/>
       <c r="AC24" s="41"/>
       <c r="AD24" s="41"/>
@@ -24172,38 +24575,38 @@
     </row>
     <row r="26" spans="1:42" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
-      <c r="C26" s="150" t="s">
+      <c r="C26" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="106" t="s">
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106" t="s">
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="138" t="s">
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="U26" s="139"/>
-      <c r="V26" s="139"/>
-      <c r="W26" s="139"/>
-      <c r="X26" s="139"/>
-      <c r="Y26" s="139"/>
-      <c r="Z26" s="140"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="138"/>
+      <c r="W26" s="138"/>
+      <c r="X26" s="138"/>
+      <c r="Y26" s="138"/>
+      <c r="Z26" s="139"/>
       <c r="AA26" s="11"/>
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
@@ -24222,41 +24625,41 @@
     </row>
     <row r="27" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
-      <c r="C27" s="84">
-        <f t="shared" ref="C27:C32" si="0">AD12</f>
+      <c r="C27" s="115">
+        <f t="shared" ref="C27:C28" si="0">AD12</f>
         <v>0</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="86" t="e">
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="80" t="e">
         <f>O27/T30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="87">
-        <f t="shared" ref="O27:O32" si="1">P74</f>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="78">
+        <f t="shared" ref="O27" si="1">P74</f>
         <v>0</v>
       </c>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="144">
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="126">
         <v>0</v>
       </c>
-      <c r="U27" s="145"/>
-      <c r="V27" s="145"/>
-      <c r="W27" s="145"/>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="145"/>
-      <c r="Z27" s="146"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="128"/>
       <c r="AA27" s="11"/>
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
@@ -24275,39 +24678,39 @@
     </row>
     <row r="28" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11"/>
-      <c r="C28" s="76">
+      <c r="C28" s="117">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="78" t="e">
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="96" t="e">
         <f>O28/T30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="79">
-        <f t="shared" si="1"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="107">
+        <f t="shared" ref="O28:O34" si="2">P75</f>
         <v>0</v>
       </c>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="149"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="130"/>
+      <c r="V28" s="130"/>
+      <c r="W28" s="130"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="130"/>
+      <c r="Z28" s="131"/>
       <c r="AA28" s="11"/>
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
@@ -24326,41 +24729,41 @@
     </row>
     <row r="29" spans="1:42" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11"/>
-      <c r="C29" s="84">
-        <f t="shared" si="0"/>
+      <c r="C29" s="115">
+        <f t="shared" ref="C29:C32" si="3">AD14</f>
         <v>0</v>
       </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="86" t="e">
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="80" t="e">
         <f>O29/T30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="87">
-        <f t="shared" si="1"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="78">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="81" t="s">
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="83"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
+      <c r="Z29" s="121"/>
       <c r="AA29" s="11"/>
       <c r="AB29" s="11"/>
       <c r="AC29" s="11"/>
@@ -24379,42 +24782,42 @@
     </row>
     <row r="30" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
-      <c r="C30" s="76">
-        <f t="shared" si="0"/>
+      <c r="C30" s="117">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="78" t="e">
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="96" t="e">
         <f>O30/T30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="79">
-        <f t="shared" si="1"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="107">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="100">
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="109">
         <f>SUM(O27:S34)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="102"/>
+      <c r="U30" s="110"/>
+      <c r="V30" s="110"/>
+      <c r="W30" s="110"/>
+      <c r="X30" s="110"/>
+      <c r="Y30" s="110"/>
+      <c r="Z30" s="111"/>
       <c r="AA30" s="11"/>
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
@@ -24433,39 +24836,39 @@
     </row>
     <row r="31" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="11"/>
-      <c r="C31" s="84">
-        <f t="shared" si="0"/>
+      <c r="C31" s="115">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="86" t="e">
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="80" t="e">
         <f>O31/T30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="87">
-        <f t="shared" si="1"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="78">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="105"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="113"/>
+      <c r="V31" s="113"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="114"/>
       <c r="AA31" s="11"/>
       <c r="AB31" s="11"/>
       <c r="AC31" s="11"/>
@@ -24484,41 +24887,41 @@
     </row>
     <row r="32" spans="1:42" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11"/>
-      <c r="C32" s="76">
-        <f t="shared" si="0"/>
+      <c r="C32" s="117">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="78" t="e">
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="96" t="e">
         <f>O32/T30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="79">
-        <f t="shared" si="1"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="107">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="81" t="s">
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="82"/>
-      <c r="X32" s="82"/>
-      <c r="Y32" s="82"/>
-      <c r="Z32" s="83"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+      <c r="Y32" s="120"/>
+      <c r="Z32" s="121"/>
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
@@ -24537,33 +24940,42 @@
     </row>
     <row r="33" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="89">
+      <c r="C33" s="115">
+        <f t="shared" ref="C33:C34" si="4">AD18</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="80" t="e">
+        <f>O33/T30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="148">
         <f>T27-T30</f>
         <v>0</v>
       </c>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="90"/>
-      <c r="Z33" s="91"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="149"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="150"/>
       <c r="AA33" s="11"/>
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
@@ -24582,30 +24994,39 @@
     </row>
     <row r="34" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="98"/>
-      <c r="R34" s="98"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="92"/>
-      <c r="U34" s="93"/>
-      <c r="V34" s="93"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="94"/>
+      <c r="C34" s="117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="96" t="e">
+        <f>O34/T30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="90"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="92"/>
       <c r="AA34" s="11"/>
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
@@ -24721,21 +25142,21 @@
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
-      <c r="O37" s="128" t="s">
+      <c r="O37" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="128"/>
-      <c r="U37" s="128"/>
-      <c r="V37" s="128"/>
-      <c r="W37" s="128"/>
-      <c r="X37" s="128"/>
-      <c r="Y37" s="128"/>
-      <c r="Z37" s="128"/>
-      <c r="AA37" s="128"/>
+      <c r="P37" s="136"/>
+      <c r="Q37" s="136"/>
+      <c r="R37" s="136"/>
+      <c r="S37" s="136"/>
+      <c r="T37" s="136"/>
+      <c r="U37" s="136"/>
+      <c r="V37" s="136"/>
+      <c r="W37" s="136"/>
+      <c r="X37" s="136"/>
+      <c r="Y37" s="136"/>
+      <c r="Z37" s="136"/>
+      <c r="AA37" s="136"/>
       <c r="AB37" s="41"/>
       <c r="AC37" s="41"/>
       <c r="AD37" s="41"/>
@@ -24796,38 +25217,38 @@
     </row>
     <row r="39" spans="1:42" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="11"/>
-      <c r="C39" s="150" t="s">
+      <c r="C39" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="106" t="s">
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="106"/>
-      <c r="O39" s="106" t="s">
+      <c r="K39" s="122"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="122"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="106"/>
-      <c r="R39" s="106"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="141" t="s">
+      <c r="P39" s="122"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="132"/>
+      <c r="T39" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="U39" s="142"/>
-      <c r="V39" s="142"/>
-      <c r="W39" s="142"/>
-      <c r="X39" s="142"/>
-      <c r="Y39" s="142"/>
-      <c r="Z39" s="143"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="85"/>
+      <c r="Y39" s="85"/>
+      <c r="Z39" s="86"/>
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
       <c r="AC39" s="11"/>
@@ -24846,41 +25267,41 @@
     </row>
     <row r="40" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
-      <c r="C40" s="154" t="str">
+      <c r="C40" s="123" t="str">
         <f>C51</f>
         <v>Main Monthly Expenses</v>
       </c>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="159" t="e">
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="133" t="e">
         <f>O40/$T$43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="159"/>
-      <c r="L40" s="159"/>
-      <c r="M40" s="159"/>
-      <c r="N40" s="159"/>
-      <c r="O40" s="163">
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="133"/>
+      <c r="O40" s="134">
         <f>P51</f>
         <v>0</v>
       </c>
-      <c r="P40" s="163"/>
-      <c r="Q40" s="163"/>
-      <c r="R40" s="163"/>
-      <c r="S40" s="164"/>
-      <c r="T40" s="144">
+      <c r="P40" s="134"/>
+      <c r="Q40" s="134"/>
+      <c r="R40" s="134"/>
+      <c r="S40" s="135"/>
+      <c r="T40" s="126">
         <v>0</v>
       </c>
-      <c r="U40" s="145"/>
-      <c r="V40" s="145"/>
-      <c r="W40" s="145"/>
-      <c r="X40" s="145"/>
-      <c r="Y40" s="145"/>
-      <c r="Z40" s="146"/>
+      <c r="U40" s="127"/>
+      <c r="V40" s="127"/>
+      <c r="W40" s="127"/>
+      <c r="X40" s="127"/>
+      <c r="Y40" s="127"/>
+      <c r="Z40" s="128"/>
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
@@ -24899,39 +25320,39 @@
     </row>
     <row r="41" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
-      <c r="C41" s="76" t="str">
+      <c r="C41" s="117" t="str">
         <f>C62</f>
         <v>Additional Expenses</v>
       </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="78" t="e">
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="96" t="e">
         <f>O41/$T$43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="79">
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="107">
         <f>P62</f>
         <v>0</v>
       </c>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="147"/>
-      <c r="U41" s="148"/>
-      <c r="V41" s="148"/>
-      <c r="W41" s="148"/>
-      <c r="X41" s="148"/>
-      <c r="Y41" s="148"/>
-      <c r="Z41" s="149"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="108"/>
+      <c r="T41" s="129"/>
+      <c r="U41" s="130"/>
+      <c r="V41" s="130"/>
+      <c r="W41" s="130"/>
+      <c r="X41" s="130"/>
+      <c r="Y41" s="130"/>
+      <c r="Z41" s="131"/>
       <c r="AA41" s="11"/>
       <c r="AB41" s="11"/>
       <c r="AC41" s="11"/>
@@ -24950,32 +25371,32 @@
     </row>
     <row r="42" spans="1:42" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="141" t="s">
+      <c r="C42" s="125"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="79"/>
+      <c r="T42" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="142"/>
-      <c r="V42" s="142"/>
-      <c r="W42" s="142"/>
-      <c r="X42" s="142"/>
-      <c r="Y42" s="142"/>
-      <c r="Z42" s="143"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="85"/>
+      <c r="Z42" s="86"/>
       <c r="AA42" s="11"/>
       <c r="AB42" s="11"/>
       <c r="AC42" s="11"/>
@@ -24994,33 +25415,33 @@
     </row>
     <row r="43" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="79"/>
-      <c r="R43" s="79"/>
-      <c r="S43" s="80"/>
-      <c r="T43" s="160">
+      <c r="C43" s="117"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="62">
         <f>SUM(O40:S47)</f>
         <v>0</v>
       </c>
-      <c r="U43" s="161"/>
-      <c r="V43" s="161"/>
-      <c r="W43" s="161"/>
-      <c r="X43" s="161"/>
-      <c r="Y43" s="161"/>
-      <c r="Z43" s="162"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="64"/>
       <c r="AA43" s="11"/>
       <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
@@ -25039,30 +25460,30 @@
     </row>
     <row r="44" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="11"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="160"/>
-      <c r="U44" s="161"/>
-      <c r="V44" s="161"/>
-      <c r="W44" s="161"/>
-      <c r="X44" s="161"/>
-      <c r="Y44" s="161"/>
-      <c r="Z44" s="162"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="79"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="63"/>
+      <c r="Y44" s="63"/>
+      <c r="Z44" s="64"/>
       <c r="AA44" s="11"/>
       <c r="AB44" s="11"/>
       <c r="AC44" s="11"/>
@@ -25081,32 +25502,32 @@
     </row>
     <row r="45" spans="1:42" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="79"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="141" t="s">
+      <c r="C45" s="117"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="107"/>
+      <c r="P45" s="107"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="107"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="U45" s="142"/>
-      <c r="V45" s="142"/>
-      <c r="W45" s="142"/>
-      <c r="X45" s="142"/>
-      <c r="Y45" s="142"/>
-      <c r="Z45" s="143"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="85"/>
+      <c r="W45" s="85"/>
+      <c r="X45" s="85"/>
+      <c r="Y45" s="85"/>
+      <c r="Z45" s="86"/>
       <c r="AA45" s="11"/>
       <c r="AB45" s="11"/>
       <c r="AC45" s="11"/>
@@ -25125,33 +25546,33 @@
     </row>
     <row r="46" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="86"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="165">
+      <c r="C46" s="115"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="78"/>
+      <c r="S46" s="79"/>
+      <c r="T46" s="87">
         <f>T40-T43</f>
         <v>0</v>
       </c>
-      <c r="U46" s="166"/>
-      <c r="V46" s="166"/>
-      <c r="W46" s="166"/>
-      <c r="X46" s="166"/>
-      <c r="Y46" s="166"/>
-      <c r="Z46" s="167"/>
+      <c r="U46" s="88"/>
+      <c r="V46" s="88"/>
+      <c r="W46" s="88"/>
+      <c r="X46" s="88"/>
+      <c r="Y46" s="88"/>
+      <c r="Z46" s="89"/>
       <c r="AA46" s="11"/>
       <c r="AB46" s="11"/>
       <c r="AC46" s="11"/>
@@ -25170,30 +25591,30 @@
     </row>
     <row r="47" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="11"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
-      <c r="L47" s="97"/>
-      <c r="M47" s="97"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="98"/>
-      <c r="P47" s="98"/>
-      <c r="Q47" s="98"/>
-      <c r="R47" s="98"/>
-      <c r="S47" s="99"/>
-      <c r="T47" s="92"/>
-      <c r="U47" s="93"/>
-      <c r="V47" s="93"/>
-      <c r="W47" s="93"/>
-      <c r="X47" s="93"/>
-      <c r="Y47" s="93"/>
-      <c r="Z47" s="94"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="154"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="83"/>
+      <c r="T47" s="90"/>
+      <c r="U47" s="91"/>
+      <c r="V47" s="91"/>
+      <c r="W47" s="91"/>
+      <c r="X47" s="91"/>
+      <c r="Y47" s="91"/>
+      <c r="Z47" s="92"/>
       <c r="AA47" s="11"/>
       <c r="AB47" s="11"/>
       <c r="AC47" s="11"/>
@@ -25297,28 +25718,28 @@
     <row r="50" spans="1:42" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="157" t="s">
+      <c r="C50" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="158"/>
-      <c r="E50" s="158"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="158"/>
-      <c r="I50" s="158"/>
-      <c r="J50" s="158"/>
-      <c r="K50" s="158"/>
-      <c r="L50" s="158"/>
-      <c r="M50" s="158"/>
-      <c r="N50" s="158"/>
-      <c r="O50" s="158"/>
-      <c r="P50" s="171" t="s">
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="152"/>
+      <c r="K50" s="152"/>
+      <c r="L50" s="152"/>
+      <c r="M50" s="152"/>
+      <c r="N50" s="152"/>
+      <c r="O50" s="152"/>
+      <c r="P50" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q50" s="171"/>
-      <c r="R50" s="171"/>
-      <c r="S50" s="171"/>
-      <c r="T50" s="171"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="95"/>
+      <c r="S50" s="95"/>
+      <c r="T50" s="95"/>
       <c r="U50" s="31" t="s">
         <v>6</v>
       </c>
@@ -25347,48 +25768,48 @@
     <row r="51" spans="1:42" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="168" t="s">
+      <c r="C51" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="169"/>
-      <c r="E51" s="169"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="169"/>
-      <c r="H51" s="169"/>
-      <c r="I51" s="169"/>
-      <c r="J51" s="169"/>
-      <c r="K51" s="169"/>
-      <c r="L51" s="169"/>
-      <c r="M51" s="169"/>
-      <c r="N51" s="169"/>
-      <c r="O51" s="169"/>
-      <c r="P51" s="74">
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="50">
         <f>SUM(P52:T61)</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74"/>
-      <c r="S51" s="74"/>
-      <c r="T51" s="74"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
       <c r="U51" s="33"/>
-      <c r="V51" s="184"/>
-      <c r="W51" s="184"/>
-      <c r="X51" s="184"/>
-      <c r="Y51" s="184"/>
-      <c r="Z51" s="184"/>
-      <c r="AA51" s="184"/>
-      <c r="AB51" s="184"/>
-      <c r="AC51" s="184"/>
-      <c r="AD51" s="184"/>
-      <c r="AE51" s="184"/>
-      <c r="AF51" s="184"/>
-      <c r="AG51" s="184"/>
-      <c r="AH51" s="184"/>
-      <c r="AI51" s="184"/>
-      <c r="AJ51" s="184"/>
-      <c r="AK51" s="184"/>
-      <c r="AL51" s="184"/>
-      <c r="AM51" s="185"/>
+      <c r="V51" s="53"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="53"/>
+      <c r="Y51" s="53"/>
+      <c r="Z51" s="53"/>
+      <c r="AA51" s="53"/>
+      <c r="AB51" s="53"/>
+      <c r="AC51" s="53"/>
+      <c r="AD51" s="53"/>
+      <c r="AE51" s="53"/>
+      <c r="AF51" s="53"/>
+      <c r="AG51" s="53"/>
+      <c r="AH51" s="53"/>
+      <c r="AI51" s="53"/>
+      <c r="AJ51" s="53"/>
+      <c r="AK51" s="53"/>
+      <c r="AL51" s="53"/>
+      <c r="AM51" s="54"/>
       <c r="AN51" s="44"/>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
@@ -25396,48 +25817,48 @@
     <row r="52" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="117">
-        <f t="shared" ref="C52:C61" si="2">D12</f>
+      <c r="C52" s="93">
+        <f t="shared" ref="C52:C61" si="5">D12</f>
         <v>0</v>
       </c>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="116">
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="94"/>
+      <c r="L52" s="94"/>
+      <c r="M52" s="94"/>
+      <c r="N52" s="94"/>
+      <c r="O52" s="94"/>
+      <c r="P52" s="76">
         <v>0</v>
       </c>
-      <c r="Q52" s="116"/>
-      <c r="R52" s="116"/>
-      <c r="S52" s="116"/>
-      <c r="T52" s="116"/>
-      <c r="U52" s="186"/>
-      <c r="V52" s="186"/>
-      <c r="W52" s="186"/>
-      <c r="X52" s="186"/>
-      <c r="Y52" s="186"/>
-      <c r="Z52" s="186"/>
-      <c r="AA52" s="186"/>
-      <c r="AB52" s="186"/>
-      <c r="AC52" s="186"/>
-      <c r="AD52" s="186"/>
-      <c r="AE52" s="186"/>
-      <c r="AF52" s="186"/>
-      <c r="AG52" s="186"/>
-      <c r="AH52" s="186"/>
-      <c r="AI52" s="186"/>
-      <c r="AJ52" s="186"/>
-      <c r="AK52" s="186"/>
-      <c r="AL52" s="186"/>
-      <c r="AM52" s="187"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="76"/>
+      <c r="S52" s="76"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55"/>
+      <c r="Y52" s="55"/>
+      <c r="Z52" s="55"/>
+      <c r="AA52" s="55"/>
+      <c r="AB52" s="55"/>
+      <c r="AC52" s="55"/>
+      <c r="AD52" s="55"/>
+      <c r="AE52" s="55"/>
+      <c r="AF52" s="55"/>
+      <c r="AG52" s="55"/>
+      <c r="AH52" s="55"/>
+      <c r="AI52" s="55"/>
+      <c r="AJ52" s="55"/>
+      <c r="AK52" s="55"/>
+      <c r="AL52" s="55"/>
+      <c r="AM52" s="56"/>
       <c r="AN52" s="44"/>
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
@@ -25445,48 +25866,48 @@
     <row r="53" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="108">
-        <f t="shared" si="2"/>
+      <c r="C53" s="67">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D53" s="170"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="170"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="170"/>
-      <c r="L53" s="170"/>
-      <c r="M53" s="170"/>
-      <c r="N53" s="170"/>
-      <c r="O53" s="170"/>
-      <c r="P53" s="110">
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="49">
         <v>0</v>
       </c>
-      <c r="Q53" s="110"/>
-      <c r="R53" s="110"/>
-      <c r="S53" s="110"/>
-      <c r="T53" s="110"/>
-      <c r="U53" s="174"/>
-      <c r="V53" s="174"/>
-      <c r="W53" s="174"/>
-      <c r="X53" s="174"/>
-      <c r="Y53" s="174"/>
-      <c r="Z53" s="174"/>
-      <c r="AA53" s="174"/>
-      <c r="AB53" s="174"/>
-      <c r="AC53" s="174"/>
-      <c r="AD53" s="174"/>
-      <c r="AE53" s="174"/>
-      <c r="AF53" s="174"/>
-      <c r="AG53" s="174"/>
-      <c r="AH53" s="174"/>
-      <c r="AI53" s="174"/>
-      <c r="AJ53" s="174"/>
-      <c r="AK53" s="174"/>
-      <c r="AL53" s="174"/>
-      <c r="AM53" s="188"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="47"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
+      <c r="AC53" s="47"/>
+      <c r="AD53" s="47"/>
+      <c r="AE53" s="47"/>
+      <c r="AF53" s="47"/>
+      <c r="AG53" s="47"/>
+      <c r="AH53" s="47"/>
+      <c r="AI53" s="47"/>
+      <c r="AJ53" s="47"/>
+      <c r="AK53" s="47"/>
+      <c r="AL53" s="47"/>
+      <c r="AM53" s="57"/>
       <c r="AN53" s="44"/>
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
@@ -25494,48 +25915,48 @@
     <row r="54" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="108">
-        <f t="shared" si="2"/>
+      <c r="C54" s="67">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="170"/>
-      <c r="K54" s="170"/>
-      <c r="L54" s="170"/>
-      <c r="M54" s="170"/>
-      <c r="N54" s="170"/>
-      <c r="O54" s="170"/>
-      <c r="P54" s="110">
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="49">
         <v>0</v>
       </c>
-      <c r="Q54" s="110"/>
-      <c r="R54" s="110"/>
-      <c r="S54" s="110"/>
-      <c r="T54" s="110"/>
-      <c r="U54" s="174"/>
-      <c r="V54" s="174"/>
-      <c r="W54" s="174"/>
-      <c r="X54" s="174"/>
-      <c r="Y54" s="174"/>
-      <c r="Z54" s="174"/>
-      <c r="AA54" s="174"/>
-      <c r="AB54" s="174"/>
-      <c r="AC54" s="174"/>
-      <c r="AD54" s="174"/>
-      <c r="AE54" s="174"/>
-      <c r="AF54" s="174"/>
-      <c r="AG54" s="174"/>
-      <c r="AH54" s="174"/>
-      <c r="AI54" s="174"/>
-      <c r="AJ54" s="174"/>
-      <c r="AK54" s="174"/>
-      <c r="AL54" s="174"/>
-      <c r="AM54" s="188"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="49"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
+      <c r="AD54" s="47"/>
+      <c r="AE54" s="47"/>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="47"/>
+      <c r="AH54" s="47"/>
+      <c r="AI54" s="47"/>
+      <c r="AJ54" s="47"/>
+      <c r="AK54" s="47"/>
+      <c r="AL54" s="47"/>
+      <c r="AM54" s="57"/>
       <c r="AN54" s="44"/>
       <c r="AO54" s="1"/>
       <c r="AP54" s="1"/>
@@ -25543,48 +25964,48 @@
     <row r="55" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="108">
-        <f t="shared" si="2"/>
+      <c r="C55" s="67">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D55" s="170"/>
-      <c r="E55" s="170"/>
-      <c r="F55" s="170"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="170"/>
-      <c r="J55" s="170"/>
-      <c r="K55" s="170"/>
-      <c r="L55" s="170"/>
-      <c r="M55" s="170"/>
-      <c r="N55" s="170"/>
-      <c r="O55" s="170"/>
-      <c r="P55" s="110">
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="49">
         <v>0</v>
       </c>
-      <c r="Q55" s="110"/>
-      <c r="R55" s="110"/>
-      <c r="S55" s="110"/>
-      <c r="T55" s="110"/>
-      <c r="U55" s="174"/>
-      <c r="V55" s="174"/>
-      <c r="W55" s="174"/>
-      <c r="X55" s="174"/>
-      <c r="Y55" s="174"/>
-      <c r="Z55" s="174"/>
-      <c r="AA55" s="174"/>
-      <c r="AB55" s="174"/>
-      <c r="AC55" s="174"/>
-      <c r="AD55" s="174"/>
-      <c r="AE55" s="174"/>
-      <c r="AF55" s="174"/>
-      <c r="AG55" s="174"/>
-      <c r="AH55" s="174"/>
-      <c r="AI55" s="174"/>
-      <c r="AJ55" s="174"/>
-      <c r="AK55" s="174"/>
-      <c r="AL55" s="174"/>
-      <c r="AM55" s="188"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="49"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="47"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
+      <c r="AC55" s="47"/>
+      <c r="AD55" s="47"/>
+      <c r="AE55" s="47"/>
+      <c r="AF55" s="47"/>
+      <c r="AG55" s="47"/>
+      <c r="AH55" s="47"/>
+      <c r="AI55" s="47"/>
+      <c r="AJ55" s="47"/>
+      <c r="AK55" s="47"/>
+      <c r="AL55" s="47"/>
+      <c r="AM55" s="57"/>
       <c r="AN55" s="44"/>
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
@@ -25592,48 +26013,48 @@
     <row r="56" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="13"/>
-      <c r="C56" s="108">
-        <f t="shared" si="2"/>
+      <c r="C56" s="67">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D56" s="170"/>
-      <c r="E56" s="170"/>
-      <c r="F56" s="170"/>
-      <c r="G56" s="170"/>
-      <c r="H56" s="170"/>
-      <c r="I56" s="170"/>
-      <c r="J56" s="170"/>
-      <c r="K56" s="170"/>
-      <c r="L56" s="170"/>
-      <c r="M56" s="170"/>
-      <c r="N56" s="170"/>
-      <c r="O56" s="170"/>
-      <c r="P56" s="110">
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="49">
         <v>0</v>
       </c>
-      <c r="Q56" s="110"/>
-      <c r="R56" s="110"/>
-      <c r="S56" s="110"/>
-      <c r="T56" s="110"/>
-      <c r="U56" s="174"/>
-      <c r="V56" s="174"/>
-      <c r="W56" s="174"/>
-      <c r="X56" s="174"/>
-      <c r="Y56" s="174"/>
-      <c r="Z56" s="174"/>
-      <c r="AA56" s="174"/>
-      <c r="AB56" s="174"/>
-      <c r="AC56" s="174"/>
-      <c r="AD56" s="174"/>
-      <c r="AE56" s="174"/>
-      <c r="AF56" s="174"/>
-      <c r="AG56" s="174"/>
-      <c r="AH56" s="174"/>
-      <c r="AI56" s="174"/>
-      <c r="AJ56" s="174"/>
-      <c r="AK56" s="174"/>
-      <c r="AL56" s="174"/>
-      <c r="AM56" s="188"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
+      <c r="AD56" s="47"/>
+      <c r="AE56" s="47"/>
+      <c r="AF56" s="47"/>
+      <c r="AG56" s="47"/>
+      <c r="AH56" s="47"/>
+      <c r="AI56" s="47"/>
+      <c r="AJ56" s="47"/>
+      <c r="AK56" s="47"/>
+      <c r="AL56" s="47"/>
+      <c r="AM56" s="57"/>
       <c r="AN56" s="44"/>
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
@@ -25641,48 +26062,48 @@
     <row r="57" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="108">
-        <f t="shared" si="2"/>
+      <c r="C57" s="67">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D57" s="170"/>
-      <c r="E57" s="170"/>
-      <c r="F57" s="170"/>
-      <c r="G57" s="170"/>
-      <c r="H57" s="170"/>
-      <c r="I57" s="170"/>
-      <c r="J57" s="170"/>
-      <c r="K57" s="170"/>
-      <c r="L57" s="170"/>
-      <c r="M57" s="170"/>
-      <c r="N57" s="170"/>
-      <c r="O57" s="170"/>
-      <c r="P57" s="110">
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="49">
         <v>0</v>
       </c>
-      <c r="Q57" s="110"/>
-      <c r="R57" s="110"/>
-      <c r="S57" s="110"/>
-      <c r="T57" s="110"/>
-      <c r="U57" s="174"/>
-      <c r="V57" s="174"/>
-      <c r="W57" s="174"/>
-      <c r="X57" s="174"/>
-      <c r="Y57" s="174"/>
-      <c r="Z57" s="174"/>
-      <c r="AA57" s="174"/>
-      <c r="AB57" s="174"/>
-      <c r="AC57" s="174"/>
-      <c r="AD57" s="174"/>
-      <c r="AE57" s="174"/>
-      <c r="AF57" s="174"/>
-      <c r="AG57" s="174"/>
-      <c r="AH57" s="174"/>
-      <c r="AI57" s="174"/>
-      <c r="AJ57" s="174"/>
-      <c r="AK57" s="174"/>
-      <c r="AL57" s="174"/>
-      <c r="AM57" s="188"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49"/>
+      <c r="S57" s="49"/>
+      <c r="T57" s="49"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="47"/>
+      <c r="Y57" s="47"/>
+      <c r="Z57" s="47"/>
+      <c r="AA57" s="47"/>
+      <c r="AB57" s="47"/>
+      <c r="AC57" s="47"/>
+      <c r="AD57" s="47"/>
+      <c r="AE57" s="47"/>
+      <c r="AF57" s="47"/>
+      <c r="AG57" s="47"/>
+      <c r="AH57" s="47"/>
+      <c r="AI57" s="47"/>
+      <c r="AJ57" s="47"/>
+      <c r="AK57" s="47"/>
+      <c r="AL57" s="47"/>
+      <c r="AM57" s="57"/>
       <c r="AN57" s="44"/>
       <c r="AO57" s="1"/>
       <c r="AP57" s="1"/>
@@ -25690,48 +26111,48 @@
     <row r="58" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="108">
-        <f t="shared" si="2"/>
+      <c r="C58" s="67">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D58" s="170"/>
-      <c r="E58" s="170"/>
-      <c r="F58" s="170"/>
-      <c r="G58" s="170"/>
-      <c r="H58" s="170"/>
-      <c r="I58" s="170"/>
-      <c r="J58" s="170"/>
-      <c r="K58" s="170"/>
-      <c r="L58" s="170"/>
-      <c r="M58" s="170"/>
-      <c r="N58" s="170"/>
-      <c r="O58" s="170"/>
-      <c r="P58" s="110">
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="49">
         <v>0</v>
       </c>
-      <c r="Q58" s="110"/>
-      <c r="R58" s="110"/>
-      <c r="S58" s="110"/>
-      <c r="T58" s="110"/>
-      <c r="U58" s="174"/>
-      <c r="V58" s="174"/>
-      <c r="W58" s="174"/>
-      <c r="X58" s="174"/>
-      <c r="Y58" s="174"/>
-      <c r="Z58" s="174"/>
-      <c r="AA58" s="174"/>
-      <c r="AB58" s="174"/>
-      <c r="AC58" s="174"/>
-      <c r="AD58" s="174"/>
-      <c r="AE58" s="174"/>
-      <c r="AF58" s="174"/>
-      <c r="AG58" s="174"/>
-      <c r="AH58" s="174"/>
-      <c r="AI58" s="174"/>
-      <c r="AJ58" s="174"/>
-      <c r="AK58" s="174"/>
-      <c r="AL58" s="174"/>
-      <c r="AM58" s="188"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="49"/>
+      <c r="T58" s="49"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="47"/>
+      <c r="Y58" s="47"/>
+      <c r="Z58" s="47"/>
+      <c r="AA58" s="47"/>
+      <c r="AB58" s="47"/>
+      <c r="AC58" s="47"/>
+      <c r="AD58" s="47"/>
+      <c r="AE58" s="47"/>
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="47"/>
+      <c r="AH58" s="47"/>
+      <c r="AI58" s="47"/>
+      <c r="AJ58" s="47"/>
+      <c r="AK58" s="47"/>
+      <c r="AL58" s="47"/>
+      <c r="AM58" s="57"/>
       <c r="AN58" s="44"/>
       <c r="AO58" s="1"/>
       <c r="AP58" s="1"/>
@@ -25739,48 +26160,48 @@
     <row r="59" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="108">
-        <f t="shared" si="2"/>
+      <c r="C59" s="67">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D59" s="170"/>
-      <c r="E59" s="170"/>
-      <c r="F59" s="170"/>
-      <c r="G59" s="170"/>
-      <c r="H59" s="170"/>
-      <c r="I59" s="170"/>
-      <c r="J59" s="170"/>
-      <c r="K59" s="170"/>
-      <c r="L59" s="170"/>
-      <c r="M59" s="170"/>
-      <c r="N59" s="170"/>
-      <c r="O59" s="170"/>
-      <c r="P59" s="110">
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="49">
         <v>0</v>
       </c>
-      <c r="Q59" s="110"/>
-      <c r="R59" s="110"/>
-      <c r="S59" s="110"/>
-      <c r="T59" s="110"/>
-      <c r="U59" s="174"/>
-      <c r="V59" s="174"/>
-      <c r="W59" s="174"/>
-      <c r="X59" s="174"/>
-      <c r="Y59" s="174"/>
-      <c r="Z59" s="174"/>
-      <c r="AA59" s="174"/>
-      <c r="AB59" s="174"/>
-      <c r="AC59" s="174"/>
-      <c r="AD59" s="174"/>
-      <c r="AE59" s="174"/>
-      <c r="AF59" s="174"/>
-      <c r="AG59" s="174"/>
-      <c r="AH59" s="174"/>
-      <c r="AI59" s="174"/>
-      <c r="AJ59" s="174"/>
-      <c r="AK59" s="174"/>
-      <c r="AL59" s="174"/>
-      <c r="AM59" s="188"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="47"/>
+      <c r="W59" s="47"/>
+      <c r="X59" s="47"/>
+      <c r="Y59" s="47"/>
+      <c r="Z59" s="47"/>
+      <c r="AA59" s="47"/>
+      <c r="AB59" s="47"/>
+      <c r="AC59" s="47"/>
+      <c r="AD59" s="47"/>
+      <c r="AE59" s="47"/>
+      <c r="AF59" s="47"/>
+      <c r="AG59" s="47"/>
+      <c r="AH59" s="47"/>
+      <c r="AI59" s="47"/>
+      <c r="AJ59" s="47"/>
+      <c r="AK59" s="47"/>
+      <c r="AL59" s="47"/>
+      <c r="AM59" s="57"/>
       <c r="AN59" s="44"/>
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
@@ -25788,48 +26209,48 @@
     <row r="60" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="108">
-        <f t="shared" si="2"/>
+      <c r="C60" s="67">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D60" s="170"/>
-      <c r="E60" s="170"/>
-      <c r="F60" s="170"/>
-      <c r="G60" s="170"/>
-      <c r="H60" s="170"/>
-      <c r="I60" s="170"/>
-      <c r="J60" s="170"/>
-      <c r="K60" s="170"/>
-      <c r="L60" s="170"/>
-      <c r="M60" s="170"/>
-      <c r="N60" s="170"/>
-      <c r="O60" s="170"/>
-      <c r="P60" s="110">
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="49">
         <v>0</v>
       </c>
-      <c r="Q60" s="110"/>
-      <c r="R60" s="110"/>
-      <c r="S60" s="110"/>
-      <c r="T60" s="110"/>
-      <c r="U60" s="174"/>
-      <c r="V60" s="174"/>
-      <c r="W60" s="174"/>
-      <c r="X60" s="174"/>
-      <c r="Y60" s="174"/>
-      <c r="Z60" s="174"/>
-      <c r="AA60" s="174"/>
-      <c r="AB60" s="174"/>
-      <c r="AC60" s="174"/>
-      <c r="AD60" s="174"/>
-      <c r="AE60" s="174"/>
-      <c r="AF60" s="174"/>
-      <c r="AG60" s="174"/>
-      <c r="AH60" s="174"/>
-      <c r="AI60" s="174"/>
-      <c r="AJ60" s="174"/>
-      <c r="AK60" s="174"/>
-      <c r="AL60" s="174"/>
-      <c r="AM60" s="188"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="49"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="47"/>
+      <c r="W60" s="47"/>
+      <c r="X60" s="47"/>
+      <c r="Y60" s="47"/>
+      <c r="Z60" s="47"/>
+      <c r="AA60" s="47"/>
+      <c r="AB60" s="47"/>
+      <c r="AC60" s="47"/>
+      <c r="AD60" s="47"/>
+      <c r="AE60" s="47"/>
+      <c r="AF60" s="47"/>
+      <c r="AG60" s="47"/>
+      <c r="AH60" s="47"/>
+      <c r="AI60" s="47"/>
+      <c r="AJ60" s="47"/>
+      <c r="AK60" s="47"/>
+      <c r="AL60" s="47"/>
+      <c r="AM60" s="57"/>
       <c r="AN60" s="44"/>
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
@@ -25837,48 +26258,48 @@
     <row r="61" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="13"/>
-      <c r="C61" s="176">
-        <f t="shared" si="2"/>
+      <c r="C61" s="69">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D61" s="177"/>
-      <c r="E61" s="177"/>
-      <c r="F61" s="177"/>
-      <c r="G61" s="177"/>
-      <c r="H61" s="177"/>
-      <c r="I61" s="177"/>
-      <c r="J61" s="177"/>
-      <c r="K61" s="177"/>
-      <c r="L61" s="177"/>
-      <c r="M61" s="177"/>
-      <c r="N61" s="177"/>
-      <c r="O61" s="177"/>
-      <c r="P61" s="110">
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="70"/>
+      <c r="P61" s="49">
         <v>0</v>
       </c>
-      <c r="Q61" s="110"/>
-      <c r="R61" s="110"/>
-      <c r="S61" s="110"/>
-      <c r="T61" s="110"/>
-      <c r="U61" s="180"/>
-      <c r="V61" s="180"/>
-      <c r="W61" s="180"/>
-      <c r="X61" s="180"/>
-      <c r="Y61" s="180"/>
-      <c r="Z61" s="180"/>
-      <c r="AA61" s="180"/>
-      <c r="AB61" s="180"/>
-      <c r="AC61" s="180"/>
-      <c r="AD61" s="180"/>
-      <c r="AE61" s="180"/>
-      <c r="AF61" s="180"/>
-      <c r="AG61" s="180"/>
-      <c r="AH61" s="180"/>
-      <c r="AI61" s="180"/>
-      <c r="AJ61" s="180"/>
-      <c r="AK61" s="180"/>
-      <c r="AL61" s="180"/>
-      <c r="AM61" s="189"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="58"/>
+      <c r="V61" s="58"/>
+      <c r="W61" s="58"/>
+      <c r="X61" s="58"/>
+      <c r="Y61" s="58"/>
+      <c r="Z61" s="58"/>
+      <c r="AA61" s="58"/>
+      <c r="AB61" s="58"/>
+      <c r="AC61" s="58"/>
+      <c r="AD61" s="58"/>
+      <c r="AE61" s="58"/>
+      <c r="AF61" s="58"/>
+      <c r="AG61" s="58"/>
+      <c r="AH61" s="58"/>
+      <c r="AI61" s="58"/>
+      <c r="AJ61" s="58"/>
+      <c r="AK61" s="58"/>
+      <c r="AL61" s="58"/>
+      <c r="AM61" s="59"/>
       <c r="AN61" s="44"/>
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
@@ -25886,29 +26307,29 @@
     <row r="62" spans="1:42" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="13"/>
-      <c r="C62" s="168" t="s">
+      <c r="C62" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169"/>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169"/>
-      <c r="J62" s="169"/>
-      <c r="K62" s="169"/>
-      <c r="L62" s="169"/>
-      <c r="M62" s="169"/>
-      <c r="N62" s="169"/>
-      <c r="O62" s="169"/>
-      <c r="P62" s="74">
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="50">
         <f>SUM(P63:P72)</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="74"/>
-      <c r="R62" s="74"/>
-      <c r="S62" s="74"/>
-      <c r="T62" s="74"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
       <c r="U62" s="45"/>
       <c r="V62" s="45"/>
       <c r="W62" s="45"/>
@@ -25935,48 +26356,48 @@
     <row r="63" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="178">
-        <f t="shared" ref="C63:C72" si="3">Q12</f>
+      <c r="C63" s="73">
+        <f t="shared" ref="C63:C72" si="6">Q12</f>
         <v>0</v>
       </c>
-      <c r="D63" s="179"/>
-      <c r="E63" s="179"/>
-      <c r="F63" s="179"/>
-      <c r="G63" s="179"/>
-      <c r="H63" s="179"/>
-      <c r="I63" s="179"/>
-      <c r="J63" s="179"/>
-      <c r="K63" s="179"/>
-      <c r="L63" s="179"/>
-      <c r="M63" s="179"/>
-      <c r="N63" s="179"/>
-      <c r="O63" s="179"/>
-      <c r="P63" s="116">
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="74"/>
+      <c r="O63" s="74"/>
+      <c r="P63" s="76">
         <v>0</v>
       </c>
-      <c r="Q63" s="116"/>
-      <c r="R63" s="116"/>
-      <c r="S63" s="116"/>
-      <c r="T63" s="116"/>
-      <c r="U63" s="190"/>
-      <c r="V63" s="190"/>
-      <c r="W63" s="190"/>
-      <c r="X63" s="190"/>
-      <c r="Y63" s="190"/>
-      <c r="Z63" s="190"/>
-      <c r="AA63" s="190"/>
-      <c r="AB63" s="190"/>
-      <c r="AC63" s="190"/>
-      <c r="AD63" s="190"/>
-      <c r="AE63" s="190"/>
-      <c r="AF63" s="190"/>
-      <c r="AG63" s="190"/>
-      <c r="AH63" s="190"/>
-      <c r="AI63" s="190"/>
-      <c r="AJ63" s="190"/>
-      <c r="AK63" s="190"/>
-      <c r="AL63" s="190"/>
-      <c r="AM63" s="191"/>
+      <c r="Q63" s="76"/>
+      <c r="R63" s="76"/>
+      <c r="S63" s="76"/>
+      <c r="T63" s="76"/>
+      <c r="U63" s="60"/>
+      <c r="V63" s="60"/>
+      <c r="W63" s="60"/>
+      <c r="X63" s="60"/>
+      <c r="Y63" s="60"/>
+      <c r="Z63" s="60"/>
+      <c r="AA63" s="60"/>
+      <c r="AB63" s="60"/>
+      <c r="AC63" s="60"/>
+      <c r="AD63" s="60"/>
+      <c r="AE63" s="60"/>
+      <c r="AF63" s="60"/>
+      <c r="AG63" s="60"/>
+      <c r="AH63" s="60"/>
+      <c r="AI63" s="60"/>
+      <c r="AJ63" s="60"/>
+      <c r="AK63" s="60"/>
+      <c r="AL63" s="60"/>
+      <c r="AM63" s="61"/>
       <c r="AN63" s="44"/>
       <c r="AO63" s="1"/>
       <c r="AP63" s="1"/>
@@ -25984,48 +26405,48 @@
     <row r="64" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="108">
-        <f t="shared" si="3"/>
+      <c r="C64" s="67">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D64" s="109"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="109"/>
-      <c r="H64" s="109"/>
-      <c r="I64" s="109"/>
-      <c r="J64" s="109"/>
-      <c r="K64" s="109"/>
-      <c r="L64" s="109"/>
-      <c r="M64" s="109"/>
-      <c r="N64" s="109"/>
-      <c r="O64" s="109"/>
-      <c r="P64" s="110">
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="75"/>
+      <c r="O64" s="75"/>
+      <c r="P64" s="49">
         <v>0</v>
       </c>
-      <c r="Q64" s="110"/>
-      <c r="R64" s="110"/>
-      <c r="S64" s="110"/>
-      <c r="T64" s="110"/>
-      <c r="U64" s="174"/>
-      <c r="V64" s="174"/>
-      <c r="W64" s="174"/>
-      <c r="X64" s="174"/>
-      <c r="Y64" s="174"/>
-      <c r="Z64" s="174"/>
-      <c r="AA64" s="174"/>
-      <c r="AB64" s="174"/>
-      <c r="AC64" s="174"/>
-      <c r="AD64" s="174"/>
-      <c r="AE64" s="174"/>
-      <c r="AF64" s="174"/>
-      <c r="AG64" s="174"/>
-      <c r="AH64" s="174"/>
-      <c r="AI64" s="174"/>
-      <c r="AJ64" s="174"/>
-      <c r="AK64" s="174"/>
-      <c r="AL64" s="174"/>
-      <c r="AM64" s="175"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+      <c r="T64" s="49"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
+      <c r="X64" s="47"/>
+      <c r="Y64" s="47"/>
+      <c r="Z64" s="47"/>
+      <c r="AA64" s="47"/>
+      <c r="AB64" s="47"/>
+      <c r="AC64" s="47"/>
+      <c r="AD64" s="47"/>
+      <c r="AE64" s="47"/>
+      <c r="AF64" s="47"/>
+      <c r="AG64" s="47"/>
+      <c r="AH64" s="47"/>
+      <c r="AI64" s="47"/>
+      <c r="AJ64" s="47"/>
+      <c r="AK64" s="47"/>
+      <c r="AL64" s="47"/>
+      <c r="AM64" s="48"/>
       <c r="AN64" s="44"/>
       <c r="AO64" s="1"/>
       <c r="AP64" s="1"/>
@@ -26033,48 +26454,48 @@
     <row r="65" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="13"/>
-      <c r="C65" s="108">
-        <f t="shared" si="3"/>
+      <c r="C65" s="67">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D65" s="109"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="109"/>
-      <c r="H65" s="109"/>
-      <c r="I65" s="109"/>
-      <c r="J65" s="109"/>
-      <c r="K65" s="109"/>
-      <c r="L65" s="109"/>
-      <c r="M65" s="109"/>
-      <c r="N65" s="109"/>
-      <c r="O65" s="109"/>
-      <c r="P65" s="110">
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="75"/>
+      <c r="N65" s="75"/>
+      <c r="O65" s="75"/>
+      <c r="P65" s="49">
         <v>0</v>
       </c>
-      <c r="Q65" s="110"/>
-      <c r="R65" s="110"/>
-      <c r="S65" s="110"/>
-      <c r="T65" s="110"/>
-      <c r="U65" s="174"/>
-      <c r="V65" s="174"/>
-      <c r="W65" s="174"/>
-      <c r="X65" s="174"/>
-      <c r="Y65" s="174"/>
-      <c r="Z65" s="174"/>
-      <c r="AA65" s="174"/>
-      <c r="AB65" s="174"/>
-      <c r="AC65" s="174"/>
-      <c r="AD65" s="174"/>
-      <c r="AE65" s="174"/>
-      <c r="AF65" s="174"/>
-      <c r="AG65" s="174"/>
-      <c r="AH65" s="174"/>
-      <c r="AI65" s="174"/>
-      <c r="AJ65" s="174"/>
-      <c r="AK65" s="174"/>
-      <c r="AL65" s="174"/>
-      <c r="AM65" s="175"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="49"/>
+      <c r="T65" s="49"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
+      <c r="X65" s="47"/>
+      <c r="Y65" s="47"/>
+      <c r="Z65" s="47"/>
+      <c r="AA65" s="47"/>
+      <c r="AB65" s="47"/>
+      <c r="AC65" s="47"/>
+      <c r="AD65" s="47"/>
+      <c r="AE65" s="47"/>
+      <c r="AF65" s="47"/>
+      <c r="AG65" s="47"/>
+      <c r="AH65" s="47"/>
+      <c r="AI65" s="47"/>
+      <c r="AJ65" s="47"/>
+      <c r="AK65" s="47"/>
+      <c r="AL65" s="47"/>
+      <c r="AM65" s="48"/>
       <c r="AN65" s="44"/>
       <c r="AO65" s="1"/>
       <c r="AP65" s="1"/>
@@ -26082,48 +26503,48 @@
     <row r="66" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="13"/>
-      <c r="C66" s="108">
-        <f t="shared" si="3"/>
+      <c r="C66" s="67">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D66" s="109"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="109"/>
-      <c r="I66" s="109"/>
-      <c r="J66" s="109"/>
-      <c r="K66" s="109"/>
-      <c r="L66" s="109"/>
-      <c r="M66" s="109"/>
-      <c r="N66" s="109"/>
-      <c r="O66" s="109"/>
-      <c r="P66" s="110">
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="75"/>
+      <c r="O66" s="75"/>
+      <c r="P66" s="49">
         <v>0</v>
       </c>
-      <c r="Q66" s="110"/>
-      <c r="R66" s="110"/>
-      <c r="S66" s="110"/>
-      <c r="T66" s="110"/>
-      <c r="U66" s="174"/>
-      <c r="V66" s="174"/>
-      <c r="W66" s="174"/>
-      <c r="X66" s="174"/>
-      <c r="Y66" s="174"/>
-      <c r="Z66" s="174"/>
-      <c r="AA66" s="174"/>
-      <c r="AB66" s="174"/>
-      <c r="AC66" s="174"/>
-      <c r="AD66" s="174"/>
-      <c r="AE66" s="174"/>
-      <c r="AF66" s="174"/>
-      <c r="AG66" s="174"/>
-      <c r="AH66" s="174"/>
-      <c r="AI66" s="174"/>
-      <c r="AJ66" s="174"/>
-      <c r="AK66" s="174"/>
-      <c r="AL66" s="174"/>
-      <c r="AM66" s="175"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
+      <c r="Y66" s="47"/>
+      <c r="Z66" s="47"/>
+      <c r="AA66" s="47"/>
+      <c r="AB66" s="47"/>
+      <c r="AC66" s="47"/>
+      <c r="AD66" s="47"/>
+      <c r="AE66" s="47"/>
+      <c r="AF66" s="47"/>
+      <c r="AG66" s="47"/>
+      <c r="AH66" s="47"/>
+      <c r="AI66" s="47"/>
+      <c r="AJ66" s="47"/>
+      <c r="AK66" s="47"/>
+      <c r="AL66" s="47"/>
+      <c r="AM66" s="48"/>
       <c r="AN66" s="44"/>
       <c r="AO66" s="1"/>
       <c r="AP66" s="1"/>
@@ -26131,48 +26552,48 @@
     <row r="67" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="13"/>
-      <c r="C67" s="108">
-        <f t="shared" si="3"/>
+      <c r="C67" s="67">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D67" s="109"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="109"/>
-      <c r="G67" s="109"/>
-      <c r="H67" s="109"/>
-      <c r="I67" s="109"/>
-      <c r="J67" s="109"/>
-      <c r="K67" s="109"/>
-      <c r="L67" s="109"/>
-      <c r="M67" s="109"/>
-      <c r="N67" s="109"/>
-      <c r="O67" s="109"/>
-      <c r="P67" s="110">
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="75"/>
+      <c r="O67" s="75"/>
+      <c r="P67" s="49">
         <v>0</v>
       </c>
-      <c r="Q67" s="110"/>
-      <c r="R67" s="110"/>
-      <c r="S67" s="110"/>
-      <c r="T67" s="110"/>
-      <c r="U67" s="174"/>
-      <c r="V67" s="174"/>
-      <c r="W67" s="174"/>
-      <c r="X67" s="174"/>
-      <c r="Y67" s="174"/>
-      <c r="Z67" s="174"/>
-      <c r="AA67" s="174"/>
-      <c r="AB67" s="174"/>
-      <c r="AC67" s="174"/>
-      <c r="AD67" s="174"/>
-      <c r="AE67" s="174"/>
-      <c r="AF67" s="174"/>
-      <c r="AG67" s="174"/>
-      <c r="AH67" s="174"/>
-      <c r="AI67" s="174"/>
-      <c r="AJ67" s="174"/>
-      <c r="AK67" s="174"/>
-      <c r="AL67" s="174"/>
-      <c r="AM67" s="175"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
+      <c r="T67" s="49"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="47"/>
+      <c r="Y67" s="47"/>
+      <c r="Z67" s="47"/>
+      <c r="AA67" s="47"/>
+      <c r="AB67" s="47"/>
+      <c r="AC67" s="47"/>
+      <c r="AD67" s="47"/>
+      <c r="AE67" s="47"/>
+      <c r="AF67" s="47"/>
+      <c r="AG67" s="47"/>
+      <c r="AH67" s="47"/>
+      <c r="AI67" s="47"/>
+      <c r="AJ67" s="47"/>
+      <c r="AK67" s="47"/>
+      <c r="AL67" s="47"/>
+      <c r="AM67" s="48"/>
       <c r="AN67" s="44"/>
       <c r="AO67" s="1"/>
       <c r="AP67" s="1"/>
@@ -26180,48 +26601,48 @@
     <row r="68" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="13"/>
-      <c r="C68" s="108">
-        <f t="shared" si="3"/>
+      <c r="C68" s="67">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D68" s="109"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="109"/>
-      <c r="G68" s="109"/>
-      <c r="H68" s="109"/>
-      <c r="I68" s="109"/>
-      <c r="J68" s="109"/>
-      <c r="K68" s="109"/>
-      <c r="L68" s="109"/>
-      <c r="M68" s="109"/>
-      <c r="N68" s="109"/>
-      <c r="O68" s="109"/>
-      <c r="P68" s="110">
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="75"/>
+      <c r="O68" s="75"/>
+      <c r="P68" s="49">
         <v>0</v>
       </c>
-      <c r="Q68" s="110"/>
-      <c r="R68" s="110"/>
-      <c r="S68" s="110"/>
-      <c r="T68" s="110"/>
-      <c r="U68" s="174"/>
-      <c r="V68" s="174"/>
-      <c r="W68" s="174"/>
-      <c r="X68" s="174"/>
-      <c r="Y68" s="174"/>
-      <c r="Z68" s="174"/>
-      <c r="AA68" s="174"/>
-      <c r="AB68" s="174"/>
-      <c r="AC68" s="174"/>
-      <c r="AD68" s="174"/>
-      <c r="AE68" s="174"/>
-      <c r="AF68" s="174"/>
-      <c r="AG68" s="174"/>
-      <c r="AH68" s="174"/>
-      <c r="AI68" s="174"/>
-      <c r="AJ68" s="174"/>
-      <c r="AK68" s="174"/>
-      <c r="AL68" s="174"/>
-      <c r="AM68" s="175"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="49"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="47"/>
+      <c r="X68" s="47"/>
+      <c r="Y68" s="47"/>
+      <c r="Z68" s="47"/>
+      <c r="AA68" s="47"/>
+      <c r="AB68" s="47"/>
+      <c r="AC68" s="47"/>
+      <c r="AD68" s="47"/>
+      <c r="AE68" s="47"/>
+      <c r="AF68" s="47"/>
+      <c r="AG68" s="47"/>
+      <c r="AH68" s="47"/>
+      <c r="AI68" s="47"/>
+      <c r="AJ68" s="47"/>
+      <c r="AK68" s="47"/>
+      <c r="AL68" s="47"/>
+      <c r="AM68" s="48"/>
       <c r="AN68" s="44"/>
       <c r="AO68" s="1"/>
       <c r="AP68" s="1"/>
@@ -26229,48 +26650,48 @@
     <row r="69" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="108">
-        <f t="shared" si="3"/>
+      <c r="C69" s="67">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
-      <c r="G69" s="109"/>
-      <c r="H69" s="109"/>
-      <c r="I69" s="109"/>
-      <c r="J69" s="109"/>
-      <c r="K69" s="109"/>
-      <c r="L69" s="109"/>
-      <c r="M69" s="109"/>
-      <c r="N69" s="109"/>
-      <c r="O69" s="109"/>
-      <c r="P69" s="110">
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="75"/>
+      <c r="O69" s="75"/>
+      <c r="P69" s="49">
         <v>0</v>
       </c>
-      <c r="Q69" s="110"/>
-      <c r="R69" s="110"/>
-      <c r="S69" s="110"/>
-      <c r="T69" s="110"/>
-      <c r="U69" s="174"/>
-      <c r="V69" s="174"/>
-      <c r="W69" s="174"/>
-      <c r="X69" s="174"/>
-      <c r="Y69" s="174"/>
-      <c r="Z69" s="174"/>
-      <c r="AA69" s="174"/>
-      <c r="AB69" s="174"/>
-      <c r="AC69" s="174"/>
-      <c r="AD69" s="174"/>
-      <c r="AE69" s="174"/>
-      <c r="AF69" s="174"/>
-      <c r="AG69" s="174"/>
-      <c r="AH69" s="174"/>
-      <c r="AI69" s="174"/>
-      <c r="AJ69" s="174"/>
-      <c r="AK69" s="174"/>
-      <c r="AL69" s="174"/>
-      <c r="AM69" s="175"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="47"/>
+      <c r="X69" s="47"/>
+      <c r="Y69" s="47"/>
+      <c r="Z69" s="47"/>
+      <c r="AA69" s="47"/>
+      <c r="AB69" s="47"/>
+      <c r="AC69" s="47"/>
+      <c r="AD69" s="47"/>
+      <c r="AE69" s="47"/>
+      <c r="AF69" s="47"/>
+      <c r="AG69" s="47"/>
+      <c r="AH69" s="47"/>
+      <c r="AI69" s="47"/>
+      <c r="AJ69" s="47"/>
+      <c r="AK69" s="47"/>
+      <c r="AL69" s="47"/>
+      <c r="AM69" s="48"/>
       <c r="AN69" s="44"/>
       <c r="AO69" s="1"/>
       <c r="AP69" s="1"/>
@@ -26278,48 +26699,48 @@
     <row r="70" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="108">
-        <f t="shared" si="3"/>
+      <c r="C70" s="67">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="109"/>
-      <c r="G70" s="109"/>
-      <c r="H70" s="109"/>
-      <c r="I70" s="109"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="109"/>
-      <c r="L70" s="109"/>
-      <c r="M70" s="109"/>
-      <c r="N70" s="109"/>
-      <c r="O70" s="109"/>
-      <c r="P70" s="110">
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="75"/>
+      <c r="K70" s="75"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="75"/>
+      <c r="N70" s="75"/>
+      <c r="O70" s="75"/>
+      <c r="P70" s="49">
         <v>0</v>
       </c>
-      <c r="Q70" s="110"/>
-      <c r="R70" s="110"/>
-      <c r="S70" s="110"/>
-      <c r="T70" s="110"/>
-      <c r="U70" s="174"/>
-      <c r="V70" s="174"/>
-      <c r="W70" s="174"/>
-      <c r="X70" s="174"/>
-      <c r="Y70" s="174"/>
-      <c r="Z70" s="174"/>
-      <c r="AA70" s="174"/>
-      <c r="AB70" s="174"/>
-      <c r="AC70" s="174"/>
-      <c r="AD70" s="174"/>
-      <c r="AE70" s="174"/>
-      <c r="AF70" s="174"/>
-      <c r="AG70" s="174"/>
-      <c r="AH70" s="174"/>
-      <c r="AI70" s="174"/>
-      <c r="AJ70" s="174"/>
-      <c r="AK70" s="174"/>
-      <c r="AL70" s="174"/>
-      <c r="AM70" s="175"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="47"/>
+      <c r="X70" s="47"/>
+      <c r="Y70" s="47"/>
+      <c r="Z70" s="47"/>
+      <c r="AA70" s="47"/>
+      <c r="AB70" s="47"/>
+      <c r="AC70" s="47"/>
+      <c r="AD70" s="47"/>
+      <c r="AE70" s="47"/>
+      <c r="AF70" s="47"/>
+      <c r="AG70" s="47"/>
+      <c r="AH70" s="47"/>
+      <c r="AI70" s="47"/>
+      <c r="AJ70" s="47"/>
+      <c r="AK70" s="47"/>
+      <c r="AL70" s="47"/>
+      <c r="AM70" s="48"/>
       <c r="AN70" s="44"/>
       <c r="AO70" s="1"/>
       <c r="AP70" s="1"/>
@@ -26327,48 +26748,48 @@
     <row r="71" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="108">
-        <f t="shared" si="3"/>
+      <c r="C71" s="67">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D71" s="109"/>
-      <c r="E71" s="109"/>
-      <c r="F71" s="109"/>
-      <c r="G71" s="109"/>
-      <c r="H71" s="109"/>
-      <c r="I71" s="109"/>
-      <c r="J71" s="109"/>
-      <c r="K71" s="109"/>
-      <c r="L71" s="109"/>
-      <c r="M71" s="109"/>
-      <c r="N71" s="109"/>
-      <c r="O71" s="109"/>
-      <c r="P71" s="110">
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="75"/>
+      <c r="K71" s="75"/>
+      <c r="L71" s="75"/>
+      <c r="M71" s="75"/>
+      <c r="N71" s="75"/>
+      <c r="O71" s="75"/>
+      <c r="P71" s="49">
         <v>0</v>
       </c>
-      <c r="Q71" s="110"/>
-      <c r="R71" s="110"/>
-      <c r="S71" s="110"/>
-      <c r="T71" s="110"/>
-      <c r="U71" s="174"/>
-      <c r="V71" s="174"/>
-      <c r="W71" s="174"/>
-      <c r="X71" s="174"/>
-      <c r="Y71" s="174"/>
-      <c r="Z71" s="174"/>
-      <c r="AA71" s="174"/>
-      <c r="AB71" s="174"/>
-      <c r="AC71" s="174"/>
-      <c r="AD71" s="174"/>
-      <c r="AE71" s="174"/>
-      <c r="AF71" s="174"/>
-      <c r="AG71" s="174"/>
-      <c r="AH71" s="174"/>
-      <c r="AI71" s="174"/>
-      <c r="AJ71" s="174"/>
-      <c r="AK71" s="174"/>
-      <c r="AL71" s="174"/>
-      <c r="AM71" s="175"/>
+      <c r="Q71" s="49"/>
+      <c r="R71" s="49"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="49"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="47"/>
+      <c r="W71" s="47"/>
+      <c r="X71" s="47"/>
+      <c r="Y71" s="47"/>
+      <c r="Z71" s="47"/>
+      <c r="AA71" s="47"/>
+      <c r="AB71" s="47"/>
+      <c r="AC71" s="47"/>
+      <c r="AD71" s="47"/>
+      <c r="AE71" s="47"/>
+      <c r="AF71" s="47"/>
+      <c r="AG71" s="47"/>
+      <c r="AH71" s="47"/>
+      <c r="AI71" s="47"/>
+      <c r="AJ71" s="47"/>
+      <c r="AK71" s="47"/>
+      <c r="AL71" s="47"/>
+      <c r="AM71" s="48"/>
       <c r="AN71" s="44"/>
       <c r="AO71" s="1"/>
       <c r="AP71" s="1"/>
@@ -26376,48 +26797,48 @@
     <row r="72" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="13"/>
-      <c r="C72" s="114">
-        <f t="shared" si="3"/>
+      <c r="C72" s="146">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D72" s="115"/>
-      <c r="E72" s="115"/>
-      <c r="F72" s="115"/>
-      <c r="G72" s="115"/>
-      <c r="H72" s="115"/>
-      <c r="I72" s="115"/>
-      <c r="J72" s="115"/>
-      <c r="K72" s="115"/>
-      <c r="L72" s="115"/>
-      <c r="M72" s="115"/>
-      <c r="N72" s="115"/>
-      <c r="O72" s="115"/>
-      <c r="P72" s="110">
+      <c r="D72" s="147"/>
+      <c r="E72" s="147"/>
+      <c r="F72" s="147"/>
+      <c r="G72" s="147"/>
+      <c r="H72" s="147"/>
+      <c r="I72" s="147"/>
+      <c r="J72" s="147"/>
+      <c r="K72" s="147"/>
+      <c r="L72" s="147"/>
+      <c r="M72" s="147"/>
+      <c r="N72" s="147"/>
+      <c r="O72" s="147"/>
+      <c r="P72" s="49">
         <v>0</v>
       </c>
-      <c r="Q72" s="110"/>
-      <c r="R72" s="110"/>
-      <c r="S72" s="110"/>
-      <c r="T72" s="110"/>
-      <c r="U72" s="180"/>
-      <c r="V72" s="180"/>
-      <c r="W72" s="180"/>
-      <c r="X72" s="180"/>
-      <c r="Y72" s="180"/>
-      <c r="Z72" s="180"/>
-      <c r="AA72" s="180"/>
-      <c r="AB72" s="180"/>
-      <c r="AC72" s="180"/>
-      <c r="AD72" s="180"/>
-      <c r="AE72" s="180"/>
-      <c r="AF72" s="180"/>
-      <c r="AG72" s="180"/>
-      <c r="AH72" s="180"/>
-      <c r="AI72" s="180"/>
-      <c r="AJ72" s="180"/>
-      <c r="AK72" s="180"/>
-      <c r="AL72" s="180"/>
-      <c r="AM72" s="181"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="49"/>
+      <c r="U72" s="58"/>
+      <c r="V72" s="58"/>
+      <c r="W72" s="58"/>
+      <c r="X72" s="58"/>
+      <c r="Y72" s="58"/>
+      <c r="Z72" s="58"/>
+      <c r="AA72" s="58"/>
+      <c r="AB72" s="58"/>
+      <c r="AC72" s="58"/>
+      <c r="AD72" s="58"/>
+      <c r="AE72" s="58"/>
+      <c r="AF72" s="58"/>
+      <c r="AG72" s="58"/>
+      <c r="AH72" s="58"/>
+      <c r="AI72" s="58"/>
+      <c r="AJ72" s="58"/>
+      <c r="AK72" s="58"/>
+      <c r="AL72" s="58"/>
+      <c r="AM72" s="77"/>
       <c r="AN72" s="44"/>
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
@@ -26425,29 +26846,29 @@
     <row r="73" spans="1:42" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="13"/>
-      <c r="C73" s="168" t="s">
+      <c r="C73" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="169"/>
-      <c r="E73" s="169"/>
-      <c r="F73" s="169"/>
-      <c r="G73" s="169"/>
-      <c r="H73" s="169"/>
-      <c r="I73" s="169"/>
-      <c r="J73" s="169"/>
-      <c r="K73" s="169"/>
-      <c r="L73" s="169"/>
-      <c r="M73" s="169"/>
-      <c r="N73" s="169"/>
-      <c r="O73" s="169"/>
-      <c r="P73" s="74">
-        <f>SUM(P74:P79)</f>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="50">
+        <f>SUM(P74:P81)</f>
         <v>0</v>
       </c>
-      <c r="Q73" s="74"/>
-      <c r="R73" s="74"/>
-      <c r="S73" s="74"/>
-      <c r="T73" s="74"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="50"/>
+      <c r="S73" s="50"/>
+      <c r="T73" s="50"/>
       <c r="U73" s="45"/>
       <c r="V73" s="45"/>
       <c r="W73" s="45"/>
@@ -26474,48 +26895,48 @@
     <row r="74" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="13"/>
-      <c r="C74" s="117">
-        <f t="shared" ref="C74:C79" si="4">AD12</f>
+      <c r="C74" s="93">
+        <f t="shared" ref="C74" si="7">AD12</f>
         <v>0</v>
       </c>
-      <c r="D74" s="118"/>
-      <c r="E74" s="118"/>
-      <c r="F74" s="118"/>
-      <c r="G74" s="118"/>
-      <c r="H74" s="118"/>
-      <c r="I74" s="118"/>
-      <c r="J74" s="118"/>
-      <c r="K74" s="118"/>
-      <c r="L74" s="118"/>
-      <c r="M74" s="118"/>
-      <c r="N74" s="118"/>
-      <c r="O74" s="118"/>
-      <c r="P74" s="116">
+      <c r="D74" s="94"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="94"/>
+      <c r="K74" s="94"/>
+      <c r="L74" s="94"/>
+      <c r="M74" s="94"/>
+      <c r="N74" s="94"/>
+      <c r="O74" s="94"/>
+      <c r="P74" s="76">
         <v>0</v>
       </c>
-      <c r="Q74" s="116"/>
-      <c r="R74" s="116"/>
-      <c r="S74" s="116"/>
-      <c r="T74" s="116"/>
-      <c r="U74" s="172"/>
-      <c r="V74" s="172"/>
-      <c r="W74" s="172"/>
-      <c r="X74" s="172"/>
-      <c r="Y74" s="172"/>
-      <c r="Z74" s="172"/>
-      <c r="AA74" s="172"/>
-      <c r="AB74" s="172"/>
-      <c r="AC74" s="172"/>
-      <c r="AD74" s="172"/>
-      <c r="AE74" s="172"/>
-      <c r="AF74" s="172"/>
-      <c r="AG74" s="172"/>
-      <c r="AH74" s="172"/>
-      <c r="AI74" s="172"/>
-      <c r="AJ74" s="172"/>
-      <c r="AK74" s="172"/>
-      <c r="AL74" s="172"/>
-      <c r="AM74" s="173"/>
+      <c r="Q74" s="76"/>
+      <c r="R74" s="76"/>
+      <c r="S74" s="76"/>
+      <c r="T74" s="76"/>
+      <c r="U74" s="65"/>
+      <c r="V74" s="65"/>
+      <c r="W74" s="65"/>
+      <c r="X74" s="65"/>
+      <c r="Y74" s="65"/>
+      <c r="Z74" s="65"/>
+      <c r="AA74" s="65"/>
+      <c r="AB74" s="65"/>
+      <c r="AC74" s="65"/>
+      <c r="AD74" s="65"/>
+      <c r="AE74" s="65"/>
+      <c r="AF74" s="65"/>
+      <c r="AG74" s="65"/>
+      <c r="AH74" s="65"/>
+      <c r="AI74" s="65"/>
+      <c r="AJ74" s="65"/>
+      <c r="AK74" s="65"/>
+      <c r="AL74" s="65"/>
+      <c r="AM74" s="66"/>
       <c r="AN74" s="44"/>
       <c r="AO74" s="1"/>
       <c r="AP74" s="1"/>
@@ -26523,48 +26944,48 @@
     <row r="75" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="13"/>
-      <c r="C75" s="108">
-        <f t="shared" si="4"/>
+      <c r="C75" s="67">
+        <f>AD13</f>
         <v>0</v>
       </c>
-      <c r="D75" s="109"/>
-      <c r="E75" s="109"/>
-      <c r="F75" s="109"/>
-      <c r="G75" s="109"/>
-      <c r="H75" s="109"/>
-      <c r="I75" s="109"/>
-      <c r="J75" s="109"/>
-      <c r="K75" s="109"/>
-      <c r="L75" s="109"/>
-      <c r="M75" s="109"/>
-      <c r="N75" s="109"/>
-      <c r="O75" s="109"/>
-      <c r="P75" s="110">
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="75"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="75"/>
+      <c r="M75" s="75"/>
+      <c r="N75" s="75"/>
+      <c r="O75" s="75"/>
+      <c r="P75" s="49">
         <v>0</v>
       </c>
-      <c r="Q75" s="110"/>
-      <c r="R75" s="110"/>
-      <c r="S75" s="110"/>
-      <c r="T75" s="110"/>
-      <c r="U75" s="174"/>
-      <c r="V75" s="174"/>
-      <c r="W75" s="174"/>
-      <c r="X75" s="174"/>
-      <c r="Y75" s="174"/>
-      <c r="Z75" s="174"/>
-      <c r="AA75" s="174"/>
-      <c r="AB75" s="174"/>
-      <c r="AC75" s="174"/>
-      <c r="AD75" s="174"/>
-      <c r="AE75" s="174"/>
-      <c r="AF75" s="174"/>
-      <c r="AG75" s="174"/>
-      <c r="AH75" s="174"/>
-      <c r="AI75" s="174"/>
-      <c r="AJ75" s="174"/>
-      <c r="AK75" s="174"/>
-      <c r="AL75" s="174"/>
-      <c r="AM75" s="175"/>
+      <c r="Q75" s="49"/>
+      <c r="R75" s="49"/>
+      <c r="S75" s="49"/>
+      <c r="T75" s="49"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="47"/>
+      <c r="W75" s="47"/>
+      <c r="X75" s="47"/>
+      <c r="Y75" s="47"/>
+      <c r="Z75" s="47"/>
+      <c r="AA75" s="47"/>
+      <c r="AB75" s="47"/>
+      <c r="AC75" s="47"/>
+      <c r="AD75" s="47"/>
+      <c r="AE75" s="47"/>
+      <c r="AF75" s="47"/>
+      <c r="AG75" s="47"/>
+      <c r="AH75" s="47"/>
+      <c r="AI75" s="47"/>
+      <c r="AJ75" s="47"/>
+      <c r="AK75" s="47"/>
+      <c r="AL75" s="47"/>
+      <c r="AM75" s="48"/>
       <c r="AN75" s="44"/>
       <c r="AO75" s="1"/>
       <c r="AP75" s="1"/>
@@ -26572,48 +26993,48 @@
     <row r="76" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="13"/>
-      <c r="C76" s="108">
-        <f t="shared" si="4"/>
+      <c r="C76" s="67">
+        <f t="shared" ref="C76:C79" si="8">AD14</f>
         <v>0</v>
       </c>
-      <c r="D76" s="109"/>
-      <c r="E76" s="109"/>
-      <c r="F76" s="109"/>
-      <c r="G76" s="109"/>
-      <c r="H76" s="109"/>
-      <c r="I76" s="109"/>
-      <c r="J76" s="109"/>
-      <c r="K76" s="109"/>
-      <c r="L76" s="109"/>
-      <c r="M76" s="109"/>
-      <c r="N76" s="109"/>
-      <c r="O76" s="109"/>
-      <c r="P76" s="110">
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="75"/>
+      <c r="N76" s="75"/>
+      <c r="O76" s="75"/>
+      <c r="P76" s="49">
         <v>0</v>
       </c>
-      <c r="Q76" s="110"/>
-      <c r="R76" s="110"/>
-      <c r="S76" s="110"/>
-      <c r="T76" s="110"/>
-      <c r="U76" s="174"/>
-      <c r="V76" s="174"/>
-      <c r="W76" s="174"/>
-      <c r="X76" s="174"/>
-      <c r="Y76" s="174"/>
-      <c r="Z76" s="174"/>
-      <c r="AA76" s="174"/>
-      <c r="AB76" s="174"/>
-      <c r="AC76" s="174"/>
-      <c r="AD76" s="174"/>
-      <c r="AE76" s="174"/>
-      <c r="AF76" s="174"/>
-      <c r="AG76" s="174"/>
-      <c r="AH76" s="174"/>
-      <c r="AI76" s="174"/>
-      <c r="AJ76" s="174"/>
-      <c r="AK76" s="174"/>
-      <c r="AL76" s="174"/>
-      <c r="AM76" s="175"/>
+      <c r="Q76" s="49"/>
+      <c r="R76" s="49"/>
+      <c r="S76" s="49"/>
+      <c r="T76" s="49"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="47"/>
+      <c r="W76" s="47"/>
+      <c r="X76" s="47"/>
+      <c r="Y76" s="47"/>
+      <c r="Z76" s="47"/>
+      <c r="AA76" s="47"/>
+      <c r="AB76" s="47"/>
+      <c r="AC76" s="47"/>
+      <c r="AD76" s="47"/>
+      <c r="AE76" s="47"/>
+      <c r="AF76" s="47"/>
+      <c r="AG76" s="47"/>
+      <c r="AH76" s="47"/>
+      <c r="AI76" s="47"/>
+      <c r="AJ76" s="47"/>
+      <c r="AK76" s="47"/>
+      <c r="AL76" s="47"/>
+      <c r="AM76" s="48"/>
       <c r="AN76" s="44"/>
       <c r="AO76" s="1"/>
       <c r="AP76" s="1"/>
@@ -26621,48 +27042,48 @@
     <row r="77" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="13"/>
-      <c r="C77" s="108">
-        <f t="shared" si="4"/>
+      <c r="C77" s="67">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D77" s="109"/>
-      <c r="E77" s="109"/>
-      <c r="F77" s="109"/>
-      <c r="G77" s="109"/>
-      <c r="H77" s="109"/>
-      <c r="I77" s="109"/>
-      <c r="J77" s="109"/>
-      <c r="K77" s="109"/>
-      <c r="L77" s="109"/>
-      <c r="M77" s="109"/>
-      <c r="N77" s="109"/>
-      <c r="O77" s="109"/>
-      <c r="P77" s="110">
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="75"/>
+      <c r="N77" s="75"/>
+      <c r="O77" s="75"/>
+      <c r="P77" s="49">
         <v>0</v>
       </c>
-      <c r="Q77" s="110"/>
-      <c r="R77" s="110"/>
-      <c r="S77" s="110"/>
-      <c r="T77" s="110"/>
-      <c r="U77" s="174"/>
-      <c r="V77" s="174"/>
-      <c r="W77" s="174"/>
-      <c r="X77" s="174"/>
-      <c r="Y77" s="174"/>
-      <c r="Z77" s="174"/>
-      <c r="AA77" s="174"/>
-      <c r="AB77" s="174"/>
-      <c r="AC77" s="174"/>
-      <c r="AD77" s="174"/>
-      <c r="AE77" s="174"/>
-      <c r="AF77" s="174"/>
-      <c r="AG77" s="174"/>
-      <c r="AH77" s="174"/>
-      <c r="AI77" s="174"/>
-      <c r="AJ77" s="174"/>
-      <c r="AK77" s="174"/>
-      <c r="AL77" s="174"/>
-      <c r="AM77" s="175"/>
+      <c r="Q77" s="49"/>
+      <c r="R77" s="49"/>
+      <c r="S77" s="49"/>
+      <c r="T77" s="49"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="47"/>
+      <c r="W77" s="47"/>
+      <c r="X77" s="47"/>
+      <c r="Y77" s="47"/>
+      <c r="Z77" s="47"/>
+      <c r="AA77" s="47"/>
+      <c r="AB77" s="47"/>
+      <c r="AC77" s="47"/>
+      <c r="AD77" s="47"/>
+      <c r="AE77" s="47"/>
+      <c r="AF77" s="47"/>
+      <c r="AG77" s="47"/>
+      <c r="AH77" s="47"/>
+      <c r="AI77" s="47"/>
+      <c r="AJ77" s="47"/>
+      <c r="AK77" s="47"/>
+      <c r="AL77" s="47"/>
+      <c r="AM77" s="48"/>
       <c r="AN77" s="44"/>
       <c r="AO77" s="1"/>
       <c r="AP77" s="1"/>
@@ -26670,151 +27091,235 @@
     <row r="78" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="13"/>
-      <c r="C78" s="108">
-        <f t="shared" si="4"/>
+      <c r="C78" s="67">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D78" s="109"/>
-      <c r="E78" s="109"/>
-      <c r="F78" s="109"/>
-      <c r="G78" s="109"/>
-      <c r="H78" s="109"/>
-      <c r="I78" s="109"/>
-      <c r="J78" s="109"/>
-      <c r="K78" s="109"/>
-      <c r="L78" s="109"/>
-      <c r="M78" s="109"/>
-      <c r="N78" s="109"/>
-      <c r="O78" s="109"/>
-      <c r="P78" s="110">
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="75"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="75"/>
+      <c r="N78" s="75"/>
+      <c r="O78" s="75"/>
+      <c r="P78" s="49">
         <v>0</v>
       </c>
-      <c r="Q78" s="110"/>
-      <c r="R78" s="110"/>
-      <c r="S78" s="110"/>
-      <c r="T78" s="110"/>
-      <c r="U78" s="174"/>
-      <c r="V78" s="174"/>
-      <c r="W78" s="174"/>
-      <c r="X78" s="174"/>
-      <c r="Y78" s="174"/>
-      <c r="Z78" s="174"/>
-      <c r="AA78" s="174"/>
-      <c r="AB78" s="174"/>
-      <c r="AC78" s="174"/>
-      <c r="AD78" s="174"/>
-      <c r="AE78" s="174"/>
-      <c r="AF78" s="174"/>
-      <c r="AG78" s="174"/>
-      <c r="AH78" s="174"/>
-      <c r="AI78" s="174"/>
-      <c r="AJ78" s="174"/>
-      <c r="AK78" s="174"/>
-      <c r="AL78" s="174"/>
-      <c r="AM78" s="175"/>
+      <c r="Q78" s="49"/>
+      <c r="R78" s="49"/>
+      <c r="S78" s="49"/>
+      <c r="T78" s="49"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="47"/>
+      <c r="W78" s="47"/>
+      <c r="X78" s="47"/>
+      <c r="Y78" s="47"/>
+      <c r="Z78" s="47"/>
+      <c r="AA78" s="47"/>
+      <c r="AB78" s="47"/>
+      <c r="AC78" s="47"/>
+      <c r="AD78" s="47"/>
+      <c r="AE78" s="47"/>
+      <c r="AF78" s="47"/>
+      <c r="AG78" s="47"/>
+      <c r="AH78" s="47"/>
+      <c r="AI78" s="47"/>
+      <c r="AJ78" s="47"/>
+      <c r="AK78" s="47"/>
+      <c r="AL78" s="47"/>
+      <c r="AM78" s="48"/>
       <c r="AN78" s="44"/>
       <c r="AO78" s="1"/>
       <c r="AP78" s="1"/>
     </row>
-    <row r="79" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="111">
-        <f t="shared" si="4"/>
+      <c r="C79" s="67">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D79" s="112"/>
-      <c r="E79" s="112"/>
-      <c r="F79" s="112"/>
-      <c r="G79" s="112"/>
-      <c r="H79" s="112"/>
-      <c r="I79" s="112"/>
-      <c r="J79" s="112"/>
-      <c r="K79" s="112"/>
-      <c r="L79" s="112"/>
-      <c r="M79" s="112"/>
-      <c r="N79" s="112"/>
-      <c r="O79" s="112"/>
-      <c r="P79" s="113">
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="75"/>
+      <c r="N79" s="75"/>
+      <c r="O79" s="75"/>
+      <c r="P79" s="49">
         <v>0</v>
       </c>
-      <c r="Q79" s="113"/>
-      <c r="R79" s="113"/>
-      <c r="S79" s="113"/>
-      <c r="T79" s="113"/>
-      <c r="U79" s="182"/>
-      <c r="V79" s="182"/>
-      <c r="W79" s="182"/>
-      <c r="X79" s="182"/>
-      <c r="Y79" s="182"/>
-      <c r="Z79" s="182"/>
-      <c r="AA79" s="182"/>
-      <c r="AB79" s="182"/>
-      <c r="AC79" s="182"/>
-      <c r="AD79" s="182"/>
-      <c r="AE79" s="182"/>
-      <c r="AF79" s="182"/>
-      <c r="AG79" s="182"/>
-      <c r="AH79" s="182"/>
-      <c r="AI79" s="182"/>
-      <c r="AJ79" s="182"/>
-      <c r="AK79" s="182"/>
-      <c r="AL79" s="182"/>
-      <c r="AM79" s="183"/>
+      <c r="Q79" s="49"/>
+      <c r="R79" s="49"/>
+      <c r="S79" s="49"/>
+      <c r="T79" s="49"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
+      <c r="X79" s="47"/>
+      <c r="Y79" s="47"/>
+      <c r="Z79" s="47"/>
+      <c r="AA79" s="47"/>
+      <c r="AB79" s="47"/>
+      <c r="AC79" s="47"/>
+      <c r="AD79" s="47"/>
+      <c r="AE79" s="47"/>
+      <c r="AF79" s="47"/>
+      <c r="AG79" s="47"/>
+      <c r="AH79" s="47"/>
+      <c r="AI79" s="47"/>
+      <c r="AJ79" s="47"/>
+      <c r="AK79" s="47"/>
+      <c r="AL79" s="47"/>
+      <c r="AM79" s="48"/>
       <c r="AN79" s="44"/>
       <c r="AO79" s="1"/>
       <c r="AP79" s="1"/>
     </row>
-    <row r="80" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="13"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="13"/>
-      <c r="U80" s="13"/>
-      <c r="V80" s="13"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="13"/>
-      <c r="Y80" s="13"/>
-      <c r="Z80" s="13"/>
-      <c r="AA80" s="13"/>
-      <c r="AB80" s="13"/>
-      <c r="AC80" s="13"/>
-      <c r="AD80" s="13"/>
-      <c r="AE80" s="13"/>
-      <c r="AF80" s="13"/>
-      <c r="AG80" s="13"/>
-      <c r="AH80" s="13"/>
-      <c r="AI80" s="13"/>
-      <c r="AJ80" s="13"/>
-      <c r="AK80" s="13"/>
-      <c r="AL80" s="13"/>
-      <c r="AM80" s="13"/>
+      <c r="C80" s="67">
+        <f>AD18</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="75"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="75"/>
+      <c r="J80" s="75"/>
+      <c r="K80" s="75"/>
+      <c r="L80" s="75"/>
+      <c r="M80" s="75"/>
+      <c r="N80" s="75"/>
+      <c r="O80" s="75"/>
+      <c r="P80" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="49"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="49"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="47"/>
+      <c r="W80" s="47"/>
+      <c r="X80" s="47"/>
+      <c r="Y80" s="47"/>
+      <c r="Z80" s="47"/>
+      <c r="AA80" s="47"/>
+      <c r="AB80" s="47"/>
+      <c r="AC80" s="47"/>
+      <c r="AD80" s="47"/>
+      <c r="AE80" s="47"/>
+      <c r="AF80" s="47"/>
+      <c r="AG80" s="47"/>
+      <c r="AH80" s="47"/>
+      <c r="AI80" s="47"/>
+      <c r="AJ80" s="47"/>
+      <c r="AK80" s="47"/>
+      <c r="AL80" s="47"/>
+      <c r="AM80" s="48"/>
       <c r="AN80" s="13"/>
       <c r="AO80"/>
     </row>
-    <row r="81" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81"/>
+      <c r="C81" s="143">
+        <f>AD19</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="144"/>
+      <c r="E81" s="144"/>
+      <c r="F81" s="144"/>
+      <c r="G81" s="144"/>
+      <c r="H81" s="144"/>
+      <c r="I81" s="144"/>
+      <c r="J81" s="144"/>
+      <c r="K81" s="144"/>
+      <c r="L81" s="144"/>
+      <c r="M81" s="144"/>
+      <c r="N81" s="144"/>
+      <c r="O81" s="144"/>
+      <c r="P81" s="145">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="145"/>
+      <c r="R81" s="145"/>
+      <c r="S81" s="145"/>
+      <c r="T81" s="145"/>
+      <c r="U81" s="51"/>
+      <c r="V81" s="51"/>
+      <c r="W81" s="51"/>
+      <c r="X81" s="51"/>
+      <c r="Y81" s="51"/>
+      <c r="Z81" s="51"/>
+      <c r="AA81" s="51"/>
+      <c r="AB81" s="51"/>
+      <c r="AC81" s="51"/>
+      <c r="AD81" s="51"/>
+      <c r="AE81" s="51"/>
+      <c r="AF81" s="51"/>
+      <c r="AG81" s="51"/>
+      <c r="AH81" s="51"/>
+      <c r="AI81" s="51"/>
+      <c r="AJ81" s="51"/>
+      <c r="AK81" s="51"/>
+      <c r="AL81" s="51"/>
+      <c r="AM81" s="52"/>
       <c r="AN81"/>
       <c r="AO81"/>
     </row>
-    <row r="82" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:41" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B82"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="13"/>
+      <c r="X82" s="13"/>
+      <c r="Y82" s="13"/>
+      <c r="Z82" s="13"/>
+      <c r="AA82" s="13"/>
+      <c r="AB82" s="13"/>
+      <c r="AC82" s="13"/>
+      <c r="AD82" s="13"/>
+      <c r="AE82" s="13"/>
+      <c r="AF82" s="13"/>
+      <c r="AG82" s="13"/>
+      <c r="AH82" s="13"/>
+      <c r="AI82" s="13"/>
+      <c r="AJ82" s="13"/>
+      <c r="AK82" s="13"/>
+      <c r="AL82" s="13"/>
+      <c r="AM82" s="13"/>
       <c r="AN82"/>
       <c r="AO82"/>
     </row>
@@ -26825,10 +27330,201 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="206">
+  <mergeCells count="212">
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="F2:S6"/>
+    <mergeCell ref="AD15:AM15"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="P11:Z11"/>
+    <mergeCell ref="AC11:AM11"/>
+    <mergeCell ref="O9:AA9"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="C78:O78"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:S33"/>
+    <mergeCell ref="T33:Z34"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="C77:O77"/>
+    <mergeCell ref="P77:T77"/>
     <mergeCell ref="U77:AM77"/>
+    <mergeCell ref="C66:O66"/>
+    <mergeCell ref="O37:AA37"/>
+    <mergeCell ref="T42:Z42"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="C50:O50"/>
+    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="O45:S45"/>
+    <mergeCell ref="AD21:AM21"/>
+    <mergeCell ref="C79:O79"/>
+    <mergeCell ref="C80:O80"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="C81:O81"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="C69:O69"/>
+    <mergeCell ref="C70:O70"/>
+    <mergeCell ref="C71:O71"/>
+    <mergeCell ref="C65:O65"/>
+    <mergeCell ref="C72:O72"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="C75:O75"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="C74:O74"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="Q17:Z17"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="AD17:AM17"/>
+    <mergeCell ref="AD18:AM18"/>
+    <mergeCell ref="O24:AA24"/>
+    <mergeCell ref="T26:Z26"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="T27:Z28"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="Q19:Z19"/>
+    <mergeCell ref="AD19:AM19"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="Q20:Z20"/>
+    <mergeCell ref="AD20:AM20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="T39:Z39"/>
+    <mergeCell ref="T40:Z41"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="T29:Z29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="AD12:AM12"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="Q13:Z13"/>
+    <mergeCell ref="AD13:AM13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="Q14:Z14"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="Q15:Z15"/>
+    <mergeCell ref="AD14:AM14"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="Q16:Z16"/>
+    <mergeCell ref="AD16:AM16"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="T30:Z31"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="T32:Z32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="C67:O67"/>
+    <mergeCell ref="O44:S44"/>
+    <mergeCell ref="C55:O55"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="C56:O56"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="C58:O58"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="J46:N46"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="C57:O57"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="C54:O54"/>
+    <mergeCell ref="O46:S46"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="T45:Z45"/>
+    <mergeCell ref="T46:Z47"/>
+    <mergeCell ref="C51:O51"/>
+    <mergeCell ref="C52:O52"/>
+    <mergeCell ref="C53:O53"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="T43:Z44"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="U74:AM74"/>
+    <mergeCell ref="U75:AM75"/>
+    <mergeCell ref="U76:AM76"/>
+    <mergeCell ref="C60:O60"/>
+    <mergeCell ref="C61:O61"/>
+    <mergeCell ref="C62:O62"/>
+    <mergeCell ref="C63:O63"/>
+    <mergeCell ref="C64:O64"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="C59:O59"/>
+    <mergeCell ref="U70:AM70"/>
+    <mergeCell ref="U71:AM71"/>
+    <mergeCell ref="U72:AM72"/>
+    <mergeCell ref="C73:O73"/>
+    <mergeCell ref="C76:O76"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="C68:O68"/>
+    <mergeCell ref="P68:T68"/>
     <mergeCell ref="U78:AM78"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P62:T62"/>
     <mergeCell ref="U79:AM79"/>
+    <mergeCell ref="U80:AM80"/>
+    <mergeCell ref="U81:AM81"/>
     <mergeCell ref="V51:AM51"/>
     <mergeCell ref="U52:AM52"/>
     <mergeCell ref="U53:AM53"/>
@@ -26847,191 +27543,6 @@
     <mergeCell ref="U67:AM67"/>
     <mergeCell ref="U68:AM68"/>
     <mergeCell ref="U69:AM69"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="U74:AM74"/>
-    <mergeCell ref="U75:AM75"/>
-    <mergeCell ref="U76:AM76"/>
-    <mergeCell ref="C60:O60"/>
-    <mergeCell ref="C61:O61"/>
-    <mergeCell ref="C62:O62"/>
-    <mergeCell ref="C63:O63"/>
-    <mergeCell ref="C64:O64"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="C57:O57"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="C59:O59"/>
-    <mergeCell ref="U70:AM70"/>
-    <mergeCell ref="U71:AM71"/>
-    <mergeCell ref="U72:AM72"/>
-    <mergeCell ref="C73:O73"/>
-    <mergeCell ref="C76:O76"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="O43:S43"/>
-    <mergeCell ref="O44:S44"/>
-    <mergeCell ref="O46:S46"/>
-    <mergeCell ref="O47:S47"/>
-    <mergeCell ref="T45:Z45"/>
-    <mergeCell ref="T46:Z47"/>
-    <mergeCell ref="C51:O51"/>
-    <mergeCell ref="C52:O52"/>
-    <mergeCell ref="C53:O53"/>
-    <mergeCell ref="C54:O54"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="J45:N45"/>
-    <mergeCell ref="C55:O55"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="C56:O56"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="C58:O58"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="J46:N46"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="C68:O68"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="C50:O50"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="J43:N43"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="C47:I47"/>
-    <mergeCell ref="O45:S45"/>
-    <mergeCell ref="T43:Z44"/>
-    <mergeCell ref="O40:S40"/>
-    <mergeCell ref="C67:O67"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="AD12:AM12"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="Q13:Z13"/>
-    <mergeCell ref="AD13:AM13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="Q14:Z14"/>
-    <mergeCell ref="AD14:AM14"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="Q15:Z15"/>
-    <mergeCell ref="AD15:AM15"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="Q16:Z16"/>
-    <mergeCell ref="AD16:AM16"/>
-    <mergeCell ref="T39:Z39"/>
-    <mergeCell ref="T40:Z41"/>
-    <mergeCell ref="T42:Z42"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="T27:Z28"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O42:S42"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="P11:Z11"/>
-    <mergeCell ref="AC11:AM11"/>
-    <mergeCell ref="O9:AA9"/>
-    <mergeCell ref="O37:AA37"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="Q19:Z19"/>
-    <mergeCell ref="AD19:AM19"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="Q20:Z20"/>
-    <mergeCell ref="AD20:AM20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="Q21:Z21"/>
-    <mergeCell ref="AD21:AM21"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="Q17:Z17"/>
-    <mergeCell ref="Q18:Z18"/>
-    <mergeCell ref="AD17:AM17"/>
-    <mergeCell ref="AD18:AM18"/>
-    <mergeCell ref="O24:AA24"/>
-    <mergeCell ref="T26:Z26"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="C77:O77"/>
-    <mergeCell ref="C78:O78"/>
-    <mergeCell ref="P78:T78"/>
-    <mergeCell ref="C79:O79"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="C69:O69"/>
-    <mergeCell ref="C70:O70"/>
-    <mergeCell ref="C71:O71"/>
-    <mergeCell ref="C65:O65"/>
-    <mergeCell ref="C72:O72"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="C75:O75"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="C74:O74"/>
-    <mergeCell ref="C66:O66"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="F2:S6"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="T32:Z32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:S33"/>
-    <mergeCell ref="T33:Z34"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:S34"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:S29"/>
-    <mergeCell ref="T29:Z29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="T30:Z31"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="AH4:AN4"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="C12:C21">
@@ -27070,7 +27581,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C74 D75:O75 D76:O76 C77:O77" unlockedFormula="1"/>
+    <ignoredError sqref="C74 D75:O75" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -27078,11 +27589,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00A28D5-8236-4B0A-9609-0BBBA11271D5}">
-  <dimension ref="A1:AP32"/>
+  <dimension ref="A1:AP36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25:T25"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -27143,47 +27652,47 @@
       <c r="C2" s="36"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
       <c r="T2" s="23"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="62" t="s">
+      <c r="X2" s="166"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="172"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="157"/>
+      <c r="AL2" s="157"/>
+      <c r="AM2" s="157"/>
+      <c r="AN2" s="158"/>
       <c r="AO2"/>
     </row>
     <row r="3" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27191,45 +27700,45 @@
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
       <c r="V3" s="23"/>
-      <c r="W3" s="58" t="s">
+      <c r="W3" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="64" t="s">
+      <c r="X3" s="168"/>
+      <c r="Y3" s="156"/>
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="208"/>
-      <c r="AI3" s="209"/>
-      <c r="AJ3" s="209"/>
-      <c r="AK3" s="209"/>
-      <c r="AL3" s="209"/>
-      <c r="AM3" s="209"/>
-      <c r="AN3" s="210"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="200"/>
+      <c r="AJ3" s="200"/>
+      <c r="AK3" s="200"/>
+      <c r="AL3" s="200"/>
+      <c r="AM3" s="200"/>
+      <c r="AN3" s="201"/>
       <c r="AO3"/>
     </row>
     <row r="4" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27237,45 +27746,45 @@
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
       <c r="V4" s="23"/>
-      <c r="W4" s="56" t="s">
+      <c r="W4" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="208"/>
-      <c r="Z4" s="209"/>
-      <c r="AA4" s="209"/>
-      <c r="AB4" s="209"/>
-      <c r="AC4" s="209"/>
-      <c r="AD4" s="209"/>
-      <c r="AE4" s="210"/>
-      <c r="AF4" s="62" t="s">
+      <c r="X4" s="166"/>
+      <c r="Y4" s="199"/>
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200"/>
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="201"/>
+      <c r="AF4" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="49"/>
+      <c r="AG4" s="172"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="157"/>
+      <c r="AL4" s="157"/>
+      <c r="AM4" s="157"/>
+      <c r="AN4" s="158"/>
       <c r="AO4"/>
     </row>
     <row r="5" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27283,45 +27792,45 @@
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="23"/>
-      <c r="W5" s="60" t="s">
+      <c r="W5" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="66" t="s">
+      <c r="X5" s="170"/>
+      <c r="Y5" s="156"/>
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="157"/>
+      <c r="AB5" s="157"/>
+      <c r="AC5" s="157"/>
+      <c r="AD5" s="157"/>
+      <c r="AE5" s="158"/>
+      <c r="AF5" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="208"/>
-      <c r="AI5" s="209"/>
-      <c r="AJ5" s="209"/>
-      <c r="AK5" s="209"/>
-      <c r="AL5" s="209"/>
-      <c r="AM5" s="209"/>
-      <c r="AN5" s="210"/>
+      <c r="AG5" s="176"/>
+      <c r="AH5" s="199"/>
+      <c r="AI5" s="200"/>
+      <c r="AJ5" s="200"/>
+      <c r="AK5" s="200"/>
+      <c r="AL5" s="200"/>
+      <c r="AM5" s="200"/>
+      <c r="AN5" s="201"/>
       <c r="AO5"/>
     </row>
     <row r="6" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -27329,20 +27838,20 @@
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
       <c r="V6" s="23"/>
@@ -27507,21 +28016,21 @@
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
-      <c r="O10" s="128" t="s">
+      <c r="O10" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="136"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="136"/>
+      <c r="W10" s="136"/>
+      <c r="X10" s="136"/>
+      <c r="Y10" s="136"/>
+      <c r="Z10" s="136"/>
+      <c r="AA10" s="136"/>
       <c r="AB10" s="41"/>
       <c r="AC10" s="41"/>
       <c r="AD10" s="41"/>
@@ -27582,36 +28091,36 @@
     </row>
     <row r="12" spans="1:42" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="106" t="s">
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106" t="s">
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="139"/>
-      <c r="W12" s="139"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="139"/>
-      <c r="Z12" s="140"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="138"/>
+      <c r="X12" s="138"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="139"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
@@ -27630,39 +28139,39 @@
     </row>
     <row r="13" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="154">
+      <c r="C13" s="123">
         <f>C25</f>
         <v>0</v>
       </c>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="159" t="e">
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="133" t="e">
         <f>O13/$T$16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
-      <c r="O13" s="163">
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="134">
         <f>P25</f>
         <v>0</v>
       </c>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="163"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="205"/>
-      <c r="U13" s="206"/>
-      <c r="V13" s="206"/>
-      <c r="W13" s="206"/>
-      <c r="X13" s="206"/>
-      <c r="Y13" s="206"/>
-      <c r="Z13" s="207"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="202"/>
+      <c r="U13" s="203"/>
+      <c r="V13" s="203"/>
+      <c r="W13" s="203"/>
+      <c r="X13" s="203"/>
+      <c r="Y13" s="203"/>
+      <c r="Z13" s="204"/>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
@@ -27681,39 +28190,39 @@
     </row>
     <row r="14" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
-      <c r="C14" s="76">
-        <f>C26</f>
+      <c r="C14" s="205">
+        <f t="shared" ref="C14:C16" si="0">C26</f>
         <v>0</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78" t="e">
+      <c r="D14" s="206"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="96" t="e">
         <f>O14/$T$16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="79">
-        <f>P26</f>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="207">
+        <f t="shared" ref="O14:O16" si="1">P26</f>
         <v>0</v>
       </c>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="205"/>
-      <c r="U14" s="206"/>
-      <c r="V14" s="206"/>
-      <c r="W14" s="206"/>
-      <c r="X14" s="206"/>
-      <c r="Y14" s="206"/>
-      <c r="Z14" s="207"/>
+      <c r="P14" s="207"/>
+      <c r="Q14" s="207"/>
+      <c r="R14" s="207"/>
+      <c r="S14" s="208"/>
+      <c r="T14" s="202"/>
+      <c r="U14" s="203"/>
+      <c r="V14" s="203"/>
+      <c r="W14" s="203"/>
+      <c r="X14" s="203"/>
+      <c r="Y14" s="203"/>
+      <c r="Z14" s="204"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
@@ -27732,42 +28241,42 @@
     </row>
     <row r="15" spans="1:42" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
-      <c r="C15" s="156">
-        <f>C27</f>
+      <c r="C15" s="123">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="86" t="e">
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="80" t="e">
         <f>O15/$T$16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="87">
-        <f>P27</f>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="134">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="141" t="str">
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="84" t="str">
         <f>O10</f>
         <v>Available Finances</v>
       </c>
-      <c r="U15" s="142"/>
-      <c r="V15" s="142"/>
-      <c r="W15" s="142"/>
-      <c r="X15" s="142"/>
-      <c r="Y15" s="142"/>
-      <c r="Z15" s="143"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="86"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
@@ -27786,42 +28295,42 @@
     </row>
     <row r="16" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="76">
-        <f>C28</f>
+      <c r="C16" s="205">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78" t="e">
+      <c r="D16" s="206"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="206"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="96" t="e">
         <f>O16/$T$16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="79">
-        <f>P28</f>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="207">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="160">
+      <c r="P16" s="207"/>
+      <c r="Q16" s="207"/>
+      <c r="R16" s="207"/>
+      <c r="S16" s="208"/>
+      <c r="T16" s="62">
         <f>P24</f>
         <v>0</v>
       </c>
-      <c r="U16" s="161"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="161"/>
-      <c r="X16" s="161"/>
-      <c r="Y16" s="161"/>
-      <c r="Z16" s="162"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="64"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
@@ -27840,30 +28349,30 @@
     </row>
     <row r="17" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="105"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="114"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="11"/>
@@ -27882,30 +28391,30 @@
     </row>
     <row r="18" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="83"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="121"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
@@ -27924,30 +28433,30 @@
     </row>
     <row r="19" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="192"/>
-      <c r="U19" s="193"/>
-      <c r="V19" s="193"/>
-      <c r="W19" s="193"/>
-      <c r="X19" s="193"/>
-      <c r="Y19" s="193"/>
-      <c r="Z19" s="194"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="209"/>
+      <c r="U19" s="210"/>
+      <c r="V19" s="210"/>
+      <c r="W19" s="210"/>
+      <c r="X19" s="210"/>
+      <c r="Y19" s="210"/>
+      <c r="Z19" s="211"/>
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
@@ -27966,30 +28475,30 @@
     </row>
     <row r="20" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="195"/>
-      <c r="U20" s="196"/>
-      <c r="V20" s="196"/>
-      <c r="W20" s="196"/>
-      <c r="X20" s="196"/>
-      <c r="Y20" s="196"/>
-      <c r="Z20" s="197"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="212"/>
+      <c r="U20" s="213"/>
+      <c r="V20" s="213"/>
+      <c r="W20" s="213"/>
+      <c r="X20" s="213"/>
+      <c r="Y20" s="213"/>
+      <c r="Z20" s="214"/>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
@@ -28093,28 +28602,28 @@
     <row r="23" spans="1:42" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="157" t="s">
+      <c r="C23" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="171" t="s">
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q23" s="171"/>
-      <c r="R23" s="171"/>
-      <c r="S23" s="171"/>
-      <c r="T23" s="171"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
       <c r="U23" s="31" t="s">
         <v>6</v>
       </c>
@@ -28143,29 +28652,29 @@
     <row r="24" spans="1:42" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="168" t="s">
+      <c r="C24" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="169"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="169"/>
-      <c r="P24" s="74">
-        <f>SUM(P25:P28)</f>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="50">
+        <f>SUM(P25:P32)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
       <c r="U24" s="33"/>
       <c r="V24" s="33"/>
       <c r="W24" s="33"/>
@@ -28192,45 +28701,45 @@
     <row r="25" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="116">
+      <c r="C25" s="198"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="76">
         <v>0</v>
       </c>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="116"/>
-      <c r="T25" s="116"/>
-      <c r="U25" s="198"/>
-      <c r="V25" s="198"/>
-      <c r="W25" s="198"/>
-      <c r="X25" s="198"/>
-      <c r="Y25" s="198"/>
-      <c r="Z25" s="198"/>
-      <c r="AA25" s="198"/>
-      <c r="AB25" s="198"/>
-      <c r="AC25" s="198"/>
-      <c r="AD25" s="198"/>
-      <c r="AE25" s="198"/>
-      <c r="AF25" s="198"/>
-      <c r="AG25" s="198"/>
-      <c r="AH25" s="198"/>
-      <c r="AI25" s="198"/>
-      <c r="AJ25" s="198"/>
-      <c r="AK25" s="198"/>
-      <c r="AL25" s="198"/>
-      <c r="AM25" s="199"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="215"/>
+      <c r="V25" s="215"/>
+      <c r="W25" s="215"/>
+      <c r="X25" s="215"/>
+      <c r="Y25" s="215"/>
+      <c r="Z25" s="215"/>
+      <c r="AA25" s="215"/>
+      <c r="AB25" s="215"/>
+      <c r="AC25" s="215"/>
+      <c r="AD25" s="215"/>
+      <c r="AE25" s="215"/>
+      <c r="AF25" s="215"/>
+      <c r="AG25" s="215"/>
+      <c r="AH25" s="215"/>
+      <c r="AI25" s="215"/>
+      <c r="AJ25" s="215"/>
+      <c r="AK25" s="215"/>
+      <c r="AL25" s="215"/>
+      <c r="AM25" s="216"/>
       <c r="AN25" s="44"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
@@ -28238,45 +28747,45 @@
     <row r="26" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="110">
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="49">
         <v>0</v>
       </c>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="200"/>
-      <c r="V26" s="200"/>
-      <c r="W26" s="200"/>
-      <c r="X26" s="200"/>
-      <c r="Y26" s="200"/>
-      <c r="Z26" s="200"/>
-      <c r="AA26" s="200"/>
-      <c r="AB26" s="200"/>
-      <c r="AC26" s="200"/>
-      <c r="AD26" s="200"/>
-      <c r="AE26" s="200"/>
-      <c r="AF26" s="200"/>
-      <c r="AG26" s="200"/>
-      <c r="AH26" s="200"/>
-      <c r="AI26" s="200"/>
-      <c r="AJ26" s="200"/>
-      <c r="AK26" s="200"/>
-      <c r="AL26" s="200"/>
-      <c r="AM26" s="201"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="192"/>
+      <c r="V26" s="192"/>
+      <c r="W26" s="192"/>
+      <c r="X26" s="192"/>
+      <c r="Y26" s="192"/>
+      <c r="Z26" s="192"/>
+      <c r="AA26" s="192"/>
+      <c r="AB26" s="192"/>
+      <c r="AC26" s="192"/>
+      <c r="AD26" s="192"/>
+      <c r="AE26" s="192"/>
+      <c r="AF26" s="192"/>
+      <c r="AG26" s="192"/>
+      <c r="AH26" s="192"/>
+      <c r="AI26" s="192"/>
+      <c r="AJ26" s="192"/>
+      <c r="AK26" s="192"/>
+      <c r="AL26" s="192"/>
+      <c r="AM26" s="193"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
@@ -28284,212 +28793,337 @@
     <row r="27" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="110">
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="49">
         <v>0</v>
       </c>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="202"/>
-      <c r="V27" s="202"/>
-      <c r="W27" s="202"/>
-      <c r="X27" s="202"/>
-      <c r="Y27" s="202"/>
-      <c r="Z27" s="202"/>
-      <c r="AA27" s="202"/>
-      <c r="AB27" s="202"/>
-      <c r="AC27" s="202"/>
-      <c r="AD27" s="202"/>
-      <c r="AE27" s="202"/>
-      <c r="AF27" s="202"/>
-      <c r="AG27" s="202"/>
-      <c r="AH27" s="202"/>
-      <c r="AI27" s="202"/>
-      <c r="AJ27" s="202"/>
-      <c r="AK27" s="202"/>
-      <c r="AL27" s="202"/>
-      <c r="AM27" s="203"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="194"/>
+      <c r="V27" s="194"/>
+      <c r="W27" s="194"/>
+      <c r="X27" s="194"/>
+      <c r="Y27" s="194"/>
+      <c r="Z27" s="194"/>
+      <c r="AA27" s="194"/>
+      <c r="AB27" s="194"/>
+      <c r="AC27" s="194"/>
+      <c r="AD27" s="194"/>
+      <c r="AE27" s="194"/>
+      <c r="AF27" s="194"/>
+      <c r="AG27" s="194"/>
+      <c r="AH27" s="194"/>
+      <c r="AI27" s="194"/>
+      <c r="AJ27" s="194"/>
+      <c r="AK27" s="194"/>
+      <c r="AL27" s="194"/>
+      <c r="AM27" s="195"/>
       <c r="AN27" s="44"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
     </row>
-    <row r="28" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="113">
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="49">
         <v>0</v>
       </c>
-      <c r="Q28" s="113"/>
-      <c r="R28" s="113"/>
-      <c r="S28" s="113"/>
-      <c r="T28" s="113"/>
-      <c r="U28" s="211"/>
-      <c r="V28" s="211"/>
-      <c r="W28" s="211"/>
-      <c r="X28" s="211"/>
-      <c r="Y28" s="211"/>
-      <c r="Z28" s="211"/>
-      <c r="AA28" s="211"/>
-      <c r="AB28" s="211"/>
-      <c r="AC28" s="211"/>
-      <c r="AD28" s="211"/>
-      <c r="AE28" s="211"/>
-      <c r="AF28" s="211"/>
-      <c r="AG28" s="211"/>
-      <c r="AH28" s="211"/>
-      <c r="AI28" s="211"/>
-      <c r="AJ28" s="211"/>
-      <c r="AK28" s="211"/>
-      <c r="AL28" s="211"/>
-      <c r="AM28" s="212"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="192"/>
+      <c r="V28" s="192"/>
+      <c r="W28" s="192"/>
+      <c r="X28" s="192"/>
+      <c r="Y28" s="192"/>
+      <c r="Z28" s="192"/>
+      <c r="AA28" s="192"/>
+      <c r="AB28" s="192"/>
+      <c r="AC28" s="192"/>
+      <c r="AD28" s="192"/>
+      <c r="AE28" s="192"/>
+      <c r="AF28" s="192"/>
+      <c r="AG28" s="192"/>
+      <c r="AH28" s="192"/>
+      <c r="AI28" s="192"/>
+      <c r="AJ28" s="192"/>
+      <c r="AK28" s="192"/>
+      <c r="AL28" s="192"/>
+      <c r="AM28" s="193"/>
       <c r="AN28" s="44"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
     </row>
-    <row r="29" spans="1:42" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="194"/>
+      <c r="V29" s="194"/>
+      <c r="W29" s="194"/>
+      <c r="X29" s="194"/>
+      <c r="Y29" s="194"/>
+      <c r="Z29" s="194"/>
+      <c r="AA29" s="194"/>
+      <c r="AB29" s="194"/>
+      <c r="AC29" s="194"/>
+      <c r="AD29" s="194"/>
+      <c r="AE29" s="194"/>
+      <c r="AF29" s="194"/>
+      <c r="AG29" s="194"/>
+      <c r="AH29" s="194"/>
+      <c r="AI29" s="194"/>
+      <c r="AJ29" s="194"/>
+      <c r="AK29" s="194"/>
+      <c r="AL29" s="194"/>
+      <c r="AM29" s="195"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
     </row>
-    <row r="30" spans="1:42" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30"/>
-      <c r="C30" s="7"/>
-      <c r="AN30"/>
-      <c r="AO30"/>
+    <row r="30" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="192"/>
+      <c r="V30" s="192"/>
+      <c r="W30" s="192"/>
+      <c r="X30" s="192"/>
+      <c r="Y30" s="192"/>
+      <c r="Z30" s="192"/>
+      <c r="AA30" s="192"/>
+      <c r="AB30" s="192"/>
+      <c r="AC30" s="192"/>
+      <c r="AD30" s="192"/>
+      <c r="AE30" s="192"/>
+      <c r="AF30" s="192"/>
+      <c r="AG30" s="192"/>
+      <c r="AH30" s="192"/>
+      <c r="AI30" s="192"/>
+      <c r="AJ30" s="192"/>
+      <c r="AK30" s="192"/>
+      <c r="AL30" s="192"/>
+      <c r="AM30" s="193"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
     </row>
-    <row r="31" spans="1:42" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31"/>
-      <c r="C31" s="7"/>
-      <c r="AN31"/>
-      <c r="AO31"/>
+    <row r="31" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="194"/>
+      <c r="V31" s="194"/>
+      <c r="W31" s="194"/>
+      <c r="X31" s="194"/>
+      <c r="Y31" s="194"/>
+      <c r="Z31" s="194"/>
+      <c r="AA31" s="194"/>
+      <c r="AB31" s="194"/>
+      <c r="AC31" s="194"/>
+      <c r="AD31" s="194"/>
+      <c r="AE31" s="194"/>
+      <c r="AF31" s="194"/>
+      <c r="AG31" s="194"/>
+      <c r="AH31" s="194"/>
+      <c r="AI31" s="194"/>
+      <c r="AJ31" s="194"/>
+      <c r="AK31" s="194"/>
+      <c r="AL31" s="194"/>
+      <c r="AM31" s="195"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
     </row>
-    <row r="32" spans="1:42" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32"/>
-      <c r="C32" s="7"/>
-      <c r="AN32"/>
-      <c r="AO32"/>
+    <row r="32" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="145"/>
+      <c r="R32" s="145"/>
+      <c r="S32" s="145"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="196"/>
+      <c r="V32" s="196"/>
+      <c r="W32" s="196"/>
+      <c r="X32" s="196"/>
+      <c r="Y32" s="196"/>
+      <c r="Z32" s="196"/>
+      <c r="AA32" s="196"/>
+      <c r="AB32" s="196"/>
+      <c r="AC32" s="196"/>
+      <c r="AD32" s="196"/>
+      <c r="AE32" s="196"/>
+      <c r="AF32" s="196"/>
+      <c r="AG32" s="196"/>
+      <c r="AH32" s="196"/>
+      <c r="AI32" s="196"/>
+      <c r="AJ32" s="196"/>
+      <c r="AK32" s="196"/>
+      <c r="AL32" s="196"/>
+      <c r="AM32" s="197"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+    </row>
+    <row r="33" spans="1:41" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33"/>
+    </row>
+    <row r="34" spans="1:41" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+      <c r="C34" s="7"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+    </row>
+    <row r="35" spans="1:41" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+      <c r="C35" s="7"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+    </row>
+    <row r="36" spans="1:41" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36"/>
+      <c r="C36" s="7"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="67">
-    <mergeCell ref="U28:AM28"/>
-    <mergeCell ref="O10:AA10"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="C25:O25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="C26:O26"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="C28:O28"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:Z12"/>
-    <mergeCell ref="F2:S6"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AN4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AN5"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="T13:Z14"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="T15:Z15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="T16:Z17"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="C27:O27"/>
-    <mergeCell ref="P27:T27"/>
+  <mergeCells count="79">
+    <mergeCell ref="C31:O31"/>
+    <mergeCell ref="P31:T31"/>
     <mergeCell ref="C18:I18"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="O18:S18"/>
@@ -28502,8 +29136,71 @@
     <mergeCell ref="T19:Z20"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="U25:AM25"/>
+    <mergeCell ref="U30:AM30"/>
+    <mergeCell ref="U31:AM31"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="T15:Z15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T16:Z17"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T13:Z14"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="F2:S6"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="U32:AM32"/>
+    <mergeCell ref="O10:AA10"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="C25:O25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="C30:O30"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:Z12"/>
+    <mergeCell ref="C26:O26"/>
+    <mergeCell ref="P26:T26"/>
     <mergeCell ref="U26:AM26"/>
+    <mergeCell ref="C29:O29"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="U29:AM29"/>
+    <mergeCell ref="C27:O27"/>
+    <mergeCell ref="P27:T27"/>
     <mergeCell ref="U27:AM27"/>
+    <mergeCell ref="C28:O28"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="U28:AM28"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Difference between Budget Total and Actual Expense Total" sqref="T19:Z20" xr:uid="{4495B466-C06B-48AE-A491-440276EDA67B}"/>
@@ -28518,24 +29215,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="46e0ad8bcb937777a496f4378509b82b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3afd91b9dddacb5807afd727ccca0e2e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -28756,25 +29435,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1227979-BBF3-4844-9292-32B93518FA69}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F46E534C-454C-492A-BC87-D7A66B52DFCC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E5BBFC9-1062-4E13-AB5A-33B10B165B20}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28791,4 +29470,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F46E534C-454C-492A-BC87-D7A66B52DFCC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1227979-BBF3-4844-9292-32B93518FA69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>